--- a/【ToDoリスト】CRUD表.xlsx
+++ b/【ToDoリスト】CRUD表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tetsu\Downloads\LINE WORKS\中斎さん課題\ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EE18FE-85B0-47D7-A912-489ABF8DA021}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC91A8E-029E-4566-91A8-0CB463FF5FED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="915" windowWidth="17205" windowHeight="9375" tabRatio="998" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="17130" windowHeight="9570" tabRatio="998" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="27" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="97">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -774,13 +774,6 @@
   </si>
   <si>
     <t>ログイン</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>件数</t>
-    <rPh sb="0" eb="2">
-      <t>ケンスウ</t>
-    </rPh>
     <phoneticPr fontId="7"/>
   </si>
   <si>
@@ -1951,6 +1944,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1963,56 +1980,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2056,41 +2041,49 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2688,7 +2681,7 @@
   </sheetPr>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -2794,7 +2787,7 @@
       <c r="H9" s="40"/>
       <c r="I9" s="40"/>
       <c r="J9" s="54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="69">
@@ -3098,14 +3091,14 @@
       <c r="E4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="125" t="s">
+      <c r="F4" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125" t="s">
+      <c r="G4" s="133"/>
+      <c r="H4" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="126"/>
+      <c r="I4" s="134"/>
     </row>
     <row r="5" spans="1:9" ht="27" customHeight="1">
       <c r="A5" s="88" t="s">
@@ -3123,14 +3116,14 @@
       <c r="E5" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="127" t="s">
+      <c r="F5" s="135" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127" t="s">
+      <c r="G5" s="135"/>
+      <c r="H5" s="135" t="s">
         <v>71</v>
       </c>
-      <c r="I5" s="128"/>
+      <c r="I5" s="136"/>
     </row>
     <row r="6" spans="1:9" ht="27" customHeight="1">
       <c r="A6" s="92" t="s">
@@ -3146,13 +3139,13 @@
         <v>74</v>
       </c>
       <c r="E6" s="94"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="130"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="129"/>
     </row>
     <row r="7" spans="1:9" ht="27" customHeight="1">
-      <c r="A7" s="131" t="s">
+      <c r="A7" s="130" t="s">
         <v>75</v>
       </c>
       <c r="B7" s="95">
@@ -3165,13 +3158,13 @@
         <v>76</v>
       </c>
       <c r="E7" s="94"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="130"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="129"/>
     </row>
     <row r="8" spans="1:9" ht="27" customHeight="1">
-      <c r="A8" s="132"/>
+      <c r="A8" s="131"/>
       <c r="B8" s="95">
         <v>43494</v>
       </c>
@@ -3182,13 +3175,13 @@
         <v>78</v>
       </c>
       <c r="E8" s="94"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="130"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="129"/>
     </row>
     <row r="9" spans="1:9" ht="27" customHeight="1">
-      <c r="A9" s="133"/>
+      <c r="A9" s="132"/>
       <c r="B9" s="95">
         <v>43495</v>
       </c>
@@ -3199,10 +3192,10 @@
         <v>80</v>
       </c>
       <c r="E9" s="94"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="129"/>
-      <c r="I9" s="130"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="129"/>
     </row>
     <row r="10" spans="1:9" ht="27" customHeight="1">
       <c r="A10" s="96"/>
@@ -3210,10 +3203,10 @@
       <c r="C10" s="91"/>
       <c r="D10" s="91"/>
       <c r="E10" s="94"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="129"/>
-      <c r="I10" s="130"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="129"/>
     </row>
     <row r="11" spans="1:9" ht="27" customHeight="1">
       <c r="A11" s="96"/>
@@ -3221,10 +3214,10 @@
       <c r="C11" s="99"/>
       <c r="D11" s="91"/>
       <c r="E11" s="100"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="136"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="127"/>
     </row>
     <row r="12" spans="1:9" ht="27" customHeight="1">
       <c r="A12" s="96"/>
@@ -3232,10 +3225,10 @@
       <c r="C12" s="99"/>
       <c r="D12" s="91"/>
       <c r="E12" s="100"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="135"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="136"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="127"/>
     </row>
     <row r="13" spans="1:9" ht="27" customHeight="1">
       <c r="A13" s="96"/>
@@ -3243,10 +3236,10 @@
       <c r="C13" s="99"/>
       <c r="D13" s="91"/>
       <c r="E13" s="100"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="134"/>
-      <c r="I13" s="136"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="127"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1">
       <c r="A14" s="96"/>
@@ -3254,10 +3247,10 @@
       <c r="C14" s="99"/>
       <c r="D14" s="91"/>
       <c r="E14" s="100"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="134"/>
-      <c r="I14" s="136"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="127"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1">
       <c r="A15" s="96"/>
@@ -3265,10 +3258,10 @@
       <c r="C15" s="99"/>
       <c r="D15" s="91"/>
       <c r="E15" s="100"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="135"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="136"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="127"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1">
       <c r="A16" s="96"/>
@@ -3276,10 +3269,10 @@
       <c r="C16" s="99"/>
       <c r="D16" s="91"/>
       <c r="E16" s="100"/>
-      <c r="F16" s="134"/>
-      <c r="G16" s="135"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="136"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="127"/>
     </row>
     <row r="17" spans="1:9" ht="27" customHeight="1">
       <c r="A17" s="96"/>
@@ -3338,6 +3331,25 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="F13:G13"/>
@@ -3346,25 +3358,6 @@
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
@@ -3388,8 +3381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BX58"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24:U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3399,337 +3392,337 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:76" s="111" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="139" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="175" t="s">
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="140" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="173"/>
-      <c r="M1" s="173"/>
-      <c r="N1" s="173"/>
-      <c r="O1" s="173"/>
-      <c r="P1" s="173"/>
-      <c r="Q1" s="173"/>
-      <c r="R1" s="173"/>
-      <c r="S1" s="173"/>
-      <c r="T1" s="173"/>
-      <c r="U1" s="173"/>
-      <c r="V1" s="173"/>
-      <c r="W1" s="173"/>
-      <c r="X1" s="173"/>
-      <c r="Y1" s="173"/>
-      <c r="Z1" s="173"/>
-      <c r="AA1" s="173"/>
-      <c r="AB1" s="173"/>
-      <c r="AC1" s="173"/>
-      <c r="AD1" s="173"/>
-      <c r="AE1" s="173"/>
-      <c r="AF1" s="173"/>
-      <c r="AG1" s="173"/>
-      <c r="AH1" s="173"/>
-      <c r="AI1" s="173"/>
-      <c r="AJ1" s="173"/>
-      <c r="AK1" s="173"/>
-      <c r="AL1" s="173"/>
-      <c r="AM1" s="173"/>
-      <c r="AN1" s="173"/>
-      <c r="AO1" s="173"/>
-      <c r="AP1" s="173"/>
-      <c r="AQ1" s="173"/>
-      <c r="AR1" s="173"/>
-      <c r="AS1" s="173"/>
-      <c r="AT1" s="173"/>
-      <c r="AU1" s="173"/>
-      <c r="AV1" s="173"/>
-      <c r="AW1" s="173"/>
-      <c r="AX1" s="173"/>
-      <c r="AY1" s="173"/>
-      <c r="AZ1" s="173"/>
-      <c r="BA1" s="173"/>
-      <c r="BB1" s="173"/>
-      <c r="BC1" s="173"/>
-      <c r="BD1" s="173"/>
-      <c r="BE1" s="173"/>
-      <c r="BF1" s="173"/>
-      <c r="BG1" s="176" t="s">
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
+      <c r="U1" s="138"/>
+      <c r="V1" s="138"/>
+      <c r="W1" s="138"/>
+      <c r="X1" s="138"/>
+      <c r="Y1" s="138"/>
+      <c r="Z1" s="138"/>
+      <c r="AA1" s="138"/>
+      <c r="AB1" s="138"/>
+      <c r="AC1" s="138"/>
+      <c r="AD1" s="138"/>
+      <c r="AE1" s="138"/>
+      <c r="AF1" s="138"/>
+      <c r="AG1" s="138"/>
+      <c r="AH1" s="138"/>
+      <c r="AI1" s="138"/>
+      <c r="AJ1" s="138"/>
+      <c r="AK1" s="138"/>
+      <c r="AL1" s="138"/>
+      <c r="AM1" s="138"/>
+      <c r="AN1" s="138"/>
+      <c r="AO1" s="138"/>
+      <c r="AP1" s="138"/>
+      <c r="AQ1" s="138"/>
+      <c r="AR1" s="138"/>
+      <c r="AS1" s="138"/>
+      <c r="AT1" s="138"/>
+      <c r="AU1" s="138"/>
+      <c r="AV1" s="138"/>
+      <c r="AW1" s="138"/>
+      <c r="AX1" s="138"/>
+      <c r="AY1" s="138"/>
+      <c r="AZ1" s="138"/>
+      <c r="BA1" s="138"/>
+      <c r="BB1" s="138"/>
+      <c r="BC1" s="138"/>
+      <c r="BD1" s="138"/>
+      <c r="BE1" s="138"/>
+      <c r="BF1" s="138"/>
+      <c r="BG1" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="BH1" s="173"/>
-      <c r="BI1" s="173"/>
-      <c r="BJ1" s="177">
+      <c r="BH1" s="138"/>
+      <c r="BI1" s="138"/>
+      <c r="BJ1" s="142">
         <v>43544</v>
       </c>
-      <c r="BK1" s="173"/>
-      <c r="BL1" s="173"/>
-      <c r="BM1" s="173"/>
-      <c r="BN1" s="173"/>
-      <c r="BO1" s="173"/>
-      <c r="BP1" s="176" t="s">
+      <c r="BK1" s="138"/>
+      <c r="BL1" s="138"/>
+      <c r="BM1" s="138"/>
+      <c r="BN1" s="138"/>
+      <c r="BO1" s="138"/>
+      <c r="BP1" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="BQ1" s="173"/>
-      <c r="BR1" s="173"/>
-      <c r="BS1" s="172" t="s">
-        <v>97</v>
-      </c>
-      <c r="BT1" s="173"/>
-      <c r="BU1" s="173"/>
-      <c r="BV1" s="173"/>
-      <c r="BW1" s="173"/>
-      <c r="BX1" s="173"/>
+      <c r="BQ1" s="138"/>
+      <c r="BR1" s="138"/>
+      <c r="BS1" s="137" t="s">
+        <v>96</v>
+      </c>
+      <c r="BT1" s="138"/>
+      <c r="BU1" s="138"/>
+      <c r="BV1" s="138"/>
+      <c r="BW1" s="138"/>
+      <c r="BX1" s="138"/>
     </row>
     <row r="2" spans="1:76" s="118" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="139" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="175" t="str">
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="140" t="str">
         <f ca="1">表紙!J10 &amp; "： " &amp; RIGHT(CELL("filename",K1),LEN(CELL("filename",K1))-FIND("]",CELL("filename",K1)))</f>
         <v>CRUD表： ToDoリスト</v>
       </c>
-      <c r="L2" s="173"/>
-      <c r="M2" s="173"/>
-      <c r="N2" s="173"/>
-      <c r="O2" s="173"/>
-      <c r="P2" s="173"/>
-      <c r="Q2" s="173"/>
-      <c r="R2" s="173"/>
-      <c r="S2" s="173"/>
-      <c r="T2" s="173"/>
-      <c r="U2" s="173"/>
-      <c r="V2" s="173"/>
-      <c r="W2" s="173"/>
-      <c r="X2" s="173"/>
-      <c r="Y2" s="173"/>
-      <c r="Z2" s="173"/>
-      <c r="AA2" s="173"/>
-      <c r="AB2" s="173"/>
-      <c r="AC2" s="173"/>
-      <c r="AD2" s="173"/>
-      <c r="AE2" s="173"/>
-      <c r="AF2" s="173"/>
-      <c r="AG2" s="173"/>
-      <c r="AH2" s="173"/>
-      <c r="AI2" s="173"/>
-      <c r="AJ2" s="173"/>
-      <c r="AK2" s="173"/>
-      <c r="AL2" s="173"/>
-      <c r="AM2" s="173"/>
-      <c r="AN2" s="173"/>
-      <c r="AO2" s="173"/>
-      <c r="AP2" s="173"/>
-      <c r="AQ2" s="173"/>
-      <c r="AR2" s="173"/>
-      <c r="AS2" s="173"/>
-      <c r="AT2" s="173"/>
-      <c r="AU2" s="173"/>
-      <c r="AV2" s="173"/>
-      <c r="AW2" s="173"/>
-      <c r="AX2" s="173"/>
-      <c r="AY2" s="173"/>
-      <c r="AZ2" s="173"/>
-      <c r="BA2" s="173"/>
-      <c r="BB2" s="173"/>
-      <c r="BC2" s="173"/>
-      <c r="BD2" s="173"/>
-      <c r="BE2" s="173"/>
-      <c r="BF2" s="173"/>
-      <c r="BG2" s="176" t="s">
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="138"/>
+      <c r="V2" s="138"/>
+      <c r="W2" s="138"/>
+      <c r="X2" s="138"/>
+      <c r="Y2" s="138"/>
+      <c r="Z2" s="138"/>
+      <c r="AA2" s="138"/>
+      <c r="AB2" s="138"/>
+      <c r="AC2" s="138"/>
+      <c r="AD2" s="138"/>
+      <c r="AE2" s="138"/>
+      <c r="AF2" s="138"/>
+      <c r="AG2" s="138"/>
+      <c r="AH2" s="138"/>
+      <c r="AI2" s="138"/>
+      <c r="AJ2" s="138"/>
+      <c r="AK2" s="138"/>
+      <c r="AL2" s="138"/>
+      <c r="AM2" s="138"/>
+      <c r="AN2" s="138"/>
+      <c r="AO2" s="138"/>
+      <c r="AP2" s="138"/>
+      <c r="AQ2" s="138"/>
+      <c r="AR2" s="138"/>
+      <c r="AS2" s="138"/>
+      <c r="AT2" s="138"/>
+      <c r="AU2" s="138"/>
+      <c r="AV2" s="138"/>
+      <c r="AW2" s="138"/>
+      <c r="AX2" s="138"/>
+      <c r="AY2" s="138"/>
+      <c r="AZ2" s="138"/>
+      <c r="BA2" s="138"/>
+      <c r="BB2" s="138"/>
+      <c r="BC2" s="138"/>
+      <c r="BD2" s="138"/>
+      <c r="BE2" s="138"/>
+      <c r="BF2" s="138"/>
+      <c r="BG2" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="BH2" s="173"/>
-      <c r="BI2" s="173"/>
-      <c r="BJ2" s="177"/>
-      <c r="BK2" s="173"/>
-      <c r="BL2" s="173"/>
-      <c r="BM2" s="173"/>
-      <c r="BN2" s="173"/>
-      <c r="BO2" s="173"/>
-      <c r="BP2" s="176" t="s">
+      <c r="BH2" s="138"/>
+      <c r="BI2" s="138"/>
+      <c r="BJ2" s="142"/>
+      <c r="BK2" s="138"/>
+      <c r="BL2" s="138"/>
+      <c r="BM2" s="138"/>
+      <c r="BN2" s="138"/>
+      <c r="BO2" s="138"/>
+      <c r="BP2" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="BQ2" s="173"/>
-      <c r="BR2" s="173"/>
-      <c r="BS2" s="172"/>
-      <c r="BT2" s="173"/>
-      <c r="BU2" s="173"/>
-      <c r="BV2" s="173"/>
-      <c r="BW2" s="173"/>
-      <c r="BX2" s="173"/>
+      <c r="BQ2" s="138"/>
+      <c r="BR2" s="138"/>
+      <c r="BS2" s="137"/>
+      <c r="BT2" s="138"/>
+      <c r="BU2" s="138"/>
+      <c r="BV2" s="138"/>
+      <c r="BW2" s="138"/>
+      <c r="BX2" s="138"/>
     </row>
     <row r="3" spans="1:76">
-      <c r="A3" s="137"/>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="137"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="137"/>
-      <c r="O3" s="137"/>
-      <c r="P3" s="137"/>
-      <c r="Q3" s="137"/>
-      <c r="R3" s="137"/>
-      <c r="S3" s="137"/>
-      <c r="T3" s="137"/>
-      <c r="U3" s="137"/>
-      <c r="V3" s="137"/>
-      <c r="W3" s="137"/>
-      <c r="X3" s="137"/>
-      <c r="Y3" s="137"/>
-      <c r="Z3" s="137"/>
-      <c r="AA3" s="137"/>
-      <c r="AB3" s="137"/>
-      <c r="AC3" s="137"/>
-      <c r="AD3" s="137"/>
-      <c r="AE3" s="137"/>
-      <c r="AF3" s="137"/>
-      <c r="AG3" s="137"/>
-      <c r="AH3" s="137"/>
-      <c r="AI3" s="137"/>
-      <c r="AJ3" s="137"/>
-      <c r="AK3" s="137"/>
-      <c r="AL3" s="137"/>
-      <c r="AM3" s="137"/>
-      <c r="AN3" s="137"/>
-      <c r="AO3" s="137"/>
-      <c r="AP3" s="137"/>
-      <c r="AQ3" s="137"/>
-      <c r="AR3" s="137"/>
-      <c r="AS3" s="137"/>
-      <c r="AT3" s="137"/>
-      <c r="AU3" s="137"/>
-      <c r="AV3" s="137"/>
-      <c r="AW3" s="137"/>
-      <c r="AX3" s="137"/>
-      <c r="AY3" s="137"/>
-      <c r="AZ3" s="137"/>
-      <c r="BA3" s="137"/>
-      <c r="BB3" s="137"/>
-      <c r="BC3" s="137"/>
-      <c r="BD3" s="137"/>
-      <c r="BE3" s="137"/>
-      <c r="BF3" s="137"/>
-      <c r="BG3" s="137"/>
-      <c r="BH3" s="137"/>
-      <c r="BI3" s="137"/>
-      <c r="BJ3" s="137"/>
-      <c r="BK3" s="137"/>
-      <c r="BL3" s="137"/>
-      <c r="BM3" s="137"/>
-      <c r="BN3" s="137"/>
-      <c r="BO3" s="137"/>
-      <c r="BP3" s="137"/>
-      <c r="BQ3" s="137"/>
-      <c r="BR3" s="137"/>
-      <c r="BS3" s="137"/>
-      <c r="BT3" s="137"/>
-      <c r="BU3" s="137"/>
-      <c r="BV3" s="137"/>
-      <c r="BW3" s="137"/>
-      <c r="BX3" s="137"/>
+      <c r="A3" s="170"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="170"/>
+      <c r="M3" s="170"/>
+      <c r="N3" s="170"/>
+      <c r="O3" s="170"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="170"/>
+      <c r="S3" s="170"/>
+      <c r="T3" s="170"/>
+      <c r="U3" s="170"/>
+      <c r="V3" s="170"/>
+      <c r="W3" s="170"/>
+      <c r="X3" s="170"/>
+      <c r="Y3" s="170"/>
+      <c r="Z3" s="170"/>
+      <c r="AA3" s="170"/>
+      <c r="AB3" s="170"/>
+      <c r="AC3" s="170"/>
+      <c r="AD3" s="170"/>
+      <c r="AE3" s="170"/>
+      <c r="AF3" s="170"/>
+      <c r="AG3" s="170"/>
+      <c r="AH3" s="170"/>
+      <c r="AI3" s="170"/>
+      <c r="AJ3" s="170"/>
+      <c r="AK3" s="170"/>
+      <c r="AL3" s="170"/>
+      <c r="AM3" s="170"/>
+      <c r="AN3" s="170"/>
+      <c r="AO3" s="170"/>
+      <c r="AP3" s="170"/>
+      <c r="AQ3" s="170"/>
+      <c r="AR3" s="170"/>
+      <c r="AS3" s="170"/>
+      <c r="AT3" s="170"/>
+      <c r="AU3" s="170"/>
+      <c r="AV3" s="170"/>
+      <c r="AW3" s="170"/>
+      <c r="AX3" s="170"/>
+      <c r="AY3" s="170"/>
+      <c r="AZ3" s="170"/>
+      <c r="BA3" s="170"/>
+      <c r="BB3" s="170"/>
+      <c r="BC3" s="170"/>
+      <c r="BD3" s="170"/>
+      <c r="BE3" s="170"/>
+      <c r="BF3" s="170"/>
+      <c r="BG3" s="170"/>
+      <c r="BH3" s="170"/>
+      <c r="BI3" s="170"/>
+      <c r="BJ3" s="170"/>
+      <c r="BK3" s="170"/>
+      <c r="BL3" s="170"/>
+      <c r="BM3" s="170"/>
+      <c r="BN3" s="170"/>
+      <c r="BO3" s="170"/>
+      <c r="BP3" s="170"/>
+      <c r="BQ3" s="170"/>
+      <c r="BR3" s="170"/>
+      <c r="BS3" s="170"/>
+      <c r="BT3" s="170"/>
+      <c r="BU3" s="170"/>
+      <c r="BV3" s="170"/>
+      <c r="BW3" s="170"/>
+      <c r="BX3" s="170"/>
     </row>
     <row r="4" spans="1:76">
-      <c r="A4" s="138"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="139"/>
-      <c r="N4" s="139"/>
-      <c r="O4" s="139"/>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="139"/>
-      <c r="R4" s="139"/>
-      <c r="S4" s="139"/>
-      <c r="T4" s="139"/>
-      <c r="U4" s="139"/>
-      <c r="V4" s="139"/>
-      <c r="W4" s="139"/>
-      <c r="X4" s="139"/>
-      <c r="Y4" s="139"/>
-      <c r="Z4" s="139"/>
-      <c r="AA4" s="139"/>
-      <c r="AB4" s="139"/>
-      <c r="AC4" s="139"/>
-      <c r="AD4" s="139"/>
-      <c r="AE4" s="139"/>
-      <c r="AF4" s="139"/>
-      <c r="AG4" s="139"/>
-      <c r="AH4" s="139"/>
-      <c r="AI4" s="139"/>
-      <c r="AJ4" s="139"/>
-      <c r="AK4" s="139"/>
-      <c r="AL4" s="139"/>
-      <c r="AM4" s="139"/>
-      <c r="AN4" s="139"/>
-      <c r="AO4" s="139"/>
-      <c r="AP4" s="139"/>
-      <c r="AQ4" s="139"/>
-      <c r="AR4" s="139"/>
-      <c r="AS4" s="139"/>
-      <c r="AT4" s="139"/>
-      <c r="AU4" s="139"/>
-      <c r="AV4" s="139"/>
-      <c r="AW4" s="139"/>
-      <c r="AX4" s="139"/>
-      <c r="AY4" s="139"/>
-      <c r="AZ4" s="139"/>
-      <c r="BA4" s="139"/>
-      <c r="BB4" s="139"/>
-      <c r="BC4" s="139"/>
-      <c r="BD4" s="139"/>
-      <c r="BE4" s="139"/>
-      <c r="BF4" s="139"/>
-      <c r="BG4" s="139"/>
-      <c r="BH4" s="139"/>
-      <c r="BI4" s="139"/>
-      <c r="BJ4" s="139"/>
-      <c r="BK4" s="139"/>
-      <c r="BL4" s="139"/>
-      <c r="BM4" s="139"/>
-      <c r="BN4" s="139"/>
-      <c r="BO4" s="139"/>
-      <c r="BP4" s="139"/>
-      <c r="BQ4" s="139"/>
-      <c r="BR4" s="139"/>
-      <c r="BS4" s="139"/>
-      <c r="BT4" s="139"/>
-      <c r="BU4" s="139"/>
-      <c r="BV4" s="139"/>
-      <c r="BW4" s="139"/>
-      <c r="BX4" s="140"/>
+      <c r="A4" s="171"/>
+      <c r="B4" s="172"/>
+      <c r="C4" s="172"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="172"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="172"/>
+      <c r="H4" s="172"/>
+      <c r="I4" s="172"/>
+      <c r="J4" s="172"/>
+      <c r="K4" s="172"/>
+      <c r="L4" s="172"/>
+      <c r="M4" s="172"/>
+      <c r="N4" s="172"/>
+      <c r="O4" s="172"/>
+      <c r="P4" s="172"/>
+      <c r="Q4" s="172"/>
+      <c r="R4" s="172"/>
+      <c r="S4" s="172"/>
+      <c r="T4" s="172"/>
+      <c r="U4" s="172"/>
+      <c r="V4" s="172"/>
+      <c r="W4" s="172"/>
+      <c r="X4" s="172"/>
+      <c r="Y4" s="172"/>
+      <c r="Z4" s="172"/>
+      <c r="AA4" s="172"/>
+      <c r="AB4" s="172"/>
+      <c r="AC4" s="172"/>
+      <c r="AD4" s="172"/>
+      <c r="AE4" s="172"/>
+      <c r="AF4" s="172"/>
+      <c r="AG4" s="172"/>
+      <c r="AH4" s="172"/>
+      <c r="AI4" s="172"/>
+      <c r="AJ4" s="172"/>
+      <c r="AK4" s="172"/>
+      <c r="AL4" s="172"/>
+      <c r="AM4" s="172"/>
+      <c r="AN4" s="172"/>
+      <c r="AO4" s="172"/>
+      <c r="AP4" s="172"/>
+      <c r="AQ4" s="172"/>
+      <c r="AR4" s="172"/>
+      <c r="AS4" s="172"/>
+      <c r="AT4" s="172"/>
+      <c r="AU4" s="172"/>
+      <c r="AV4" s="172"/>
+      <c r="AW4" s="172"/>
+      <c r="AX4" s="172"/>
+      <c r="AY4" s="172"/>
+      <c r="AZ4" s="172"/>
+      <c r="BA4" s="172"/>
+      <c r="BB4" s="172"/>
+      <c r="BC4" s="172"/>
+      <c r="BD4" s="172"/>
+      <c r="BE4" s="172"/>
+      <c r="BF4" s="172"/>
+      <c r="BG4" s="172"/>
+      <c r="BH4" s="172"/>
+      <c r="BI4" s="172"/>
+      <c r="BJ4" s="172"/>
+      <c r="BK4" s="172"/>
+      <c r="BL4" s="172"/>
+      <c r="BM4" s="172"/>
+      <c r="BN4" s="172"/>
+      <c r="BO4" s="172"/>
+      <c r="BP4" s="172"/>
+      <c r="BQ4" s="172"/>
+      <c r="BR4" s="172"/>
+      <c r="BS4" s="172"/>
+      <c r="BT4" s="172"/>
+      <c r="BU4" s="172"/>
+      <c r="BV4" s="172"/>
+      <c r="BW4" s="172"/>
+      <c r="BX4" s="173"/>
     </row>
     <row r="5" spans="1:76">
       <c r="A5" s="2"/>
@@ -3811,105 +3804,103 @@
     </row>
     <row r="6" spans="1:76">
       <c r="A6" s="2"/>
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="174" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="142"/>
-      <c r="D6" s="143"/>
-      <c r="E6" s="143"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="143"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="145" t="s">
+      <c r="C6" s="175"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="169"/>
+      <c r="K6" s="164" t="s">
         <v>86</v>
       </c>
-      <c r="L6" s="146"/>
-      <c r="M6" s="146"/>
-      <c r="N6" s="146"/>
-      <c r="O6" s="147" t="s">
+      <c r="L6" s="165"/>
+      <c r="M6" s="165"/>
+      <c r="N6" s="165"/>
+      <c r="O6" s="176" t="s">
         <v>88</v>
       </c>
-      <c r="P6" s="146"/>
-      <c r="Q6" s="146"/>
-      <c r="R6" s="148"/>
-      <c r="S6" s="145" t="s">
-        <v>90</v>
-      </c>
-      <c r="T6" s="146"/>
-      <c r="U6" s="146"/>
-      <c r="V6" s="146"/>
-      <c r="W6" s="145"/>
-      <c r="X6" s="146"/>
-      <c r="Y6" s="146"/>
-      <c r="Z6" s="146"/>
-      <c r="AA6" s="145"/>
-      <c r="AB6" s="146"/>
-      <c r="AC6" s="146"/>
-      <c r="AD6" s="146"/>
-      <c r="AE6" s="145"/>
-      <c r="AF6" s="146"/>
-      <c r="AG6" s="146"/>
-      <c r="AH6" s="146"/>
-      <c r="AI6" s="145"/>
-      <c r="AJ6" s="146"/>
-      <c r="AK6" s="146"/>
-      <c r="AL6" s="146"/>
-      <c r="AM6" s="145"/>
-      <c r="AN6" s="146"/>
-      <c r="AO6" s="146"/>
-      <c r="AP6" s="146"/>
-      <c r="AQ6" s="145"/>
-      <c r="AR6" s="146"/>
-      <c r="AS6" s="146"/>
-      <c r="AT6" s="146"/>
-      <c r="AU6" s="145"/>
-      <c r="AV6" s="146"/>
-      <c r="AW6" s="146"/>
-      <c r="AX6" s="146"/>
-      <c r="AY6" s="145"/>
-      <c r="AZ6" s="146"/>
-      <c r="BA6" s="146"/>
-      <c r="BB6" s="146"/>
-      <c r="BC6" s="145"/>
-      <c r="BD6" s="146"/>
-      <c r="BE6" s="146"/>
-      <c r="BF6" s="146"/>
-      <c r="BG6" s="145"/>
-      <c r="BH6" s="146"/>
-      <c r="BI6" s="146"/>
-      <c r="BJ6" s="146"/>
-      <c r="BK6" s="145"/>
-      <c r="BL6" s="146"/>
-      <c r="BM6" s="146"/>
-      <c r="BN6" s="146"/>
-      <c r="BO6" s="145"/>
-      <c r="BP6" s="146"/>
-      <c r="BQ6" s="146"/>
-      <c r="BR6" s="146"/>
-      <c r="BS6" s="145"/>
-      <c r="BT6" s="146"/>
-      <c r="BU6" s="146"/>
-      <c r="BV6" s="146"/>
+      <c r="P6" s="165"/>
+      <c r="Q6" s="165"/>
+      <c r="R6" s="177"/>
+      <c r="S6" s="164"/>
+      <c r="T6" s="165"/>
+      <c r="U6" s="165"/>
+      <c r="V6" s="165"/>
+      <c r="W6" s="164"/>
+      <c r="X6" s="165"/>
+      <c r="Y6" s="165"/>
+      <c r="Z6" s="165"/>
+      <c r="AA6" s="164"/>
+      <c r="AB6" s="165"/>
+      <c r="AC6" s="165"/>
+      <c r="AD6" s="165"/>
+      <c r="AE6" s="164"/>
+      <c r="AF6" s="165"/>
+      <c r="AG6" s="165"/>
+      <c r="AH6" s="165"/>
+      <c r="AI6" s="164"/>
+      <c r="AJ6" s="165"/>
+      <c r="AK6" s="165"/>
+      <c r="AL6" s="165"/>
+      <c r="AM6" s="164"/>
+      <c r="AN6" s="165"/>
+      <c r="AO6" s="165"/>
+      <c r="AP6" s="165"/>
+      <c r="AQ6" s="164"/>
+      <c r="AR6" s="165"/>
+      <c r="AS6" s="165"/>
+      <c r="AT6" s="165"/>
+      <c r="AU6" s="164"/>
+      <c r="AV6" s="165"/>
+      <c r="AW6" s="165"/>
+      <c r="AX6" s="165"/>
+      <c r="AY6" s="164"/>
+      <c r="AZ6" s="165"/>
+      <c r="BA6" s="165"/>
+      <c r="BB6" s="165"/>
+      <c r="BC6" s="164"/>
+      <c r="BD6" s="165"/>
+      <c r="BE6" s="165"/>
+      <c r="BF6" s="165"/>
+      <c r="BG6" s="164"/>
+      <c r="BH6" s="165"/>
+      <c r="BI6" s="165"/>
+      <c r="BJ6" s="165"/>
+      <c r="BK6" s="164"/>
+      <c r="BL6" s="165"/>
+      <c r="BM6" s="165"/>
+      <c r="BN6" s="165"/>
+      <c r="BO6" s="164"/>
+      <c r="BP6" s="165"/>
+      <c r="BQ6" s="165"/>
+      <c r="BR6" s="165"/>
+      <c r="BS6" s="164"/>
+      <c r="BT6" s="165"/>
+      <c r="BU6" s="165"/>
+      <c r="BV6" s="165"/>
       <c r="BW6" s="3"/>
       <c r="BX6" s="4"/>
     </row>
     <row r="7" spans="1:76">
       <c r="A7" s="2"/>
-      <c r="B7" s="149" t="s">
+      <c r="B7" s="166" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="150"/>
-      <c r="D7" s="143"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="149" t="s">
+      <c r="C7" s="167"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="166" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="143"/>
-      <c r="H7" s="143"/>
-      <c r="I7" s="143"/>
-      <c r="J7" s="144"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="169"/>
       <c r="K7" s="20" t="s">
         <v>37</v>
       </c>
@@ -4107,24 +4098,24 @@
     </row>
     <row r="8" spans="1:76">
       <c r="A8" s="2"/>
-      <c r="B8" s="151" t="s">
+      <c r="B8" s="143" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="152"/>
-      <c r="D8" s="152"/>
-      <c r="E8" s="153"/>
-      <c r="F8" s="162" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="162"/>
-      <c r="H8" s="162"/>
-      <c r="I8" s="162"/>
-      <c r="J8" s="162"/>
+      <c r="C8" s="144"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="154" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="154"/>
       <c r="K8" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
@@ -4134,9 +4125,7 @@
       <c r="R8" s="22"/>
       <c r="S8" s="12"/>
       <c r="T8" s="11"/>
-      <c r="U8" s="11" t="s">
-        <v>94</v>
-      </c>
+      <c r="U8" s="11"/>
       <c r="V8" s="11"/>
       <c r="W8" s="12"/>
       <c r="X8" s="11"/>
@@ -4195,23 +4184,23 @@
     </row>
     <row r="9" spans="1:76">
       <c r="A9" s="2"/>
-      <c r="B9" s="154"/>
-      <c r="C9" s="155"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="162" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9" s="162"/>
-      <c r="H9" s="162"/>
-      <c r="I9" s="162"/>
-      <c r="J9" s="162"/>
+      <c r="B9" s="146"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="154" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="154"/>
+      <c r="H9" s="154"/>
+      <c r="I9" s="154"/>
+      <c r="J9" s="154"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N9" s="11"/>
       <c r="O9" s="13"/>
@@ -4279,24 +4268,24 @@
     </row>
     <row r="10" spans="1:76">
       <c r="A10" s="2"/>
-      <c r="B10" s="154"/>
-      <c r="C10" s="155"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="162" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="162"/>
-      <c r="H10" s="162"/>
-      <c r="I10" s="162"/>
-      <c r="J10" s="162"/>
+      <c r="B10" s="146"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="154" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="154"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="154"/>
+      <c r="J10" s="154"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O10" s="13"/>
       <c r="P10" s="11"/>
@@ -4304,9 +4293,7 @@
       <c r="R10" s="22"/>
       <c r="S10" s="11"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="11" t="s">
-        <v>94</v>
-      </c>
+      <c r="U10" s="11"/>
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
       <c r="X10" s="12"/>
@@ -4365,15 +4352,15 @@
     </row>
     <row r="11" spans="1:76">
       <c r="A11" s="2"/>
-      <c r="B11" s="154"/>
-      <c r="C11" s="155"/>
-      <c r="D11" s="155"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="162"/>
-      <c r="I11" s="162"/>
-      <c r="J11" s="162"/>
+      <c r="B11" s="146"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="154"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
@@ -4443,15 +4430,15 @@
     </row>
     <row r="12" spans="1:76">
       <c r="A12" s="2"/>
-      <c r="B12" s="154"/>
-      <c r="C12" s="155"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="162"/>
-      <c r="G12" s="162"/>
-      <c r="H12" s="162"/>
-      <c r="I12" s="162"/>
-      <c r="J12" s="162"/>
+      <c r="B12" s="146"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="154"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
@@ -4521,15 +4508,15 @@
     </row>
     <row r="13" spans="1:76">
       <c r="A13" s="2"/>
-      <c r="B13" s="157"/>
-      <c r="C13" s="158"/>
-      <c r="D13" s="158"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="164"/>
-      <c r="I13" s="164"/>
-      <c r="J13" s="165"/>
+      <c r="B13" s="149"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="155"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="156"/>
+      <c r="J13" s="157"/>
       <c r="K13" s="24"/>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
@@ -4599,15 +4586,15 @@
     </row>
     <row r="14" spans="1:76">
       <c r="A14" s="2"/>
-      <c r="B14" s="157"/>
-      <c r="C14" s="158"/>
-      <c r="D14" s="158"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="166"/>
-      <c r="G14" s="167"/>
-      <c r="H14" s="167"/>
-      <c r="I14" s="167"/>
-      <c r="J14" s="168"/>
+      <c r="B14" s="149"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="160"/>
       <c r="K14" s="25"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -4677,15 +4664,15 @@
     </row>
     <row r="15" spans="1:76">
       <c r="A15" s="2"/>
-      <c r="B15" s="159"/>
-      <c r="C15" s="160"/>
-      <c r="D15" s="160"/>
-      <c r="E15" s="161"/>
-      <c r="F15" s="169"/>
-      <c r="G15" s="170"/>
-      <c r="H15" s="170"/>
-      <c r="I15" s="170"/>
-      <c r="J15" s="171"/>
+      <c r="B15" s="151"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="153"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="162"/>
+      <c r="H15" s="162"/>
+      <c r="I15" s="162"/>
+      <c r="J15" s="163"/>
       <c r="K15" s="17"/>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
@@ -4755,25 +4742,25 @@
     </row>
     <row r="16" spans="1:76">
       <c r="A16" s="2"/>
-      <c r="B16" s="151" t="s">
+      <c r="B16" s="143" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="152"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="162" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="162"/>
-      <c r="H16" s="162"/>
-      <c r="I16" s="162"/>
-      <c r="J16" s="162"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="154" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
       <c r="K16" s="12"/>
       <c r="L16" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N16" s="11"/>
       <c r="O16" s="27"/>
@@ -4841,15 +4828,15 @@
     </row>
     <row r="17" spans="1:76">
       <c r="A17" s="2"/>
-      <c r="B17" s="154"/>
-      <c r="C17" s="155"/>
-      <c r="D17" s="155"/>
-      <c r="E17" s="156"/>
-      <c r="F17" s="162"/>
-      <c r="G17" s="162"/>
-      <c r="H17" s="162"/>
-      <c r="I17" s="162"/>
-      <c r="J17" s="162"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="148"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="154"/>
       <c r="K17" s="11"/>
       <c r="L17" s="12"/>
       <c r="M17" s="11"/>
@@ -4919,15 +4906,15 @@
     </row>
     <row r="18" spans="1:76">
       <c r="A18" s="2"/>
-      <c r="B18" s="154"/>
-      <c r="C18" s="155"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="156"/>
-      <c r="F18" s="162"/>
-      <c r="G18" s="162"/>
-      <c r="H18" s="162"/>
-      <c r="I18" s="162"/>
-      <c r="J18" s="162"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="154"/>
       <c r="K18" s="11"/>
       <c r="L18" s="12"/>
       <c r="M18" s="11"/>
@@ -4997,15 +4984,15 @@
     </row>
     <row r="19" spans="1:76">
       <c r="A19" s="2"/>
-      <c r="B19" s="154"/>
-      <c r="C19" s="155"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="162"/>
-      <c r="G19" s="162"/>
-      <c r="H19" s="162"/>
-      <c r="I19" s="162"/>
-      <c r="J19" s="162"/>
+      <c r="B19" s="146"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="148"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="154"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="12"/>
@@ -5075,15 +5062,15 @@
     </row>
     <row r="20" spans="1:76">
       <c r="A20" s="2"/>
-      <c r="B20" s="154"/>
-      <c r="C20" s="155"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="162"/>
-      <c r="G20" s="162"/>
-      <c r="H20" s="162"/>
-      <c r="I20" s="162"/>
-      <c r="J20" s="162"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="154"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="154"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="12"/>
@@ -5153,15 +5140,15 @@
     </row>
     <row r="21" spans="1:76">
       <c r="A21" s="2"/>
-      <c r="B21" s="157"/>
-      <c r="C21" s="158"/>
-      <c r="D21" s="158"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="163"/>
-      <c r="G21" s="164"/>
-      <c r="H21" s="164"/>
-      <c r="I21" s="164"/>
-      <c r="J21" s="165"/>
+      <c r="B21" s="149"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="150"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="156"/>
+      <c r="H21" s="156"/>
+      <c r="I21" s="156"/>
+      <c r="J21" s="157"/>
       <c r="K21" s="24"/>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
@@ -5231,15 +5218,15 @@
     </row>
     <row r="22" spans="1:76">
       <c r="A22" s="2"/>
-      <c r="B22" s="157"/>
-      <c r="C22" s="158"/>
-      <c r="D22" s="158"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="166"/>
-      <c r="G22" s="167"/>
-      <c r="H22" s="167"/>
-      <c r="I22" s="167"/>
-      <c r="J22" s="168"/>
+      <c r="B22" s="149"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="148"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="159"/>
+      <c r="I22" s="159"/>
+      <c r="J22" s="160"/>
       <c r="K22" s="25"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
@@ -5309,15 +5296,15 @@
     </row>
     <row r="23" spans="1:76">
       <c r="A23" s="2"/>
-      <c r="B23" s="159"/>
-      <c r="C23" s="160"/>
-      <c r="D23" s="160"/>
-      <c r="E23" s="161"/>
-      <c r="F23" s="169"/>
-      <c r="G23" s="170"/>
-      <c r="H23" s="170"/>
-      <c r="I23" s="170"/>
-      <c r="J23" s="171"/>
+      <c r="B23" s="151"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="153"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="162"/>
+      <c r="H23" s="162"/>
+      <c r="I23" s="162"/>
+      <c r="J23" s="163"/>
       <c r="K23" s="17"/>
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
@@ -5387,40 +5374,38 @@
     </row>
     <row r="24" spans="1:76">
       <c r="A24" s="2"/>
-      <c r="B24" s="151" t="s">
+      <c r="B24" s="143" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="152"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="162" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" s="162"/>
-      <c r="H24" s="162"/>
-      <c r="I24" s="162"/>
-      <c r="J24" s="162"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="154" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="154"/>
+      <c r="H24" s="154"/>
+      <c r="I24" s="154"/>
+      <c r="J24" s="154"/>
       <c r="K24" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
       <c r="O24" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P24" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q24" s="11"/>
       <c r="R24" s="22"/>
       <c r="S24" s="11"/>
       <c r="T24" s="12"/>
-      <c r="U24" s="11" t="s">
-        <v>94</v>
-      </c>
+      <c r="U24" s="11"/>
       <c r="V24" s="11"/>
       <c r="W24" s="11"/>
       <c r="X24" s="12"/>
@@ -5479,31 +5464,31 @@
     </row>
     <row r="25" spans="1:76">
       <c r="A25" s="2"/>
-      <c r="B25" s="154"/>
-      <c r="C25" s="155"/>
-      <c r="D25" s="155"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="162" t="s">
-        <v>91</v>
-      </c>
-      <c r="G25" s="162"/>
-      <c r="H25" s="162"/>
-      <c r="I25" s="162"/>
-      <c r="J25" s="162"/>
+      <c r="B25" s="146"/>
+      <c r="C25" s="147"/>
+      <c r="D25" s="147"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="154" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="154"/>
+      <c r="H25" s="154"/>
+      <c r="I25" s="154"/>
+      <c r="J25" s="154"/>
       <c r="K25" s="11"/>
       <c r="L25" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N25" s="11"/>
       <c r="O25" s="13"/>
       <c r="P25" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q25" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R25" s="22"/>
       <c r="S25" s="11"/>
@@ -5567,38 +5552,36 @@
     </row>
     <row r="26" spans="1:76">
       <c r="A26" s="2"/>
-      <c r="B26" s="154"/>
-      <c r="C26" s="155"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="156"/>
-      <c r="F26" s="162" t="s">
-        <v>93</v>
-      </c>
-      <c r="G26" s="162"/>
-      <c r="H26" s="162"/>
-      <c r="I26" s="162"/>
-      <c r="J26" s="162"/>
+      <c r="B26" s="146"/>
+      <c r="C26" s="147"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="154" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="154"/>
+      <c r="H26" s="154"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="154"/>
       <c r="K26" s="11"/>
       <c r="L26" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N26" s="12"/>
       <c r="O26" s="13"/>
       <c r="P26" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q26" s="11"/>
       <c r="R26" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S26" s="11"/>
       <c r="T26" s="12"/>
-      <c r="U26" s="11" t="s">
-        <v>94</v>
-      </c>
+      <c r="U26" s="11"/>
       <c r="V26" s="11"/>
       <c r="W26" s="11"/>
       <c r="X26" s="12"/>
@@ -5657,15 +5640,15 @@
     </row>
     <row r="27" spans="1:76">
       <c r="A27" s="2"/>
-      <c r="B27" s="154"/>
-      <c r="C27" s="155"/>
-      <c r="D27" s="155"/>
-      <c r="E27" s="156"/>
-      <c r="F27" s="162"/>
-      <c r="G27" s="162"/>
-      <c r="H27" s="162"/>
-      <c r="I27" s="162"/>
-      <c r="J27" s="162"/>
+      <c r="B27" s="146"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="154"/>
+      <c r="G27" s="154"/>
+      <c r="H27" s="154"/>
+      <c r="I27" s="154"/>
+      <c r="J27" s="154"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="M27" s="12"/>
@@ -5735,15 +5718,15 @@
     </row>
     <row r="28" spans="1:76">
       <c r="A28" s="2"/>
-      <c r="B28" s="154"/>
-      <c r="C28" s="155"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
-      <c r="H28" s="162"/>
-      <c r="I28" s="162"/>
-      <c r="J28" s="162"/>
+      <c r="B28" s="146"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="154"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="154"/>
+      <c r="I28" s="154"/>
+      <c r="J28" s="154"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
       <c r="M28" s="12"/>
@@ -5813,17 +5796,17 @@
     </row>
     <row r="29" spans="1:76">
       <c r="A29" s="2"/>
-      <c r="B29" s="157"/>
-      <c r="C29" s="158"/>
-      <c r="D29" s="158"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="163" t="s">
+      <c r="B29" s="149"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="155" t="s">
         <v>54</v>
       </c>
-      <c r="G29" s="164"/>
-      <c r="H29" s="164"/>
-      <c r="I29" s="164"/>
-      <c r="J29" s="165"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="156"/>
+      <c r="I29" s="156"/>
+      <c r="J29" s="157"/>
       <c r="K29" s="24"/>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
@@ -5893,17 +5876,17 @@
     </row>
     <row r="30" spans="1:76">
       <c r="A30" s="2"/>
-      <c r="B30" s="157"/>
-      <c r="C30" s="158"/>
-      <c r="D30" s="158"/>
-      <c r="E30" s="156"/>
-      <c r="F30" s="166" t="s">
+      <c r="B30" s="149"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="150"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="G30" s="167"/>
-      <c r="H30" s="167"/>
-      <c r="I30" s="167"/>
-      <c r="J30" s="168"/>
+      <c r="G30" s="159"/>
+      <c r="H30" s="159"/>
+      <c r="I30" s="159"/>
+      <c r="J30" s="160"/>
       <c r="K30" s="25"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -5973,17 +5956,17 @@
     </row>
     <row r="31" spans="1:76">
       <c r="A31" s="2"/>
-      <c r="B31" s="159"/>
-      <c r="C31" s="160"/>
-      <c r="D31" s="160"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="169" t="s">
+      <c r="B31" s="151"/>
+      <c r="C31" s="152"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="153"/>
+      <c r="F31" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="G31" s="170"/>
-      <c r="H31" s="170"/>
-      <c r="I31" s="170"/>
-      <c r="J31" s="171"/>
+      <c r="G31" s="162"/>
+      <c r="H31" s="162"/>
+      <c r="I31" s="162"/>
+      <c r="J31" s="163"/>
       <c r="K31" s="17"/>
       <c r="L31" s="18"/>
       <c r="M31" s="18"/>
@@ -6053,22 +6036,22 @@
     </row>
     <row r="32" spans="1:76">
       <c r="A32" s="2"/>
-      <c r="B32" s="151" t="s">
+      <c r="B32" s="143" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="152"/>
-      <c r="D32" s="152"/>
-      <c r="E32" s="153"/>
-      <c r="F32" s="162" t="s">
+      <c r="C32" s="144"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="154" t="s">
         <v>89</v>
       </c>
-      <c r="G32" s="162"/>
-      <c r="H32" s="162"/>
-      <c r="I32" s="162"/>
-      <c r="J32" s="162"/>
+      <c r="G32" s="154"/>
+      <c r="H32" s="154"/>
+      <c r="I32" s="154"/>
+      <c r="J32" s="154"/>
       <c r="K32" s="12"/>
       <c r="L32" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
@@ -6137,15 +6120,15 @@
     </row>
     <row r="33" spans="1:76">
       <c r="A33" s="2"/>
-      <c r="B33" s="154"/>
-      <c r="C33" s="155"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="162"/>
-      <c r="G33" s="162"/>
-      <c r="H33" s="162"/>
-      <c r="I33" s="162"/>
-      <c r="J33" s="162"/>
+      <c r="B33" s="146"/>
+      <c r="C33" s="147"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="154"/>
+      <c r="I33" s="154"/>
+      <c r="J33" s="154"/>
       <c r="K33" s="11"/>
       <c r="L33" s="12"/>
       <c r="M33" s="11"/>
@@ -6215,15 +6198,15 @@
     </row>
     <row r="34" spans="1:76">
       <c r="A34" s="2"/>
-      <c r="B34" s="154"/>
-      <c r="C34" s="155"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="156"/>
-      <c r="F34" s="162"/>
-      <c r="G34" s="162"/>
-      <c r="H34" s="162"/>
-      <c r="I34" s="162"/>
-      <c r="J34" s="162"/>
+      <c r="B34" s="146"/>
+      <c r="C34" s="147"/>
+      <c r="D34" s="147"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="154"/>
+      <c r="H34" s="154"/>
+      <c r="I34" s="154"/>
+      <c r="J34" s="154"/>
       <c r="K34" s="11"/>
       <c r="L34" s="12"/>
       <c r="M34" s="11"/>
@@ -6293,15 +6276,15 @@
     </row>
     <row r="35" spans="1:76">
       <c r="A35" s="2"/>
-      <c r="B35" s="154"/>
-      <c r="C35" s="155"/>
-      <c r="D35" s="155"/>
-      <c r="E35" s="156"/>
-      <c r="F35" s="162"/>
-      <c r="G35" s="162"/>
-      <c r="H35" s="162"/>
-      <c r="I35" s="162"/>
-      <c r="J35" s="162"/>
+      <c r="B35" s="146"/>
+      <c r="C35" s="147"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="154"/>
+      <c r="G35" s="154"/>
+      <c r="H35" s="154"/>
+      <c r="I35" s="154"/>
+      <c r="J35" s="154"/>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
       <c r="M35" s="12"/>
@@ -6371,15 +6354,15 @@
     </row>
     <row r="36" spans="1:76">
       <c r="A36" s="2"/>
-      <c r="B36" s="154"/>
-      <c r="C36" s="155"/>
-      <c r="D36" s="155"/>
-      <c r="E36" s="156"/>
-      <c r="F36" s="162"/>
-      <c r="G36" s="162"/>
-      <c r="H36" s="162"/>
-      <c r="I36" s="162"/>
-      <c r="J36" s="162"/>
+      <c r="B36" s="146"/>
+      <c r="C36" s="147"/>
+      <c r="D36" s="147"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="154"/>
+      <c r="G36" s="154"/>
+      <c r="H36" s="154"/>
+      <c r="I36" s="154"/>
+      <c r="J36" s="154"/>
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
       <c r="M36" s="12"/>
@@ -6449,17 +6432,17 @@
     </row>
     <row r="37" spans="1:76">
       <c r="A37" s="2"/>
-      <c r="B37" s="157"/>
-      <c r="C37" s="158"/>
-      <c r="D37" s="158"/>
-      <c r="E37" s="156"/>
-      <c r="F37" s="163" t="s">
+      <c r="B37" s="149"/>
+      <c r="C37" s="150"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="155" t="s">
         <v>54</v>
       </c>
-      <c r="G37" s="164"/>
-      <c r="H37" s="164"/>
-      <c r="I37" s="164"/>
-      <c r="J37" s="165"/>
+      <c r="G37" s="156"/>
+      <c r="H37" s="156"/>
+      <c r="I37" s="156"/>
+      <c r="J37" s="157"/>
       <c r="K37" s="24"/>
       <c r="L37" s="14"/>
       <c r="M37" s="14"/>
@@ -6529,17 +6512,17 @@
     </row>
     <row r="38" spans="1:76">
       <c r="A38" s="2"/>
-      <c r="B38" s="157"/>
-      <c r="C38" s="158"/>
-      <c r="D38" s="158"/>
-      <c r="E38" s="156"/>
-      <c r="F38" s="166" t="s">
+      <c r="B38" s="149"/>
+      <c r="C38" s="150"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="G38" s="167"/>
-      <c r="H38" s="167"/>
-      <c r="I38" s="167"/>
-      <c r="J38" s="168"/>
+      <c r="G38" s="159"/>
+      <c r="H38" s="159"/>
+      <c r="I38" s="159"/>
+      <c r="J38" s="160"/>
       <c r="K38" s="25"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
@@ -6609,17 +6592,17 @@
     </row>
     <row r="39" spans="1:76">
       <c r="A39" s="2"/>
-      <c r="B39" s="159"/>
-      <c r="C39" s="160"/>
-      <c r="D39" s="160"/>
-      <c r="E39" s="161"/>
-      <c r="F39" s="169" t="s">
+      <c r="B39" s="151"/>
+      <c r="C39" s="152"/>
+      <c r="D39" s="152"/>
+      <c r="E39" s="153"/>
+      <c r="F39" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="G39" s="170"/>
-      <c r="H39" s="170"/>
-      <c r="I39" s="170"/>
-      <c r="J39" s="171"/>
+      <c r="G39" s="162"/>
+      <c r="H39" s="162"/>
+      <c r="I39" s="162"/>
+      <c r="J39" s="163"/>
       <c r="K39" s="17"/>
       <c r="L39" s="18"/>
       <c r="M39" s="18"/>
@@ -6689,15 +6672,15 @@
     </row>
     <row r="40" spans="1:76">
       <c r="A40" s="2"/>
-      <c r="B40" s="151"/>
-      <c r="C40" s="152"/>
-      <c r="D40" s="152"/>
-      <c r="E40" s="153"/>
-      <c r="F40" s="162"/>
-      <c r="G40" s="162"/>
-      <c r="H40" s="162"/>
-      <c r="I40" s="162"/>
-      <c r="J40" s="162"/>
+      <c r="B40" s="143"/>
+      <c r="C40" s="144"/>
+      <c r="D40" s="144"/>
+      <c r="E40" s="145"/>
+      <c r="F40" s="154"/>
+      <c r="G40" s="154"/>
+      <c r="H40" s="154"/>
+      <c r="I40" s="154"/>
+      <c r="J40" s="154"/>
       <c r="K40" s="12"/>
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
@@ -6767,15 +6750,15 @@
     </row>
     <row r="41" spans="1:76">
       <c r="A41" s="2"/>
-      <c r="B41" s="154"/>
-      <c r="C41" s="155"/>
-      <c r="D41" s="155"/>
-      <c r="E41" s="156"/>
-      <c r="F41" s="162"/>
-      <c r="G41" s="162"/>
-      <c r="H41" s="162"/>
-      <c r="I41" s="162"/>
-      <c r="J41" s="162"/>
+      <c r="B41" s="146"/>
+      <c r="C41" s="147"/>
+      <c r="D41" s="147"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="154"/>
+      <c r="G41" s="154"/>
+      <c r="H41" s="154"/>
+      <c r="I41" s="154"/>
+      <c r="J41" s="154"/>
       <c r="K41" s="11"/>
       <c r="L41" s="12"/>
       <c r="M41" s="11"/>
@@ -6845,15 +6828,15 @@
     </row>
     <row r="42" spans="1:76">
       <c r="A42" s="2"/>
-      <c r="B42" s="154"/>
-      <c r="C42" s="155"/>
-      <c r="D42" s="155"/>
-      <c r="E42" s="156"/>
-      <c r="F42" s="162"/>
-      <c r="G42" s="162"/>
-      <c r="H42" s="162"/>
-      <c r="I42" s="162"/>
-      <c r="J42" s="162"/>
+      <c r="B42" s="146"/>
+      <c r="C42" s="147"/>
+      <c r="D42" s="147"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="154"/>
+      <c r="G42" s="154"/>
+      <c r="H42" s="154"/>
+      <c r="I42" s="154"/>
+      <c r="J42" s="154"/>
       <c r="K42" s="11"/>
       <c r="L42" s="12"/>
       <c r="M42" s="11"/>
@@ -6923,15 +6906,15 @@
     </row>
     <row r="43" spans="1:76">
       <c r="A43" s="2"/>
-      <c r="B43" s="154"/>
-      <c r="C43" s="155"/>
-      <c r="D43" s="155"/>
-      <c r="E43" s="156"/>
-      <c r="F43" s="162"/>
-      <c r="G43" s="162"/>
-      <c r="H43" s="162"/>
-      <c r="I43" s="162"/>
-      <c r="J43" s="162"/>
+      <c r="B43" s="146"/>
+      <c r="C43" s="147"/>
+      <c r="D43" s="147"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="154"/>
+      <c r="G43" s="154"/>
+      <c r="H43" s="154"/>
+      <c r="I43" s="154"/>
+      <c r="J43" s="154"/>
       <c r="K43" s="11"/>
       <c r="L43" s="11"/>
       <c r="M43" s="12"/>
@@ -7001,15 +6984,15 @@
     </row>
     <row r="44" spans="1:76">
       <c r="A44" s="2"/>
-      <c r="B44" s="154"/>
-      <c r="C44" s="155"/>
-      <c r="D44" s="155"/>
-      <c r="E44" s="156"/>
-      <c r="F44" s="162"/>
-      <c r="G44" s="162"/>
-      <c r="H44" s="162"/>
-      <c r="I44" s="162"/>
-      <c r="J44" s="162"/>
+      <c r="B44" s="146"/>
+      <c r="C44" s="147"/>
+      <c r="D44" s="147"/>
+      <c r="E44" s="148"/>
+      <c r="F44" s="154"/>
+      <c r="G44" s="154"/>
+      <c r="H44" s="154"/>
+      <c r="I44" s="154"/>
+      <c r="J44" s="154"/>
       <c r="K44" s="11"/>
       <c r="L44" s="11"/>
       <c r="M44" s="12"/>
@@ -7079,17 +7062,17 @@
     </row>
     <row r="45" spans="1:76">
       <c r="A45" s="2"/>
-      <c r="B45" s="157"/>
-      <c r="C45" s="158"/>
-      <c r="D45" s="158"/>
-      <c r="E45" s="156"/>
-      <c r="F45" s="163" t="s">
+      <c r="B45" s="149"/>
+      <c r="C45" s="150"/>
+      <c r="D45" s="150"/>
+      <c r="E45" s="148"/>
+      <c r="F45" s="155" t="s">
         <v>54</v>
       </c>
-      <c r="G45" s="164"/>
-      <c r="H45" s="164"/>
-      <c r="I45" s="164"/>
-      <c r="J45" s="165"/>
+      <c r="G45" s="156"/>
+      <c r="H45" s="156"/>
+      <c r="I45" s="156"/>
+      <c r="J45" s="157"/>
       <c r="K45" s="24"/>
       <c r="L45" s="14"/>
       <c r="M45" s="14"/>
@@ -7159,17 +7142,17 @@
     </row>
     <row r="46" spans="1:76">
       <c r="A46" s="2"/>
-      <c r="B46" s="157"/>
-      <c r="C46" s="158"/>
-      <c r="D46" s="158"/>
-      <c r="E46" s="156"/>
-      <c r="F46" s="166" t="s">
+      <c r="B46" s="149"/>
+      <c r="C46" s="150"/>
+      <c r="D46" s="150"/>
+      <c r="E46" s="148"/>
+      <c r="F46" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="G46" s="167"/>
-      <c r="H46" s="167"/>
-      <c r="I46" s="167"/>
-      <c r="J46" s="168"/>
+      <c r="G46" s="159"/>
+      <c r="H46" s="159"/>
+      <c r="I46" s="159"/>
+      <c r="J46" s="160"/>
       <c r="K46" s="25"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
@@ -7239,17 +7222,17 @@
     </row>
     <row r="47" spans="1:76">
       <c r="A47" s="2"/>
-      <c r="B47" s="159"/>
-      <c r="C47" s="160"/>
-      <c r="D47" s="160"/>
-      <c r="E47" s="161"/>
-      <c r="F47" s="169" t="s">
+      <c r="B47" s="151"/>
+      <c r="C47" s="152"/>
+      <c r="D47" s="152"/>
+      <c r="E47" s="153"/>
+      <c r="F47" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="G47" s="170"/>
-      <c r="H47" s="170"/>
-      <c r="I47" s="170"/>
-      <c r="J47" s="171"/>
+      <c r="G47" s="162"/>
+      <c r="H47" s="162"/>
+      <c r="I47" s="162"/>
+      <c r="J47" s="163"/>
       <c r="K47" s="17"/>
       <c r="L47" s="18"/>
       <c r="M47" s="18"/>
@@ -7319,15 +7302,15 @@
     </row>
     <row r="48" spans="1:76">
       <c r="A48" s="2"/>
-      <c r="B48" s="151"/>
-      <c r="C48" s="152"/>
-      <c r="D48" s="152"/>
-      <c r="E48" s="153"/>
-      <c r="F48" s="162"/>
-      <c r="G48" s="162"/>
-      <c r="H48" s="162"/>
-      <c r="I48" s="162"/>
-      <c r="J48" s="162"/>
+      <c r="B48" s="143"/>
+      <c r="C48" s="144"/>
+      <c r="D48" s="144"/>
+      <c r="E48" s="145"/>
+      <c r="F48" s="154"/>
+      <c r="G48" s="154"/>
+      <c r="H48" s="154"/>
+      <c r="I48" s="154"/>
+      <c r="J48" s="154"/>
       <c r="K48" s="12"/>
       <c r="L48" s="11"/>
       <c r="M48" s="11"/>
@@ -7397,15 +7380,15 @@
     </row>
     <row r="49" spans="1:76">
       <c r="A49" s="2"/>
-      <c r="B49" s="154"/>
-      <c r="C49" s="155"/>
-      <c r="D49" s="155"/>
-      <c r="E49" s="156"/>
-      <c r="F49" s="162"/>
-      <c r="G49" s="162"/>
-      <c r="H49" s="162"/>
-      <c r="I49" s="162"/>
-      <c r="J49" s="162"/>
+      <c r="B49" s="146"/>
+      <c r="C49" s="147"/>
+      <c r="D49" s="147"/>
+      <c r="E49" s="148"/>
+      <c r="F49" s="154"/>
+      <c r="G49" s="154"/>
+      <c r="H49" s="154"/>
+      <c r="I49" s="154"/>
+      <c r="J49" s="154"/>
       <c r="K49" s="11"/>
       <c r="L49" s="12"/>
       <c r="M49" s="11"/>
@@ -7475,15 +7458,15 @@
     </row>
     <row r="50" spans="1:76">
       <c r="A50" s="2"/>
-      <c r="B50" s="154"/>
-      <c r="C50" s="155"/>
-      <c r="D50" s="155"/>
-      <c r="E50" s="156"/>
-      <c r="F50" s="162"/>
-      <c r="G50" s="162"/>
-      <c r="H50" s="162"/>
-      <c r="I50" s="162"/>
-      <c r="J50" s="162"/>
+      <c r="B50" s="146"/>
+      <c r="C50" s="147"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="148"/>
+      <c r="F50" s="154"/>
+      <c r="G50" s="154"/>
+      <c r="H50" s="154"/>
+      <c r="I50" s="154"/>
+      <c r="J50" s="154"/>
       <c r="K50" s="11"/>
       <c r="L50" s="12"/>
       <c r="M50" s="11"/>
@@ -7553,15 +7536,15 @@
     </row>
     <row r="51" spans="1:76">
       <c r="A51" s="2"/>
-      <c r="B51" s="154"/>
-      <c r="C51" s="155"/>
-      <c r="D51" s="155"/>
-      <c r="E51" s="156"/>
-      <c r="F51" s="162"/>
-      <c r="G51" s="162"/>
-      <c r="H51" s="162"/>
-      <c r="I51" s="162"/>
-      <c r="J51" s="162"/>
+      <c r="B51" s="146"/>
+      <c r="C51" s="147"/>
+      <c r="D51" s="147"/>
+      <c r="E51" s="148"/>
+      <c r="F51" s="154"/>
+      <c r="G51" s="154"/>
+      <c r="H51" s="154"/>
+      <c r="I51" s="154"/>
+      <c r="J51" s="154"/>
       <c r="K51" s="11"/>
       <c r="L51" s="11"/>
       <c r="M51" s="12"/>
@@ -7631,15 +7614,15 @@
     </row>
     <row r="52" spans="1:76">
       <c r="A52" s="2"/>
-      <c r="B52" s="154"/>
-      <c r="C52" s="155"/>
-      <c r="D52" s="155"/>
-      <c r="E52" s="156"/>
-      <c r="F52" s="162"/>
-      <c r="G52" s="162"/>
-      <c r="H52" s="162"/>
-      <c r="I52" s="162"/>
-      <c r="J52" s="162"/>
+      <c r="B52" s="146"/>
+      <c r="C52" s="147"/>
+      <c r="D52" s="147"/>
+      <c r="E52" s="148"/>
+      <c r="F52" s="154"/>
+      <c r="G52" s="154"/>
+      <c r="H52" s="154"/>
+      <c r="I52" s="154"/>
+      <c r="J52" s="154"/>
       <c r="K52" s="11"/>
       <c r="L52" s="11"/>
       <c r="M52" s="12"/>
@@ -7709,17 +7692,17 @@
     </row>
     <row r="53" spans="1:76">
       <c r="A53" s="2"/>
-      <c r="B53" s="157"/>
-      <c r="C53" s="158"/>
-      <c r="D53" s="158"/>
-      <c r="E53" s="156"/>
-      <c r="F53" s="163" t="s">
+      <c r="B53" s="149"/>
+      <c r="C53" s="150"/>
+      <c r="D53" s="150"/>
+      <c r="E53" s="148"/>
+      <c r="F53" s="155" t="s">
         <v>54</v>
       </c>
-      <c r="G53" s="164"/>
-      <c r="H53" s="164"/>
-      <c r="I53" s="164"/>
-      <c r="J53" s="165"/>
+      <c r="G53" s="156"/>
+      <c r="H53" s="156"/>
+      <c r="I53" s="156"/>
+      <c r="J53" s="157"/>
       <c r="K53" s="24"/>
       <c r="L53" s="14"/>
       <c r="M53" s="14"/>
@@ -7789,17 +7772,17 @@
     </row>
     <row r="54" spans="1:76">
       <c r="A54" s="2"/>
-      <c r="B54" s="157"/>
-      <c r="C54" s="158"/>
-      <c r="D54" s="158"/>
-      <c r="E54" s="156"/>
-      <c r="F54" s="166" t="s">
+      <c r="B54" s="149"/>
+      <c r="C54" s="150"/>
+      <c r="D54" s="150"/>
+      <c r="E54" s="148"/>
+      <c r="F54" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="G54" s="167"/>
-      <c r="H54" s="167"/>
-      <c r="I54" s="167"/>
-      <c r="J54" s="168"/>
+      <c r="G54" s="159"/>
+      <c r="H54" s="159"/>
+      <c r="I54" s="159"/>
+      <c r="J54" s="160"/>
       <c r="K54" s="25"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
@@ -7869,17 +7852,17 @@
     </row>
     <row r="55" spans="1:76">
       <c r="A55" s="2"/>
-      <c r="B55" s="159"/>
-      <c r="C55" s="160"/>
-      <c r="D55" s="160"/>
-      <c r="E55" s="161"/>
-      <c r="F55" s="169" t="s">
+      <c r="B55" s="151"/>
+      <c r="C55" s="152"/>
+      <c r="D55" s="152"/>
+      <c r="E55" s="153"/>
+      <c r="F55" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="G55" s="170"/>
-      <c r="H55" s="170"/>
-      <c r="I55" s="170"/>
-      <c r="J55" s="171"/>
+      <c r="G55" s="162"/>
+      <c r="H55" s="162"/>
+      <c r="I55" s="162"/>
+      <c r="J55" s="163"/>
       <c r="K55" s="17"/>
       <c r="L55" s="18"/>
       <c r="M55" s="18"/>
@@ -8183,77 +8166,6 @@
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="BS1:BX1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="K2:BF2"/>
-    <mergeCell ref="BG2:BI2"/>
-    <mergeCell ref="BJ2:BO2"/>
-    <mergeCell ref="BP2:BR2"/>
-    <mergeCell ref="BS2:BX2"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="K1:BF1"/>
-    <mergeCell ref="BG1:BI1"/>
-    <mergeCell ref="BJ1:BO1"/>
-    <mergeCell ref="BP1:BR1"/>
-    <mergeCell ref="B48:E55"/>
-    <mergeCell ref="F48:J48"/>
-    <mergeCell ref="F49:J49"/>
-    <mergeCell ref="F50:J50"/>
-    <mergeCell ref="F51:J51"/>
-    <mergeCell ref="F52:J52"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="B40:E47"/>
-    <mergeCell ref="F40:J40"/>
-    <mergeCell ref="F41:J41"/>
-    <mergeCell ref="F42:J42"/>
-    <mergeCell ref="F43:J43"/>
-    <mergeCell ref="F44:J44"/>
-    <mergeCell ref="F45:J45"/>
-    <mergeCell ref="F46:J46"/>
-    <mergeCell ref="F47:J47"/>
-    <mergeCell ref="B32:E39"/>
-    <mergeCell ref="F32:J32"/>
-    <mergeCell ref="F33:J33"/>
-    <mergeCell ref="F34:J34"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="F38:J38"/>
-    <mergeCell ref="F39:J39"/>
-    <mergeCell ref="B24:E31"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="B16:E23"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="BG6:BJ6"/>
-    <mergeCell ref="BK6:BN6"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="BC6:BF6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="B8:E15"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="F12:J12"/>
     <mergeCell ref="A3:BX3"/>
     <mergeCell ref="A4:BX4"/>
     <mergeCell ref="B6:J6"/>
@@ -8270,6 +8182,77 @@
     <mergeCell ref="AQ6:AT6"/>
     <mergeCell ref="AU6:AX6"/>
     <mergeCell ref="AY6:BB6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="B8:E15"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="BG6:BJ6"/>
+    <mergeCell ref="BK6:BN6"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="BC6:BF6"/>
+    <mergeCell ref="B16:E23"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="B24:E31"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="B32:E39"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="F33:J33"/>
+    <mergeCell ref="F34:J34"/>
+    <mergeCell ref="F35:J35"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="F38:J38"/>
+    <mergeCell ref="F39:J39"/>
+    <mergeCell ref="B40:E47"/>
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="F41:J41"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="F43:J43"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="F46:J46"/>
+    <mergeCell ref="F47:J47"/>
+    <mergeCell ref="B48:E55"/>
+    <mergeCell ref="F48:J48"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="F51:J51"/>
+    <mergeCell ref="F52:J52"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="BS1:BX1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="K2:BF2"/>
+    <mergeCell ref="BG2:BI2"/>
+    <mergeCell ref="BJ2:BO2"/>
+    <mergeCell ref="BP2:BR2"/>
+    <mergeCell ref="BS2:BX2"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K1:BF1"/>
+    <mergeCell ref="BG1:BI1"/>
+    <mergeCell ref="BJ1:BO1"/>
+    <mergeCell ref="BP1:BR1"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <printOptions horizontalCentered="1"/>
@@ -8301,259 +8284,259 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:76" s="111" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="139" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="175" t="s">
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="140" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="173"/>
-      <c r="M1" s="173"/>
-      <c r="N1" s="173"/>
-      <c r="O1" s="173"/>
-      <c r="P1" s="173"/>
-      <c r="Q1" s="173"/>
-      <c r="R1" s="173"/>
-      <c r="S1" s="173"/>
-      <c r="T1" s="173"/>
-      <c r="U1" s="173"/>
-      <c r="V1" s="173"/>
-      <c r="W1" s="173"/>
-      <c r="X1" s="173"/>
-      <c r="Y1" s="173"/>
-      <c r="Z1" s="173"/>
-      <c r="AA1" s="173"/>
-      <c r="AB1" s="173"/>
-      <c r="AC1" s="173"/>
-      <c r="AD1" s="173"/>
-      <c r="AE1" s="173"/>
-      <c r="AF1" s="173"/>
-      <c r="AG1" s="173"/>
-      <c r="AH1" s="173"/>
-      <c r="AI1" s="173"/>
-      <c r="AJ1" s="173"/>
-      <c r="AK1" s="173"/>
-      <c r="AL1" s="173"/>
-      <c r="AM1" s="173"/>
-      <c r="AN1" s="173"/>
-      <c r="AO1" s="173"/>
-      <c r="AP1" s="173"/>
-      <c r="AQ1" s="173"/>
-      <c r="AR1" s="173"/>
-      <c r="AS1" s="173"/>
-      <c r="AT1" s="173"/>
-      <c r="AU1" s="173"/>
-      <c r="AV1" s="173"/>
-      <c r="AW1" s="173"/>
-      <c r="AX1" s="173"/>
-      <c r="AY1" s="173"/>
-      <c r="AZ1" s="173"/>
-      <c r="BA1" s="173"/>
-      <c r="BB1" s="173"/>
-      <c r="BC1" s="173"/>
-      <c r="BD1" s="173"/>
-      <c r="BE1" s="173"/>
-      <c r="BF1" s="173"/>
-      <c r="BG1" s="176" t="s">
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
+      <c r="U1" s="138"/>
+      <c r="V1" s="138"/>
+      <c r="W1" s="138"/>
+      <c r="X1" s="138"/>
+      <c r="Y1" s="138"/>
+      <c r="Z1" s="138"/>
+      <c r="AA1" s="138"/>
+      <c r="AB1" s="138"/>
+      <c r="AC1" s="138"/>
+      <c r="AD1" s="138"/>
+      <c r="AE1" s="138"/>
+      <c r="AF1" s="138"/>
+      <c r="AG1" s="138"/>
+      <c r="AH1" s="138"/>
+      <c r="AI1" s="138"/>
+      <c r="AJ1" s="138"/>
+      <c r="AK1" s="138"/>
+      <c r="AL1" s="138"/>
+      <c r="AM1" s="138"/>
+      <c r="AN1" s="138"/>
+      <c r="AO1" s="138"/>
+      <c r="AP1" s="138"/>
+      <c r="AQ1" s="138"/>
+      <c r="AR1" s="138"/>
+      <c r="AS1" s="138"/>
+      <c r="AT1" s="138"/>
+      <c r="AU1" s="138"/>
+      <c r="AV1" s="138"/>
+      <c r="AW1" s="138"/>
+      <c r="AX1" s="138"/>
+      <c r="AY1" s="138"/>
+      <c r="AZ1" s="138"/>
+      <c r="BA1" s="138"/>
+      <c r="BB1" s="138"/>
+      <c r="BC1" s="138"/>
+      <c r="BD1" s="138"/>
+      <c r="BE1" s="138"/>
+      <c r="BF1" s="138"/>
+      <c r="BG1" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="BH1" s="173"/>
-      <c r="BI1" s="173"/>
-      <c r="BJ1" s="177">
+      <c r="BH1" s="138"/>
+      <c r="BI1" s="138"/>
+      <c r="BJ1" s="142">
         <v>43465</v>
       </c>
-      <c r="BK1" s="173"/>
-      <c r="BL1" s="173"/>
-      <c r="BM1" s="173"/>
-      <c r="BN1" s="173"/>
-      <c r="BO1" s="173"/>
-      <c r="BP1" s="176" t="s">
+      <c r="BK1" s="138"/>
+      <c r="BL1" s="138"/>
+      <c r="BM1" s="138"/>
+      <c r="BN1" s="138"/>
+      <c r="BO1" s="138"/>
+      <c r="BP1" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="BQ1" s="173"/>
-      <c r="BR1" s="173"/>
-      <c r="BS1" s="172" t="s">
+      <c r="BQ1" s="138"/>
+      <c r="BR1" s="138"/>
+      <c r="BS1" s="137" t="s">
         <v>69</v>
       </c>
-      <c r="BT1" s="173"/>
-      <c r="BU1" s="173"/>
-      <c r="BV1" s="173"/>
-      <c r="BW1" s="173"/>
-      <c r="BX1" s="173"/>
+      <c r="BT1" s="138"/>
+      <c r="BU1" s="138"/>
+      <c r="BV1" s="138"/>
+      <c r="BW1" s="138"/>
+      <c r="BX1" s="138"/>
     </row>
     <row r="2" spans="1:76" s="118" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="139" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="175" t="str">
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="140" t="str">
         <f ca="1">表紙!J10 &amp; "： " &amp; RIGHT(CELL("filename",K1),LEN(CELL("filename",K1))-FIND("]",CELL("filename",K1)))</f>
         <v>CRUD表： サンプル</v>
       </c>
-      <c r="L2" s="173"/>
-      <c r="M2" s="173"/>
-      <c r="N2" s="173"/>
-      <c r="O2" s="173"/>
-      <c r="P2" s="173"/>
-      <c r="Q2" s="173"/>
-      <c r="R2" s="173"/>
-      <c r="S2" s="173"/>
-      <c r="T2" s="173"/>
-      <c r="U2" s="173"/>
-      <c r="V2" s="173"/>
-      <c r="W2" s="173"/>
-      <c r="X2" s="173"/>
-      <c r="Y2" s="173"/>
-      <c r="Z2" s="173"/>
-      <c r="AA2" s="173"/>
-      <c r="AB2" s="173"/>
-      <c r="AC2" s="173"/>
-      <c r="AD2" s="173"/>
-      <c r="AE2" s="173"/>
-      <c r="AF2" s="173"/>
-      <c r="AG2" s="173"/>
-      <c r="AH2" s="173"/>
-      <c r="AI2" s="173"/>
-      <c r="AJ2" s="173"/>
-      <c r="AK2" s="173"/>
-      <c r="AL2" s="173"/>
-      <c r="AM2" s="173"/>
-      <c r="AN2" s="173"/>
-      <c r="AO2" s="173"/>
-      <c r="AP2" s="173"/>
-      <c r="AQ2" s="173"/>
-      <c r="AR2" s="173"/>
-      <c r="AS2" s="173"/>
-      <c r="AT2" s="173"/>
-      <c r="AU2" s="173"/>
-      <c r="AV2" s="173"/>
-      <c r="AW2" s="173"/>
-      <c r="AX2" s="173"/>
-      <c r="AY2" s="173"/>
-      <c r="AZ2" s="173"/>
-      <c r="BA2" s="173"/>
-      <c r="BB2" s="173"/>
-      <c r="BC2" s="173"/>
-      <c r="BD2" s="173"/>
-      <c r="BE2" s="173"/>
-      <c r="BF2" s="173"/>
-      <c r="BG2" s="176" t="s">
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="138"/>
+      <c r="V2" s="138"/>
+      <c r="W2" s="138"/>
+      <c r="X2" s="138"/>
+      <c r="Y2" s="138"/>
+      <c r="Z2" s="138"/>
+      <c r="AA2" s="138"/>
+      <c r="AB2" s="138"/>
+      <c r="AC2" s="138"/>
+      <c r="AD2" s="138"/>
+      <c r="AE2" s="138"/>
+      <c r="AF2" s="138"/>
+      <c r="AG2" s="138"/>
+      <c r="AH2" s="138"/>
+      <c r="AI2" s="138"/>
+      <c r="AJ2" s="138"/>
+      <c r="AK2" s="138"/>
+      <c r="AL2" s="138"/>
+      <c r="AM2" s="138"/>
+      <c r="AN2" s="138"/>
+      <c r="AO2" s="138"/>
+      <c r="AP2" s="138"/>
+      <c r="AQ2" s="138"/>
+      <c r="AR2" s="138"/>
+      <c r="AS2" s="138"/>
+      <c r="AT2" s="138"/>
+      <c r="AU2" s="138"/>
+      <c r="AV2" s="138"/>
+      <c r="AW2" s="138"/>
+      <c r="AX2" s="138"/>
+      <c r="AY2" s="138"/>
+      <c r="AZ2" s="138"/>
+      <c r="BA2" s="138"/>
+      <c r="BB2" s="138"/>
+      <c r="BC2" s="138"/>
+      <c r="BD2" s="138"/>
+      <c r="BE2" s="138"/>
+      <c r="BF2" s="138"/>
+      <c r="BG2" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="BH2" s="173"/>
-      <c r="BI2" s="173"/>
-      <c r="BJ2" s="177"/>
-      <c r="BK2" s="173"/>
-      <c r="BL2" s="173"/>
-      <c r="BM2" s="173"/>
-      <c r="BN2" s="173"/>
-      <c r="BO2" s="173"/>
-      <c r="BP2" s="176" t="s">
+      <c r="BH2" s="138"/>
+      <c r="BI2" s="138"/>
+      <c r="BJ2" s="142"/>
+      <c r="BK2" s="138"/>
+      <c r="BL2" s="138"/>
+      <c r="BM2" s="138"/>
+      <c r="BN2" s="138"/>
+      <c r="BO2" s="138"/>
+      <c r="BP2" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="BQ2" s="173"/>
-      <c r="BR2" s="173"/>
-      <c r="BS2" s="172"/>
-      <c r="BT2" s="173"/>
-      <c r="BU2" s="173"/>
-      <c r="BV2" s="173"/>
-      <c r="BW2" s="173"/>
-      <c r="BX2" s="173"/>
+      <c r="BQ2" s="138"/>
+      <c r="BR2" s="138"/>
+      <c r="BS2" s="137"/>
+      <c r="BT2" s="138"/>
+      <c r="BU2" s="138"/>
+      <c r="BV2" s="138"/>
+      <c r="BW2" s="138"/>
+      <c r="BX2" s="138"/>
     </row>
     <row r="3" spans="1:76">
-      <c r="A3" s="138"/>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="139"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="139"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="139"/>
-      <c r="S3" s="139"/>
-      <c r="T3" s="139"/>
-      <c r="U3" s="139"/>
-      <c r="V3" s="139"/>
-      <c r="W3" s="139"/>
-      <c r="X3" s="139"/>
-      <c r="Y3" s="139"/>
-      <c r="Z3" s="139"/>
-      <c r="AA3" s="139"/>
-      <c r="AB3" s="139"/>
-      <c r="AC3" s="139"/>
-      <c r="AD3" s="139"/>
-      <c r="AE3" s="139"/>
-      <c r="AF3" s="139"/>
-      <c r="AG3" s="139"/>
-      <c r="AH3" s="139"/>
-      <c r="AI3" s="139"/>
-      <c r="AJ3" s="139"/>
-      <c r="AK3" s="139"/>
-      <c r="AL3" s="139"/>
-      <c r="AM3" s="139"/>
-      <c r="AN3" s="139"/>
-      <c r="AO3" s="139"/>
-      <c r="AP3" s="139"/>
-      <c r="AQ3" s="139"/>
-      <c r="AR3" s="139"/>
-      <c r="AS3" s="139"/>
-      <c r="AT3" s="139"/>
-      <c r="AU3" s="139"/>
-      <c r="AV3" s="139"/>
-      <c r="AW3" s="139"/>
-      <c r="AX3" s="139"/>
-      <c r="AY3" s="139"/>
-      <c r="AZ3" s="139"/>
-      <c r="BA3" s="139"/>
-      <c r="BB3" s="139"/>
-      <c r="BC3" s="139"/>
-      <c r="BD3" s="139"/>
-      <c r="BE3" s="139"/>
-      <c r="BF3" s="139"/>
-      <c r="BG3" s="139"/>
-      <c r="BH3" s="139"/>
-      <c r="BI3" s="139"/>
-      <c r="BJ3" s="139"/>
-      <c r="BK3" s="139"/>
-      <c r="BL3" s="139"/>
-      <c r="BM3" s="139"/>
-      <c r="BN3" s="139"/>
-      <c r="BO3" s="139"/>
-      <c r="BP3" s="139"/>
-      <c r="BQ3" s="139"/>
-      <c r="BR3" s="139"/>
-      <c r="BS3" s="139"/>
-      <c r="BT3" s="139"/>
-      <c r="BU3" s="139"/>
-      <c r="BV3" s="139"/>
-      <c r="BW3" s="139"/>
-      <c r="BX3" s="140"/>
+      <c r="A3" s="171"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="172"/>
+      <c r="I3" s="172"/>
+      <c r="J3" s="172"/>
+      <c r="K3" s="172"/>
+      <c r="L3" s="172"/>
+      <c r="M3" s="172"/>
+      <c r="N3" s="172"/>
+      <c r="O3" s="172"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="172"/>
+      <c r="T3" s="172"/>
+      <c r="U3" s="172"/>
+      <c r="V3" s="172"/>
+      <c r="W3" s="172"/>
+      <c r="X3" s="172"/>
+      <c r="Y3" s="172"/>
+      <c r="Z3" s="172"/>
+      <c r="AA3" s="172"/>
+      <c r="AB3" s="172"/>
+      <c r="AC3" s="172"/>
+      <c r="AD3" s="172"/>
+      <c r="AE3" s="172"/>
+      <c r="AF3" s="172"/>
+      <c r="AG3" s="172"/>
+      <c r="AH3" s="172"/>
+      <c r="AI3" s="172"/>
+      <c r="AJ3" s="172"/>
+      <c r="AK3" s="172"/>
+      <c r="AL3" s="172"/>
+      <c r="AM3" s="172"/>
+      <c r="AN3" s="172"/>
+      <c r="AO3" s="172"/>
+      <c r="AP3" s="172"/>
+      <c r="AQ3" s="172"/>
+      <c r="AR3" s="172"/>
+      <c r="AS3" s="172"/>
+      <c r="AT3" s="172"/>
+      <c r="AU3" s="172"/>
+      <c r="AV3" s="172"/>
+      <c r="AW3" s="172"/>
+      <c r="AX3" s="172"/>
+      <c r="AY3" s="172"/>
+      <c r="AZ3" s="172"/>
+      <c r="BA3" s="172"/>
+      <c r="BB3" s="172"/>
+      <c r="BC3" s="172"/>
+      <c r="BD3" s="172"/>
+      <c r="BE3" s="172"/>
+      <c r="BF3" s="172"/>
+      <c r="BG3" s="172"/>
+      <c r="BH3" s="172"/>
+      <c r="BI3" s="172"/>
+      <c r="BJ3" s="172"/>
+      <c r="BK3" s="172"/>
+      <c r="BL3" s="172"/>
+      <c r="BM3" s="172"/>
+      <c r="BN3" s="172"/>
+      <c r="BO3" s="172"/>
+      <c r="BP3" s="172"/>
+      <c r="BQ3" s="172"/>
+      <c r="BR3" s="172"/>
+      <c r="BS3" s="172"/>
+      <c r="BT3" s="172"/>
+      <c r="BU3" s="172"/>
+      <c r="BV3" s="172"/>
+      <c r="BW3" s="172"/>
+      <c r="BX3" s="173"/>
     </row>
     <row r="4" spans="1:76">
       <c r="A4" s="2"/>
@@ -8635,105 +8618,105 @@
     </row>
     <row r="5" spans="1:76">
       <c r="A5" s="2"/>
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="174" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="142"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
-      <c r="K5" s="145" t="s">
+      <c r="C5" s="175"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="168"/>
+      <c r="H5" s="168"/>
+      <c r="I5" s="168"/>
+      <c r="J5" s="169"/>
+      <c r="K5" s="164" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="146"/>
-      <c r="M5" s="146"/>
-      <c r="N5" s="146"/>
-      <c r="O5" s="147" t="s">
+      <c r="L5" s="165"/>
+      <c r="M5" s="165"/>
+      <c r="N5" s="165"/>
+      <c r="O5" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="146"/>
-      <c r="Q5" s="146"/>
-      <c r="R5" s="148"/>
-      <c r="S5" s="145" t="s">
+      <c r="P5" s="165"/>
+      <c r="Q5" s="165"/>
+      <c r="R5" s="177"/>
+      <c r="S5" s="164" t="s">
         <v>36</v>
       </c>
-      <c r="T5" s="146"/>
-      <c r="U5" s="146"/>
-      <c r="V5" s="146"/>
-      <c r="W5" s="145"/>
-      <c r="X5" s="146"/>
-      <c r="Y5" s="146"/>
-      <c r="Z5" s="146"/>
-      <c r="AA5" s="145"/>
-      <c r="AB5" s="146"/>
-      <c r="AC5" s="146"/>
-      <c r="AD5" s="146"/>
-      <c r="AE5" s="145"/>
-      <c r="AF5" s="146"/>
-      <c r="AG5" s="146"/>
-      <c r="AH5" s="146"/>
-      <c r="AI5" s="145"/>
-      <c r="AJ5" s="146"/>
-      <c r="AK5" s="146"/>
-      <c r="AL5" s="146"/>
-      <c r="AM5" s="145"/>
-      <c r="AN5" s="146"/>
-      <c r="AO5" s="146"/>
-      <c r="AP5" s="146"/>
-      <c r="AQ5" s="145"/>
-      <c r="AR5" s="146"/>
-      <c r="AS5" s="146"/>
-      <c r="AT5" s="146"/>
-      <c r="AU5" s="145"/>
-      <c r="AV5" s="146"/>
-      <c r="AW5" s="146"/>
-      <c r="AX5" s="146"/>
-      <c r="AY5" s="145"/>
-      <c r="AZ5" s="146"/>
-      <c r="BA5" s="146"/>
-      <c r="BB5" s="146"/>
-      <c r="BC5" s="145"/>
-      <c r="BD5" s="146"/>
-      <c r="BE5" s="146"/>
-      <c r="BF5" s="146"/>
-      <c r="BG5" s="145"/>
-      <c r="BH5" s="146"/>
-      <c r="BI5" s="146"/>
-      <c r="BJ5" s="146"/>
-      <c r="BK5" s="145"/>
-      <c r="BL5" s="146"/>
-      <c r="BM5" s="146"/>
-      <c r="BN5" s="146"/>
-      <c r="BO5" s="145"/>
-      <c r="BP5" s="146"/>
-      <c r="BQ5" s="146"/>
-      <c r="BR5" s="146"/>
-      <c r="BS5" s="145"/>
-      <c r="BT5" s="146"/>
-      <c r="BU5" s="146"/>
-      <c r="BV5" s="146"/>
+      <c r="T5" s="165"/>
+      <c r="U5" s="165"/>
+      <c r="V5" s="165"/>
+      <c r="W5" s="164"/>
+      <c r="X5" s="165"/>
+      <c r="Y5" s="165"/>
+      <c r="Z5" s="165"/>
+      <c r="AA5" s="164"/>
+      <c r="AB5" s="165"/>
+      <c r="AC5" s="165"/>
+      <c r="AD5" s="165"/>
+      <c r="AE5" s="164"/>
+      <c r="AF5" s="165"/>
+      <c r="AG5" s="165"/>
+      <c r="AH5" s="165"/>
+      <c r="AI5" s="164"/>
+      <c r="AJ5" s="165"/>
+      <c r="AK5" s="165"/>
+      <c r="AL5" s="165"/>
+      <c r="AM5" s="164"/>
+      <c r="AN5" s="165"/>
+      <c r="AO5" s="165"/>
+      <c r="AP5" s="165"/>
+      <c r="AQ5" s="164"/>
+      <c r="AR5" s="165"/>
+      <c r="AS5" s="165"/>
+      <c r="AT5" s="165"/>
+      <c r="AU5" s="164"/>
+      <c r="AV5" s="165"/>
+      <c r="AW5" s="165"/>
+      <c r="AX5" s="165"/>
+      <c r="AY5" s="164"/>
+      <c r="AZ5" s="165"/>
+      <c r="BA5" s="165"/>
+      <c r="BB5" s="165"/>
+      <c r="BC5" s="164"/>
+      <c r="BD5" s="165"/>
+      <c r="BE5" s="165"/>
+      <c r="BF5" s="165"/>
+      <c r="BG5" s="164"/>
+      <c r="BH5" s="165"/>
+      <c r="BI5" s="165"/>
+      <c r="BJ5" s="165"/>
+      <c r="BK5" s="164"/>
+      <c r="BL5" s="165"/>
+      <c r="BM5" s="165"/>
+      <c r="BN5" s="165"/>
+      <c r="BO5" s="164"/>
+      <c r="BP5" s="165"/>
+      <c r="BQ5" s="165"/>
+      <c r="BR5" s="165"/>
+      <c r="BS5" s="164"/>
+      <c r="BT5" s="165"/>
+      <c r="BU5" s="165"/>
+      <c r="BV5" s="165"/>
       <c r="BW5" s="3"/>
       <c r="BX5" s="4"/>
     </row>
     <row r="6" spans="1:76">
       <c r="A6" s="2"/>
-      <c r="B6" s="149" t="s">
+      <c r="B6" s="166" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="150"/>
-      <c r="D6" s="143"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="149" t="s">
+      <c r="C6" s="167"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="166" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="143"/>
-      <c r="J6" s="144"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="169"/>
       <c r="K6" s="20" t="s">
         <v>37</v>
       </c>
@@ -8931,19 +8914,19 @@
     </row>
     <row r="7" spans="1:76">
       <c r="A7" s="2"/>
-      <c r="B7" s="151" t="s">
+      <c r="B7" s="143" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="152"/>
-      <c r="D7" s="152"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="162" t="s">
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="154" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="162"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="154"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
@@ -9015,17 +8998,17 @@
     </row>
     <row r="8" spans="1:76">
       <c r="A8" s="2"/>
-      <c r="B8" s="154"/>
-      <c r="C8" s="155"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="162" t="s">
+      <c r="B8" s="146"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="162"/>
-      <c r="H8" s="162"/>
-      <c r="I8" s="162"/>
-      <c r="J8" s="162"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="154"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
@@ -9097,17 +9080,17 @@
     </row>
     <row r="9" spans="1:76">
       <c r="A9" s="2"/>
-      <c r="B9" s="154"/>
-      <c r="C9" s="155"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="162" t="s">
+      <c r="B9" s="146"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="154" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="162"/>
-      <c r="H9" s="162"/>
-      <c r="I9" s="162"/>
-      <c r="J9" s="162"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="154"/>
+      <c r="I9" s="154"/>
+      <c r="J9" s="154"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
@@ -9179,17 +9162,17 @@
     </row>
     <row r="10" spans="1:76">
       <c r="A10" s="2"/>
-      <c r="B10" s="154"/>
-      <c r="C10" s="155"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="162" t="s">
+      <c r="B10" s="146"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="154" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="162"/>
-      <c r="H10" s="162"/>
-      <c r="I10" s="162"/>
-      <c r="J10" s="162"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="154"/>
+      <c r="J10" s="154"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
@@ -9261,17 +9244,17 @@
     </row>
     <row r="11" spans="1:76">
       <c r="A11" s="2"/>
-      <c r="B11" s="154"/>
-      <c r="C11" s="155"/>
-      <c r="D11" s="155"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="162" t="s">
+      <c r="B11" s="146"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="154" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="162"/>
-      <c r="H11" s="162"/>
-      <c r="I11" s="162"/>
-      <c r="J11" s="162"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="154"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
@@ -9343,17 +9326,17 @@
     </row>
     <row r="12" spans="1:76">
       <c r="A12" s="2"/>
-      <c r="B12" s="157"/>
-      <c r="C12" s="158"/>
-      <c r="D12" s="158"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="163" t="s">
+      <c r="B12" s="149"/>
+      <c r="C12" s="150"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="155" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="164"/>
-      <c r="H12" s="164"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="165"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="156"/>
+      <c r="J12" s="157"/>
       <c r="K12" s="24"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
@@ -9423,17 +9406,17 @@
     </row>
     <row r="13" spans="1:76">
       <c r="A13" s="2"/>
-      <c r="B13" s="157"/>
-      <c r="C13" s="158"/>
-      <c r="D13" s="158"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="166" t="s">
+      <c r="B13" s="149"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="167"/>
-      <c r="H13" s="167"/>
-      <c r="I13" s="167"/>
-      <c r="J13" s="168"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="160"/>
       <c r="K13" s="25"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -9503,17 +9486,17 @@
     </row>
     <row r="14" spans="1:76">
       <c r="A14" s="2"/>
-      <c r="B14" s="159"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="160"/>
-      <c r="E14" s="161"/>
-      <c r="F14" s="169" t="s">
+      <c r="B14" s="151"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="170"/>
-      <c r="H14" s="170"/>
-      <c r="I14" s="170"/>
-      <c r="J14" s="171"/>
+      <c r="G14" s="162"/>
+      <c r="H14" s="162"/>
+      <c r="I14" s="162"/>
+      <c r="J14" s="163"/>
       <c r="K14" s="17"/>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
@@ -9583,19 +9566,19 @@
     </row>
     <row r="15" spans="1:76">
       <c r="A15" s="2"/>
-      <c r="B15" s="151" t="s">
+      <c r="B15" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="152"/>
-      <c r="D15" s="152"/>
-      <c r="E15" s="153"/>
-      <c r="F15" s="162" t="s">
+      <c r="C15" s="144"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="162"/>
-      <c r="H15" s="162"/>
-      <c r="I15" s="162"/>
-      <c r="J15" s="162"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="154"/>
       <c r="K15" s="12" t="s">
         <v>43</v>
       </c>
@@ -9671,17 +9654,17 @@
     </row>
     <row r="16" spans="1:76">
       <c r="A16" s="2"/>
-      <c r="B16" s="154"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="156"/>
-      <c r="F16" s="162" t="s">
+      <c r="B16" s="146"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="154" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="162"/>
-      <c r="H16" s="162"/>
-      <c r="I16" s="162"/>
-      <c r="J16" s="162"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
       <c r="K16" s="11"/>
       <c r="L16" s="12" t="s">
         <v>43</v>
@@ -9757,17 +9740,17 @@
     </row>
     <row r="17" spans="1:76">
       <c r="A17" s="2"/>
-      <c r="B17" s="154"/>
-      <c r="C17" s="155"/>
-      <c r="D17" s="155"/>
-      <c r="E17" s="156"/>
-      <c r="F17" s="162" t="s">
+      <c r="B17" s="146"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="148"/>
+      <c r="F17" s="154" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="162"/>
-      <c r="H17" s="162"/>
-      <c r="I17" s="162"/>
-      <c r="J17" s="162"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="154"/>
       <c r="K17" s="11"/>
       <c r="L17" s="12" t="s">
         <v>43</v>
@@ -9843,17 +9826,17 @@
     </row>
     <row r="18" spans="1:76">
       <c r="A18" s="2"/>
-      <c r="B18" s="154"/>
-      <c r="C18" s="155"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="156"/>
-      <c r="F18" s="162" t="s">
+      <c r="B18" s="146"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="154" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="162"/>
-      <c r="H18" s="162"/>
-      <c r="I18" s="162"/>
-      <c r="J18" s="162"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="154"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="12" t="s">
@@ -9933,17 +9916,17 @@
     </row>
     <row r="19" spans="1:76">
       <c r="A19" s="2"/>
-      <c r="B19" s="154"/>
-      <c r="C19" s="155"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="162" t="s">
+      <c r="B19" s="146"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="148"/>
+      <c r="F19" s="154" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="162"/>
-      <c r="H19" s="162"/>
-      <c r="I19" s="162"/>
-      <c r="J19" s="162"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="154"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="12"/>
@@ -10017,17 +10000,17 @@
     </row>
     <row r="20" spans="1:76">
       <c r="A20" s="2"/>
-      <c r="B20" s="157"/>
-      <c r="C20" s="158"/>
-      <c r="D20" s="158"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="163" t="s">
+      <c r="B20" s="149"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="150"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="155" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="164"/>
-      <c r="H20" s="164"/>
-      <c r="I20" s="164"/>
-      <c r="J20" s="165"/>
+      <c r="G20" s="156"/>
+      <c r="H20" s="156"/>
+      <c r="I20" s="156"/>
+      <c r="J20" s="157"/>
       <c r="K20" s="24"/>
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
@@ -10097,17 +10080,17 @@
     </row>
     <row r="21" spans="1:76">
       <c r="A21" s="2"/>
-      <c r="B21" s="157"/>
-      <c r="C21" s="158"/>
-      <c r="D21" s="158"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="166" t="s">
+      <c r="B21" s="149"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="150"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="167"/>
-      <c r="H21" s="167"/>
-      <c r="I21" s="167"/>
-      <c r="J21" s="168"/>
+      <c r="G21" s="159"/>
+      <c r="H21" s="159"/>
+      <c r="I21" s="159"/>
+      <c r="J21" s="160"/>
       <c r="K21" s="25"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -10177,17 +10160,17 @@
     </row>
     <row r="22" spans="1:76">
       <c r="A22" s="2"/>
-      <c r="B22" s="159"/>
-      <c r="C22" s="160"/>
-      <c r="D22" s="160"/>
-      <c r="E22" s="161"/>
-      <c r="F22" s="169" t="s">
+      <c r="B22" s="151"/>
+      <c r="C22" s="152"/>
+      <c r="D22" s="152"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="170"/>
-      <c r="H22" s="170"/>
-      <c r="I22" s="170"/>
-      <c r="J22" s="171"/>
+      <c r="G22" s="162"/>
+      <c r="H22" s="162"/>
+      <c r="I22" s="162"/>
+      <c r="J22" s="163"/>
       <c r="K22" s="17"/>
       <c r="L22" s="18"/>
       <c r="M22" s="18"/>
@@ -10257,15 +10240,15 @@
     </row>
     <row r="23" spans="1:76">
       <c r="A23" s="2"/>
-      <c r="B23" s="151"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="152"/>
-      <c r="E23" s="153"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="162"/>
-      <c r="H23" s="162"/>
-      <c r="I23" s="162"/>
-      <c r="J23" s="162"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="154"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="154"/>
       <c r="K23" s="12"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
@@ -10335,15 +10318,15 @@
     </row>
     <row r="24" spans="1:76">
       <c r="A24" s="2"/>
-      <c r="B24" s="154"/>
-      <c r="C24" s="155"/>
-      <c r="D24" s="155"/>
-      <c r="E24" s="156"/>
-      <c r="F24" s="162"/>
-      <c r="G24" s="162"/>
-      <c r="H24" s="162"/>
-      <c r="I24" s="162"/>
-      <c r="J24" s="162"/>
+      <c r="B24" s="146"/>
+      <c r="C24" s="147"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="148"/>
+      <c r="F24" s="154"/>
+      <c r="G24" s="154"/>
+      <c r="H24" s="154"/>
+      <c r="I24" s="154"/>
+      <c r="J24" s="154"/>
       <c r="K24" s="11"/>
       <c r="L24" s="12"/>
       <c r="M24" s="11"/>
@@ -10413,15 +10396,15 @@
     </row>
     <row r="25" spans="1:76">
       <c r="A25" s="2"/>
-      <c r="B25" s="154"/>
-      <c r="C25" s="155"/>
-      <c r="D25" s="155"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="162"/>
-      <c r="G25" s="162"/>
-      <c r="H25" s="162"/>
-      <c r="I25" s="162"/>
-      <c r="J25" s="162"/>
+      <c r="B25" s="146"/>
+      <c r="C25" s="147"/>
+      <c r="D25" s="147"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="154"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="154"/>
+      <c r="I25" s="154"/>
+      <c r="J25" s="154"/>
       <c r="K25" s="11"/>
       <c r="L25" s="12"/>
       <c r="M25" s="11"/>
@@ -10491,15 +10474,15 @@
     </row>
     <row r="26" spans="1:76">
       <c r="A26" s="2"/>
-      <c r="B26" s="154"/>
-      <c r="C26" s="155"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="156"/>
-      <c r="F26" s="162"/>
-      <c r="G26" s="162"/>
-      <c r="H26" s="162"/>
-      <c r="I26" s="162"/>
-      <c r="J26" s="162"/>
+      <c r="B26" s="146"/>
+      <c r="C26" s="147"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="154"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="154"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="12"/>
@@ -10569,15 +10552,15 @@
     </row>
     <row r="27" spans="1:76">
       <c r="A27" s="2"/>
-      <c r="B27" s="154"/>
-      <c r="C27" s="155"/>
-      <c r="D27" s="155"/>
-      <c r="E27" s="156"/>
-      <c r="F27" s="162"/>
-      <c r="G27" s="162"/>
-      <c r="H27" s="162"/>
-      <c r="I27" s="162"/>
-      <c r="J27" s="162"/>
+      <c r="B27" s="146"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="154"/>
+      <c r="G27" s="154"/>
+      <c r="H27" s="154"/>
+      <c r="I27" s="154"/>
+      <c r="J27" s="154"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="M27" s="12"/>
@@ -10647,17 +10630,17 @@
     </row>
     <row r="28" spans="1:76">
       <c r="A28" s="2"/>
-      <c r="B28" s="157"/>
-      <c r="C28" s="158"/>
-      <c r="D28" s="158"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="163" t="s">
+      <c r="B28" s="149"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="155" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="164"/>
-      <c r="H28" s="164"/>
-      <c r="I28" s="164"/>
-      <c r="J28" s="165"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="157"/>
       <c r="K28" s="24"/>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
@@ -10727,17 +10710,17 @@
     </row>
     <row r="29" spans="1:76">
       <c r="A29" s="2"/>
-      <c r="B29" s="157"/>
-      <c r="C29" s="158"/>
-      <c r="D29" s="158"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="166" t="s">
+      <c r="B29" s="149"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="G29" s="167"/>
-      <c r="H29" s="167"/>
-      <c r="I29" s="167"/>
-      <c r="J29" s="168"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="159"/>
+      <c r="I29" s="159"/>
+      <c r="J29" s="160"/>
       <c r="K29" s="25"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -10807,17 +10790,17 @@
     </row>
     <row r="30" spans="1:76">
       <c r="A30" s="2"/>
-      <c r="B30" s="159"/>
-      <c r="C30" s="160"/>
-      <c r="D30" s="160"/>
-      <c r="E30" s="161"/>
-      <c r="F30" s="169" t="s">
+      <c r="B30" s="151"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="153"/>
+      <c r="F30" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="G30" s="170"/>
-      <c r="H30" s="170"/>
-      <c r="I30" s="170"/>
-      <c r="J30" s="171"/>
+      <c r="G30" s="162"/>
+      <c r="H30" s="162"/>
+      <c r="I30" s="162"/>
+      <c r="J30" s="163"/>
       <c r="K30" s="17"/>
       <c r="L30" s="18"/>
       <c r="M30" s="18"/>
@@ -10887,15 +10870,15 @@
     </row>
     <row r="31" spans="1:76">
       <c r="A31" s="2"/>
-      <c r="B31" s="151"/>
-      <c r="C31" s="152"/>
-      <c r="D31" s="152"/>
-      <c r="E31" s="153"/>
-      <c r="F31" s="162"/>
-      <c r="G31" s="162"/>
-      <c r="H31" s="162"/>
-      <c r="I31" s="162"/>
-      <c r="J31" s="162"/>
+      <c r="B31" s="143"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="154"/>
+      <c r="G31" s="154"/>
+      <c r="H31" s="154"/>
+      <c r="I31" s="154"/>
+      <c r="J31" s="154"/>
       <c r="K31" s="12"/>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
@@ -10965,15 +10948,15 @@
     </row>
     <row r="32" spans="1:76">
       <c r="A32" s="2"/>
-      <c r="B32" s="154"/>
-      <c r="C32" s="155"/>
-      <c r="D32" s="155"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="162"/>
-      <c r="G32" s="162"/>
-      <c r="H32" s="162"/>
-      <c r="I32" s="162"/>
-      <c r="J32" s="162"/>
+      <c r="B32" s="146"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="154"/>
+      <c r="G32" s="154"/>
+      <c r="H32" s="154"/>
+      <c r="I32" s="154"/>
+      <c r="J32" s="154"/>
       <c r="K32" s="11"/>
       <c r="L32" s="12"/>
       <c r="M32" s="11"/>
@@ -11043,15 +11026,15 @@
     </row>
     <row r="33" spans="1:76">
       <c r="A33" s="2"/>
-      <c r="B33" s="154"/>
-      <c r="C33" s="155"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="162"/>
-      <c r="G33" s="162"/>
-      <c r="H33" s="162"/>
-      <c r="I33" s="162"/>
-      <c r="J33" s="162"/>
+      <c r="B33" s="146"/>
+      <c r="C33" s="147"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="154"/>
+      <c r="I33" s="154"/>
+      <c r="J33" s="154"/>
       <c r="K33" s="11"/>
       <c r="L33" s="12"/>
       <c r="M33" s="11"/>
@@ -11121,15 +11104,15 @@
     </row>
     <row r="34" spans="1:76">
       <c r="A34" s="2"/>
-      <c r="B34" s="154"/>
-      <c r="C34" s="155"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="156"/>
-      <c r="F34" s="162"/>
-      <c r="G34" s="162"/>
-      <c r="H34" s="162"/>
-      <c r="I34" s="162"/>
-      <c r="J34" s="162"/>
+      <c r="B34" s="146"/>
+      <c r="C34" s="147"/>
+      <c r="D34" s="147"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="154"/>
+      <c r="H34" s="154"/>
+      <c r="I34" s="154"/>
+      <c r="J34" s="154"/>
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
       <c r="M34" s="12"/>
@@ -11199,15 +11182,15 @@
     </row>
     <row r="35" spans="1:76">
       <c r="A35" s="2"/>
-      <c r="B35" s="154"/>
-      <c r="C35" s="155"/>
-      <c r="D35" s="155"/>
-      <c r="E35" s="156"/>
-      <c r="F35" s="162"/>
-      <c r="G35" s="162"/>
-      <c r="H35" s="162"/>
-      <c r="I35" s="162"/>
-      <c r="J35" s="162"/>
+      <c r="B35" s="146"/>
+      <c r="C35" s="147"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="154"/>
+      <c r="G35" s="154"/>
+      <c r="H35" s="154"/>
+      <c r="I35" s="154"/>
+      <c r="J35" s="154"/>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
       <c r="M35" s="12"/>
@@ -11277,17 +11260,17 @@
     </row>
     <row r="36" spans="1:76">
       <c r="A36" s="2"/>
-      <c r="B36" s="157"/>
-      <c r="C36" s="158"/>
-      <c r="D36" s="158"/>
-      <c r="E36" s="156"/>
-      <c r="F36" s="163" t="s">
+      <c r="B36" s="149"/>
+      <c r="C36" s="150"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="155" t="s">
         <v>54</v>
       </c>
-      <c r="G36" s="164"/>
-      <c r="H36" s="164"/>
-      <c r="I36" s="164"/>
-      <c r="J36" s="165"/>
+      <c r="G36" s="156"/>
+      <c r="H36" s="156"/>
+      <c r="I36" s="156"/>
+      <c r="J36" s="157"/>
       <c r="K36" s="24"/>
       <c r="L36" s="14"/>
       <c r="M36" s="14"/>
@@ -11357,17 +11340,17 @@
     </row>
     <row r="37" spans="1:76">
       <c r="A37" s="2"/>
-      <c r="B37" s="157"/>
-      <c r="C37" s="158"/>
-      <c r="D37" s="158"/>
-      <c r="E37" s="156"/>
-      <c r="F37" s="166" t="s">
+      <c r="B37" s="149"/>
+      <c r="C37" s="150"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="G37" s="167"/>
-      <c r="H37" s="167"/>
-      <c r="I37" s="167"/>
-      <c r="J37" s="168"/>
+      <c r="G37" s="159"/>
+      <c r="H37" s="159"/>
+      <c r="I37" s="159"/>
+      <c r="J37" s="160"/>
       <c r="K37" s="25"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
@@ -11437,17 +11420,17 @@
     </row>
     <row r="38" spans="1:76">
       <c r="A38" s="2"/>
-      <c r="B38" s="159"/>
-      <c r="C38" s="160"/>
-      <c r="D38" s="160"/>
-      <c r="E38" s="161"/>
-      <c r="F38" s="169" t="s">
+      <c r="B38" s="151"/>
+      <c r="C38" s="152"/>
+      <c r="D38" s="152"/>
+      <c r="E38" s="153"/>
+      <c r="F38" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="G38" s="170"/>
-      <c r="H38" s="170"/>
-      <c r="I38" s="170"/>
-      <c r="J38" s="171"/>
+      <c r="G38" s="162"/>
+      <c r="H38" s="162"/>
+      <c r="I38" s="162"/>
+      <c r="J38" s="163"/>
       <c r="K38" s="17"/>
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
@@ -11517,15 +11500,15 @@
     </row>
     <row r="39" spans="1:76">
       <c r="A39" s="2"/>
-      <c r="B39" s="151"/>
-      <c r="C39" s="152"/>
-      <c r="D39" s="152"/>
-      <c r="E39" s="153"/>
-      <c r="F39" s="162"/>
-      <c r="G39" s="162"/>
-      <c r="H39" s="162"/>
-      <c r="I39" s="162"/>
-      <c r="J39" s="162"/>
+      <c r="B39" s="143"/>
+      <c r="C39" s="144"/>
+      <c r="D39" s="144"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="154"/>
+      <c r="G39" s="154"/>
+      <c r="H39" s="154"/>
+      <c r="I39" s="154"/>
+      <c r="J39" s="154"/>
       <c r="K39" s="12"/>
       <c r="L39" s="11"/>
       <c r="M39" s="11"/>
@@ -11595,15 +11578,15 @@
     </row>
     <row r="40" spans="1:76">
       <c r="A40" s="2"/>
-      <c r="B40" s="154"/>
-      <c r="C40" s="155"/>
-      <c r="D40" s="155"/>
-      <c r="E40" s="156"/>
-      <c r="F40" s="162"/>
-      <c r="G40" s="162"/>
-      <c r="H40" s="162"/>
-      <c r="I40" s="162"/>
-      <c r="J40" s="162"/>
+      <c r="B40" s="146"/>
+      <c r="C40" s="147"/>
+      <c r="D40" s="147"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="154"/>
+      <c r="G40" s="154"/>
+      <c r="H40" s="154"/>
+      <c r="I40" s="154"/>
+      <c r="J40" s="154"/>
       <c r="K40" s="11"/>
       <c r="L40" s="12"/>
       <c r="M40" s="11"/>
@@ -11673,15 +11656,15 @@
     </row>
     <row r="41" spans="1:76">
       <c r="A41" s="2"/>
-      <c r="B41" s="154"/>
-      <c r="C41" s="155"/>
-      <c r="D41" s="155"/>
-      <c r="E41" s="156"/>
-      <c r="F41" s="162"/>
-      <c r="G41" s="162"/>
-      <c r="H41" s="162"/>
-      <c r="I41" s="162"/>
-      <c r="J41" s="162"/>
+      <c r="B41" s="146"/>
+      <c r="C41" s="147"/>
+      <c r="D41" s="147"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="154"/>
+      <c r="G41" s="154"/>
+      <c r="H41" s="154"/>
+      <c r="I41" s="154"/>
+      <c r="J41" s="154"/>
       <c r="K41" s="11"/>
       <c r="L41" s="12"/>
       <c r="M41" s="11"/>
@@ -11751,15 +11734,15 @@
     </row>
     <row r="42" spans="1:76">
       <c r="A42" s="2"/>
-      <c r="B42" s="154"/>
-      <c r="C42" s="155"/>
-      <c r="D42" s="155"/>
-      <c r="E42" s="156"/>
-      <c r="F42" s="162"/>
-      <c r="G42" s="162"/>
-      <c r="H42" s="162"/>
-      <c r="I42" s="162"/>
-      <c r="J42" s="162"/>
+      <c r="B42" s="146"/>
+      <c r="C42" s="147"/>
+      <c r="D42" s="147"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="154"/>
+      <c r="G42" s="154"/>
+      <c r="H42" s="154"/>
+      <c r="I42" s="154"/>
+      <c r="J42" s="154"/>
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
       <c r="M42" s="12"/>
@@ -11829,15 +11812,15 @@
     </row>
     <row r="43" spans="1:76">
       <c r="A43" s="2"/>
-      <c r="B43" s="154"/>
-      <c r="C43" s="155"/>
-      <c r="D43" s="155"/>
-      <c r="E43" s="156"/>
-      <c r="F43" s="162"/>
-      <c r="G43" s="162"/>
-      <c r="H43" s="162"/>
-      <c r="I43" s="162"/>
-      <c r="J43" s="162"/>
+      <c r="B43" s="146"/>
+      <c r="C43" s="147"/>
+      <c r="D43" s="147"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="154"/>
+      <c r="G43" s="154"/>
+      <c r="H43" s="154"/>
+      <c r="I43" s="154"/>
+      <c r="J43" s="154"/>
       <c r="K43" s="11"/>
       <c r="L43" s="11"/>
       <c r="M43" s="12"/>
@@ -11907,17 +11890,17 @@
     </row>
     <row r="44" spans="1:76">
       <c r="A44" s="2"/>
-      <c r="B44" s="157"/>
-      <c r="C44" s="158"/>
-      <c r="D44" s="158"/>
-      <c r="E44" s="156"/>
-      <c r="F44" s="163" t="s">
+      <c r="B44" s="149"/>
+      <c r="C44" s="150"/>
+      <c r="D44" s="150"/>
+      <c r="E44" s="148"/>
+      <c r="F44" s="155" t="s">
         <v>54</v>
       </c>
-      <c r="G44" s="164"/>
-      <c r="H44" s="164"/>
-      <c r="I44" s="164"/>
-      <c r="J44" s="165"/>
+      <c r="G44" s="156"/>
+      <c r="H44" s="156"/>
+      <c r="I44" s="156"/>
+      <c r="J44" s="157"/>
       <c r="K44" s="24"/>
       <c r="L44" s="14"/>
       <c r="M44" s="14"/>
@@ -11987,17 +11970,17 @@
     </row>
     <row r="45" spans="1:76">
       <c r="A45" s="2"/>
-      <c r="B45" s="157"/>
-      <c r="C45" s="158"/>
-      <c r="D45" s="158"/>
-      <c r="E45" s="156"/>
-      <c r="F45" s="166" t="s">
+      <c r="B45" s="149"/>
+      <c r="C45" s="150"/>
+      <c r="D45" s="150"/>
+      <c r="E45" s="148"/>
+      <c r="F45" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="G45" s="167"/>
-      <c r="H45" s="167"/>
-      <c r="I45" s="167"/>
-      <c r="J45" s="168"/>
+      <c r="G45" s="159"/>
+      <c r="H45" s="159"/>
+      <c r="I45" s="159"/>
+      <c r="J45" s="160"/>
       <c r="K45" s="25"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -12067,17 +12050,17 @@
     </row>
     <row r="46" spans="1:76">
       <c r="A46" s="2"/>
-      <c r="B46" s="159"/>
-      <c r="C46" s="160"/>
-      <c r="D46" s="160"/>
-      <c r="E46" s="161"/>
-      <c r="F46" s="169" t="s">
+      <c r="B46" s="151"/>
+      <c r="C46" s="152"/>
+      <c r="D46" s="152"/>
+      <c r="E46" s="153"/>
+      <c r="F46" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="G46" s="170"/>
-      <c r="H46" s="170"/>
-      <c r="I46" s="170"/>
-      <c r="J46" s="171"/>
+      <c r="G46" s="162"/>
+      <c r="H46" s="162"/>
+      <c r="I46" s="162"/>
+      <c r="J46" s="163"/>
       <c r="K46" s="17"/>
       <c r="L46" s="18"/>
       <c r="M46" s="18"/>
@@ -12147,15 +12130,15 @@
     </row>
     <row r="47" spans="1:76">
       <c r="A47" s="2"/>
-      <c r="B47" s="151"/>
-      <c r="C47" s="152"/>
-      <c r="D47" s="152"/>
-      <c r="E47" s="153"/>
-      <c r="F47" s="162"/>
-      <c r="G47" s="162"/>
-      <c r="H47" s="162"/>
-      <c r="I47" s="162"/>
-      <c r="J47" s="162"/>
+      <c r="B47" s="143"/>
+      <c r="C47" s="144"/>
+      <c r="D47" s="144"/>
+      <c r="E47" s="145"/>
+      <c r="F47" s="154"/>
+      <c r="G47" s="154"/>
+      <c r="H47" s="154"/>
+      <c r="I47" s="154"/>
+      <c r="J47" s="154"/>
       <c r="K47" s="12"/>
       <c r="L47" s="11"/>
       <c r="M47" s="11"/>
@@ -12225,15 +12208,15 @@
     </row>
     <row r="48" spans="1:76">
       <c r="A48" s="2"/>
-      <c r="B48" s="154"/>
-      <c r="C48" s="155"/>
-      <c r="D48" s="155"/>
-      <c r="E48" s="156"/>
-      <c r="F48" s="162"/>
-      <c r="G48" s="162"/>
-      <c r="H48" s="162"/>
-      <c r="I48" s="162"/>
-      <c r="J48" s="162"/>
+      <c r="B48" s="146"/>
+      <c r="C48" s="147"/>
+      <c r="D48" s="147"/>
+      <c r="E48" s="148"/>
+      <c r="F48" s="154"/>
+      <c r="G48" s="154"/>
+      <c r="H48" s="154"/>
+      <c r="I48" s="154"/>
+      <c r="J48" s="154"/>
       <c r="K48" s="11"/>
       <c r="L48" s="12"/>
       <c r="M48" s="11"/>
@@ -12303,15 +12286,15 @@
     </row>
     <row r="49" spans="1:76">
       <c r="A49" s="2"/>
-      <c r="B49" s="154"/>
-      <c r="C49" s="155"/>
-      <c r="D49" s="155"/>
-      <c r="E49" s="156"/>
-      <c r="F49" s="162"/>
-      <c r="G49" s="162"/>
-      <c r="H49" s="162"/>
-      <c r="I49" s="162"/>
-      <c r="J49" s="162"/>
+      <c r="B49" s="146"/>
+      <c r="C49" s="147"/>
+      <c r="D49" s="147"/>
+      <c r="E49" s="148"/>
+      <c r="F49" s="154"/>
+      <c r="G49" s="154"/>
+      <c r="H49" s="154"/>
+      <c r="I49" s="154"/>
+      <c r="J49" s="154"/>
       <c r="K49" s="11"/>
       <c r="L49" s="12"/>
       <c r="M49" s="11"/>
@@ -12381,15 +12364,15 @@
     </row>
     <row r="50" spans="1:76">
       <c r="A50" s="2"/>
-      <c r="B50" s="154"/>
-      <c r="C50" s="155"/>
-      <c r="D50" s="155"/>
-      <c r="E50" s="156"/>
-      <c r="F50" s="162"/>
-      <c r="G50" s="162"/>
-      <c r="H50" s="162"/>
-      <c r="I50" s="162"/>
-      <c r="J50" s="162"/>
+      <c r="B50" s="146"/>
+      <c r="C50" s="147"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="148"/>
+      <c r="F50" s="154"/>
+      <c r="G50" s="154"/>
+      <c r="H50" s="154"/>
+      <c r="I50" s="154"/>
+      <c r="J50" s="154"/>
       <c r="K50" s="11"/>
       <c r="L50" s="11"/>
       <c r="M50" s="12"/>
@@ -12459,15 +12442,15 @@
     </row>
     <row r="51" spans="1:76">
       <c r="A51" s="2"/>
-      <c r="B51" s="154"/>
-      <c r="C51" s="155"/>
-      <c r="D51" s="155"/>
-      <c r="E51" s="156"/>
-      <c r="F51" s="162"/>
-      <c r="G51" s="162"/>
-      <c r="H51" s="162"/>
-      <c r="I51" s="162"/>
-      <c r="J51" s="162"/>
+      <c r="B51" s="146"/>
+      <c r="C51" s="147"/>
+      <c r="D51" s="147"/>
+      <c r="E51" s="148"/>
+      <c r="F51" s="154"/>
+      <c r="G51" s="154"/>
+      <c r="H51" s="154"/>
+      <c r="I51" s="154"/>
+      <c r="J51" s="154"/>
       <c r="K51" s="11"/>
       <c r="L51" s="11"/>
       <c r="M51" s="12"/>
@@ -12537,17 +12520,17 @@
     </row>
     <row r="52" spans="1:76">
       <c r="A52" s="2"/>
-      <c r="B52" s="157"/>
-      <c r="C52" s="158"/>
-      <c r="D52" s="158"/>
-      <c r="E52" s="156"/>
-      <c r="F52" s="163" t="s">
+      <c r="B52" s="149"/>
+      <c r="C52" s="150"/>
+      <c r="D52" s="150"/>
+      <c r="E52" s="148"/>
+      <c r="F52" s="155" t="s">
         <v>54</v>
       </c>
-      <c r="G52" s="164"/>
-      <c r="H52" s="164"/>
-      <c r="I52" s="164"/>
-      <c r="J52" s="165"/>
+      <c r="G52" s="156"/>
+      <c r="H52" s="156"/>
+      <c r="I52" s="156"/>
+      <c r="J52" s="157"/>
       <c r="K52" s="24"/>
       <c r="L52" s="14"/>
       <c r="M52" s="14"/>
@@ -12617,17 +12600,17 @@
     </row>
     <row r="53" spans="1:76">
       <c r="A53" s="2"/>
-      <c r="B53" s="157"/>
-      <c r="C53" s="158"/>
-      <c r="D53" s="158"/>
-      <c r="E53" s="156"/>
-      <c r="F53" s="166" t="s">
+      <c r="B53" s="149"/>
+      <c r="C53" s="150"/>
+      <c r="D53" s="150"/>
+      <c r="E53" s="148"/>
+      <c r="F53" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="G53" s="167"/>
-      <c r="H53" s="167"/>
-      <c r="I53" s="167"/>
-      <c r="J53" s="168"/>
+      <c r="G53" s="159"/>
+      <c r="H53" s="159"/>
+      <c r="I53" s="159"/>
+      <c r="J53" s="160"/>
       <c r="K53" s="25"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
@@ -12697,17 +12680,17 @@
     </row>
     <row r="54" spans="1:76">
       <c r="A54" s="2"/>
-      <c r="B54" s="159"/>
-      <c r="C54" s="160"/>
-      <c r="D54" s="160"/>
-      <c r="E54" s="161"/>
-      <c r="F54" s="169" t="s">
+      <c r="B54" s="151"/>
+      <c r="C54" s="152"/>
+      <c r="D54" s="152"/>
+      <c r="E54" s="153"/>
+      <c r="F54" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="G54" s="170"/>
-      <c r="H54" s="170"/>
-      <c r="I54" s="170"/>
-      <c r="J54" s="171"/>
+      <c r="G54" s="162"/>
+      <c r="H54" s="162"/>
+      <c r="I54" s="162"/>
+      <c r="J54" s="163"/>
       <c r="K54" s="17"/>
       <c r="L54" s="18"/>
       <c r="M54" s="18"/>
@@ -13011,27 +12994,55 @@
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="BG1:BI1"/>
-    <mergeCell ref="BG2:BI2"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="K2:BF2"/>
-    <mergeCell ref="K1:BF1"/>
-    <mergeCell ref="BS1:BX1"/>
-    <mergeCell ref="BS2:BX2"/>
-    <mergeCell ref="BP1:BR1"/>
-    <mergeCell ref="BP2:BR2"/>
-    <mergeCell ref="BJ1:BO1"/>
-    <mergeCell ref="BJ2:BO2"/>
-    <mergeCell ref="B47:E54"/>
-    <mergeCell ref="F47:J47"/>
-    <mergeCell ref="F48:J48"/>
-    <mergeCell ref="F49:J49"/>
-    <mergeCell ref="F50:J50"/>
-    <mergeCell ref="F51:J51"/>
-    <mergeCell ref="F52:J52"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="A3:BX3"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="AM5:AP5"/>
+    <mergeCell ref="AQ5:AT5"/>
+    <mergeCell ref="B7:E14"/>
+    <mergeCell ref="B15:E22"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="AA5:AD5"/>
+    <mergeCell ref="AE5:AH5"/>
+    <mergeCell ref="AI5:AL5"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="BS5:BV5"/>
+    <mergeCell ref="B23:E30"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="AU5:AX5"/>
+    <mergeCell ref="AY5:BB5"/>
+    <mergeCell ref="BC5:BF5"/>
+    <mergeCell ref="B31:E38"/>
+    <mergeCell ref="F33:J33"/>
+    <mergeCell ref="F34:J34"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="F35:J35"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="B39:E46"/>
+    <mergeCell ref="F39:J39"/>
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="F41:J41"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="F43:J43"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="F46:J46"/>
     <mergeCell ref="BO5:BR5"/>
     <mergeCell ref="F38:J38"/>
     <mergeCell ref="F9:J9"/>
@@ -13048,55 +13059,27 @@
     <mergeCell ref="BG5:BJ5"/>
     <mergeCell ref="BK5:BN5"/>
     <mergeCell ref="F18:J18"/>
-    <mergeCell ref="B39:E46"/>
-    <mergeCell ref="F39:J39"/>
-    <mergeCell ref="F40:J40"/>
-    <mergeCell ref="F41:J41"/>
-    <mergeCell ref="F42:J42"/>
-    <mergeCell ref="F43:J43"/>
-    <mergeCell ref="F44:J44"/>
-    <mergeCell ref="F45:J45"/>
-    <mergeCell ref="F46:J46"/>
-    <mergeCell ref="B31:E38"/>
-    <mergeCell ref="F33:J33"/>
-    <mergeCell ref="F34:J34"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="F32:J32"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="BS5:BV5"/>
-    <mergeCell ref="B23:E30"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="AU5:AX5"/>
-    <mergeCell ref="AY5:BB5"/>
-    <mergeCell ref="BC5:BF5"/>
-    <mergeCell ref="A3:BX3"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="AM5:AP5"/>
-    <mergeCell ref="AQ5:AT5"/>
-    <mergeCell ref="B7:E14"/>
-    <mergeCell ref="B15:E22"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="AA5:AD5"/>
-    <mergeCell ref="AE5:AH5"/>
-    <mergeCell ref="AI5:AL5"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="B47:E54"/>
+    <mergeCell ref="F47:J47"/>
+    <mergeCell ref="F48:J48"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="F51:J51"/>
+    <mergeCell ref="F52:J52"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="BS1:BX1"/>
+    <mergeCell ref="BS2:BX2"/>
+    <mergeCell ref="BP1:BR1"/>
+    <mergeCell ref="BP2:BR2"/>
+    <mergeCell ref="BJ1:BO1"/>
+    <mergeCell ref="BJ2:BO2"/>
+    <mergeCell ref="BG1:BI1"/>
+    <mergeCell ref="BG2:BI2"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="K2:BF2"/>
+    <mergeCell ref="K1:BF1"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -13175,15 +13158,15 @@
       <c r="I2" s="117"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="137"/>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
+      <c r="A3" s="170"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="119"/>
@@ -13222,17 +13205,17 @@
       <c r="D6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="181" t="s">
+      <c r="E6" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="182"/>
+      <c r="F6" s="179"/>
       <c r="G6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="181" t="s">
+      <c r="H6" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="182"/>
+      <c r="I6" s="179"/>
     </row>
     <row r="7" spans="1:9" ht="60" customHeight="1">
       <c r="A7" s="30" t="s">
@@ -13243,11 +13226,11 @@
       <c r="D7" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="178"/>
-      <c r="F7" s="179"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="183"/>
       <c r="G7" s="124"/>
       <c r="H7" s="180"/>
-      <c r="I7" s="183"/>
+      <c r="I7" s="181"/>
     </row>
     <row r="8" spans="1:9" ht="80.099999999999994" customHeight="1">
       <c r="A8" s="36"/>
@@ -13258,13 +13241,13 @@
       <c r="D8" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="178" t="s">
+      <c r="E8" s="182" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="179"/>
+      <c r="F8" s="183"/>
       <c r="G8" s="124"/>
       <c r="H8" s="180"/>
-      <c r="I8" s="179"/>
+      <c r="I8" s="183"/>
     </row>
     <row r="9" spans="1:9" ht="60" customHeight="1">
       <c r="A9" s="36"/>
@@ -13275,15 +13258,15 @@
       <c r="D9" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="178" t="s">
+      <c r="E9" s="182" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="179"/>
+      <c r="F9" s="183"/>
       <c r="G9" s="124" t="s">
         <v>30</v>
       </c>
       <c r="H9" s="180"/>
-      <c r="I9" s="179"/>
+      <c r="I9" s="183"/>
     </row>
     <row r="10" spans="1:9" ht="60" customHeight="1">
       <c r="A10" s="36"/>
@@ -13294,15 +13277,15 @@
       <c r="D10" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="178" t="s">
+      <c r="E10" s="182" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="179"/>
+      <c r="F10" s="183"/>
       <c r="G10" s="124" t="s">
         <v>30</v>
       </c>
       <c r="H10" s="180"/>
-      <c r="I10" s="179"/>
+      <c r="I10" s="183"/>
     </row>
     <row r="11" spans="1:9" ht="60" customHeight="1">
       <c r="A11" s="36"/>
@@ -13313,15 +13296,15 @@
       <c r="D11" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="178" t="s">
+      <c r="E11" s="182" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="179"/>
+      <c r="F11" s="183"/>
       <c r="G11" s="124" t="s">
         <v>30</v>
       </c>
       <c r="H11" s="180"/>
-      <c r="I11" s="179"/>
+      <c r="I11" s="183"/>
     </row>
     <row r="12" spans="1:9" ht="60" customHeight="1">
       <c r="A12" s="37"/>
@@ -13332,15 +13315,15 @@
       <c r="D12" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="178" t="s">
+      <c r="E12" s="182" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="179"/>
+      <c r="F12" s="183"/>
       <c r="G12" s="124" t="s">
         <v>30</v>
       </c>
       <c r="H12" s="180"/>
-      <c r="I12" s="179"/>
+      <c r="I12" s="183"/>
     </row>
     <row r="13" spans="1:9" ht="60" customHeight="1">
       <c r="A13" s="30" t="s">
@@ -13351,11 +13334,11 @@
       <c r="D13" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="178"/>
-      <c r="F13" s="179"/>
+      <c r="E13" s="182"/>
+      <c r="F13" s="183"/>
       <c r="G13" s="124"/>
       <c r="H13" s="180"/>
-      <c r="I13" s="179"/>
+      <c r="I13" s="183"/>
     </row>
     <row r="14" spans="1:9" ht="60" customHeight="1">
       <c r="A14" s="36"/>
@@ -13366,11 +13349,11 @@
       <c r="D14" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="178"/>
-      <c r="F14" s="179"/>
+      <c r="E14" s="182"/>
+      <c r="F14" s="183"/>
       <c r="G14" s="124"/>
       <c r="H14" s="180"/>
-      <c r="I14" s="179"/>
+      <c r="I14" s="183"/>
     </row>
     <row r="15" spans="1:9" ht="60" customHeight="1">
       <c r="A15" s="36"/>
@@ -13381,15 +13364,15 @@
       <c r="D15" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="178" t="s">
+      <c r="E15" s="182" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="179"/>
+      <c r="F15" s="183"/>
       <c r="G15" s="124"/>
       <c r="H15" s="180" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="179"/>
+      <c r="I15" s="183"/>
     </row>
     <row r="16" spans="1:9" ht="60" customHeight="1">
       <c r="A16" s="36"/>
@@ -13400,13 +13383,13 @@
       <c r="D16" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="178" t="s">
+      <c r="E16" s="182" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="179"/>
+      <c r="F16" s="183"/>
       <c r="G16" s="124"/>
       <c r="H16" s="180"/>
-      <c r="I16" s="179"/>
+      <c r="I16" s="183"/>
     </row>
     <row r="17" spans="1:9" ht="60" customHeight="1">
       <c r="A17" s="37"/>
@@ -13417,13 +13400,13 @@
       <c r="D17" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="178" t="s">
+      <c r="E17" s="182" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="179"/>
+      <c r="F17" s="183"/>
       <c r="G17" s="124"/>
       <c r="H17" s="180"/>
-      <c r="I17" s="179"/>
+      <c r="I17" s="183"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="8"/>
@@ -13438,6 +13421,22 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E14:F14"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="H6:I6"/>
@@ -13446,23 +13445,7 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E14:F14"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="H12:I12"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <printOptions horizontalCentered="1"/>

--- a/【ToDoリスト】CRUD表.xlsx
+++ b/【ToDoリスト】CRUD表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tetsu\Downloads\LINE WORKS\中斎さん課題\ドキュメント\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tetsu\Downloads\LINE WORKS\課題\ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC91A8E-029E-4566-91A8-0CB463FF5FED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CFF262-CAE1-4B12-A865-760BB2D0E094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="17130" windowHeight="9570" tabRatio="998" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="1065" windowWidth="17130" windowHeight="9570" tabRatio="998" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="27" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="100">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -817,6 +817,27 @@
       <t>テツロウ</t>
     </rPh>
     <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>一覧出力</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>リキ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>タスクテーブル</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ユーザーF</t>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
@@ -1944,6 +1965,33 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1953,51 +2001,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2041,49 +2070,41 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3091,14 +3112,14 @@
       <c r="E4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="133" t="s">
+      <c r="F4" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="133"/>
-      <c r="H4" s="133" t="s">
+      <c r="G4" s="125"/>
+      <c r="H4" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="134"/>
+      <c r="I4" s="126"/>
     </row>
     <row r="5" spans="1:9" ht="27" customHeight="1">
       <c r="A5" s="88" t="s">
@@ -3116,14 +3137,14 @@
       <c r="E5" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="135" t="s">
+      <c r="F5" s="127" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135" t="s">
+      <c r="G5" s="127"/>
+      <c r="H5" s="127" t="s">
         <v>71</v>
       </c>
-      <c r="I5" s="136"/>
+      <c r="I5" s="128"/>
     </row>
     <row r="6" spans="1:9" ht="27" customHeight="1">
       <c r="A6" s="92" t="s">
@@ -3139,13 +3160,13 @@
         <v>74</v>
       </c>
       <c r="E6" s="94"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="130"/>
     </row>
     <row r="7" spans="1:9" ht="27" customHeight="1">
-      <c r="A7" s="130" t="s">
+      <c r="A7" s="131" t="s">
         <v>75</v>
       </c>
       <c r="B7" s="95">
@@ -3158,13 +3179,13 @@
         <v>76</v>
       </c>
       <c r="E7" s="94"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
-      <c r="I7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="130"/>
     </row>
     <row r="8" spans="1:9" ht="27" customHeight="1">
-      <c r="A8" s="131"/>
+      <c r="A8" s="132"/>
       <c r="B8" s="95">
         <v>43494</v>
       </c>
@@ -3175,13 +3196,13 @@
         <v>78</v>
       </c>
       <c r="E8" s="94"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="129"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="130"/>
     </row>
     <row r="9" spans="1:9" ht="27" customHeight="1">
-      <c r="A9" s="132"/>
+      <c r="A9" s="133"/>
       <c r="B9" s="95">
         <v>43495</v>
       </c>
@@ -3192,10 +3213,10 @@
         <v>80</v>
       </c>
       <c r="E9" s="94"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="128"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="129"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="129"/>
+      <c r="I9" s="130"/>
     </row>
     <row r="10" spans="1:9" ht="27" customHeight="1">
       <c r="A10" s="96"/>
@@ -3203,10 +3224,10 @@
       <c r="C10" s="91"/>
       <c r="D10" s="91"/>
       <c r="E10" s="94"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="130"/>
     </row>
     <row r="11" spans="1:9" ht="27" customHeight="1">
       <c r="A11" s="96"/>
@@ -3214,10 +3235,10 @@
       <c r="C11" s="99"/>
       <c r="D11" s="91"/>
       <c r="E11" s="100"/>
-      <c r="F11" s="125"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="127"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="136"/>
     </row>
     <row r="12" spans="1:9" ht="27" customHeight="1">
       <c r="A12" s="96"/>
@@ -3225,10 +3246,10 @@
       <c r="C12" s="99"/>
       <c r="D12" s="91"/>
       <c r="E12" s="100"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="127"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="136"/>
     </row>
     <row r="13" spans="1:9" ht="27" customHeight="1">
       <c r="A13" s="96"/>
@@ -3236,10 +3257,10 @@
       <c r="C13" s="99"/>
       <c r="D13" s="91"/>
       <c r="E13" s="100"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="127"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="136"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1">
       <c r="A14" s="96"/>
@@ -3247,10 +3268,10 @@
       <c r="C14" s="99"/>
       <c r="D14" s="91"/>
       <c r="E14" s="100"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="127"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="136"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1">
       <c r="A15" s="96"/>
@@ -3258,10 +3279,10 @@
       <c r="C15" s="99"/>
       <c r="D15" s="91"/>
       <c r="E15" s="100"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="127"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="135"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="136"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1">
       <c r="A16" s="96"/>
@@ -3269,10 +3290,10 @@
       <c r="C16" s="99"/>
       <c r="D16" s="91"/>
       <c r="E16" s="100"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="127"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="136"/>
     </row>
     <row r="17" spans="1:9" ht="27" customHeight="1">
       <c r="A17" s="96"/>
@@ -3331,25 +3352,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="F13:G13"/>
@@ -3358,6 +3360,25 @@
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
@@ -3381,8 +3402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BX58"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24:U26"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3392,337 +3413,337 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:76" s="111" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="174" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="140" t="s">
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="173"/>
+      <c r="K1" s="175" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="138"/>
-      <c r="O1" s="138"/>
-      <c r="P1" s="138"/>
-      <c r="Q1" s="138"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="138"/>
-      <c r="T1" s="138"/>
-      <c r="U1" s="138"/>
-      <c r="V1" s="138"/>
-      <c r="W1" s="138"/>
-      <c r="X1" s="138"/>
-      <c r="Y1" s="138"/>
-      <c r="Z1" s="138"/>
-      <c r="AA1" s="138"/>
-      <c r="AB1" s="138"/>
-      <c r="AC1" s="138"/>
-      <c r="AD1" s="138"/>
-      <c r="AE1" s="138"/>
-      <c r="AF1" s="138"/>
-      <c r="AG1" s="138"/>
-      <c r="AH1" s="138"/>
-      <c r="AI1" s="138"/>
-      <c r="AJ1" s="138"/>
-      <c r="AK1" s="138"/>
-      <c r="AL1" s="138"/>
-      <c r="AM1" s="138"/>
-      <c r="AN1" s="138"/>
-      <c r="AO1" s="138"/>
-      <c r="AP1" s="138"/>
-      <c r="AQ1" s="138"/>
-      <c r="AR1" s="138"/>
-      <c r="AS1" s="138"/>
-      <c r="AT1" s="138"/>
-      <c r="AU1" s="138"/>
-      <c r="AV1" s="138"/>
-      <c r="AW1" s="138"/>
-      <c r="AX1" s="138"/>
-      <c r="AY1" s="138"/>
-      <c r="AZ1" s="138"/>
-      <c r="BA1" s="138"/>
-      <c r="BB1" s="138"/>
-      <c r="BC1" s="138"/>
-      <c r="BD1" s="138"/>
-      <c r="BE1" s="138"/>
-      <c r="BF1" s="138"/>
-      <c r="BG1" s="141" t="s">
+      <c r="L1" s="173"/>
+      <c r="M1" s="173"/>
+      <c r="N1" s="173"/>
+      <c r="O1" s="173"/>
+      <c r="P1" s="173"/>
+      <c r="Q1" s="173"/>
+      <c r="R1" s="173"/>
+      <c r="S1" s="173"/>
+      <c r="T1" s="173"/>
+      <c r="U1" s="173"/>
+      <c r="V1" s="173"/>
+      <c r="W1" s="173"/>
+      <c r="X1" s="173"/>
+      <c r="Y1" s="173"/>
+      <c r="Z1" s="173"/>
+      <c r="AA1" s="173"/>
+      <c r="AB1" s="173"/>
+      <c r="AC1" s="173"/>
+      <c r="AD1" s="173"/>
+      <c r="AE1" s="173"/>
+      <c r="AF1" s="173"/>
+      <c r="AG1" s="173"/>
+      <c r="AH1" s="173"/>
+      <c r="AI1" s="173"/>
+      <c r="AJ1" s="173"/>
+      <c r="AK1" s="173"/>
+      <c r="AL1" s="173"/>
+      <c r="AM1" s="173"/>
+      <c r="AN1" s="173"/>
+      <c r="AO1" s="173"/>
+      <c r="AP1" s="173"/>
+      <c r="AQ1" s="173"/>
+      <c r="AR1" s="173"/>
+      <c r="AS1" s="173"/>
+      <c r="AT1" s="173"/>
+      <c r="AU1" s="173"/>
+      <c r="AV1" s="173"/>
+      <c r="AW1" s="173"/>
+      <c r="AX1" s="173"/>
+      <c r="AY1" s="173"/>
+      <c r="AZ1" s="173"/>
+      <c r="BA1" s="173"/>
+      <c r="BB1" s="173"/>
+      <c r="BC1" s="173"/>
+      <c r="BD1" s="173"/>
+      <c r="BE1" s="173"/>
+      <c r="BF1" s="173"/>
+      <c r="BG1" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="BH1" s="138"/>
-      <c r="BI1" s="138"/>
-      <c r="BJ1" s="142">
+      <c r="BH1" s="173"/>
+      <c r="BI1" s="173"/>
+      <c r="BJ1" s="177">
         <v>43544</v>
       </c>
-      <c r="BK1" s="138"/>
-      <c r="BL1" s="138"/>
-      <c r="BM1" s="138"/>
-      <c r="BN1" s="138"/>
-      <c r="BO1" s="138"/>
-      <c r="BP1" s="141" t="s">
+      <c r="BK1" s="173"/>
+      <c r="BL1" s="173"/>
+      <c r="BM1" s="173"/>
+      <c r="BN1" s="173"/>
+      <c r="BO1" s="173"/>
+      <c r="BP1" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="BQ1" s="138"/>
-      <c r="BR1" s="138"/>
-      <c r="BS1" s="137" t="s">
+      <c r="BQ1" s="173"/>
+      <c r="BR1" s="173"/>
+      <c r="BS1" s="172" t="s">
         <v>96</v>
       </c>
-      <c r="BT1" s="138"/>
-      <c r="BU1" s="138"/>
-      <c r="BV1" s="138"/>
-      <c r="BW1" s="138"/>
-      <c r="BX1" s="138"/>
+      <c r="BT1" s="173"/>
+      <c r="BU1" s="173"/>
+      <c r="BV1" s="173"/>
+      <c r="BW1" s="173"/>
+      <c r="BX1" s="173"/>
     </row>
     <row r="2" spans="1:76" s="118" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="174" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="140" t="str">
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="175" t="str">
         <f ca="1">表紙!J10 &amp; "： " &amp; RIGHT(CELL("filename",K1),LEN(CELL("filename",K1))-FIND("]",CELL("filename",K1)))</f>
         <v>CRUD表： ToDoリスト</v>
       </c>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="138"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="138"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="138"/>
-      <c r="T2" s="138"/>
-      <c r="U2" s="138"/>
-      <c r="V2" s="138"/>
-      <c r="W2" s="138"/>
-      <c r="X2" s="138"/>
-      <c r="Y2" s="138"/>
-      <c r="Z2" s="138"/>
-      <c r="AA2" s="138"/>
-      <c r="AB2" s="138"/>
-      <c r="AC2" s="138"/>
-      <c r="AD2" s="138"/>
-      <c r="AE2" s="138"/>
-      <c r="AF2" s="138"/>
-      <c r="AG2" s="138"/>
-      <c r="AH2" s="138"/>
-      <c r="AI2" s="138"/>
-      <c r="AJ2" s="138"/>
-      <c r="AK2" s="138"/>
-      <c r="AL2" s="138"/>
-      <c r="AM2" s="138"/>
-      <c r="AN2" s="138"/>
-      <c r="AO2" s="138"/>
-      <c r="AP2" s="138"/>
-      <c r="AQ2" s="138"/>
-      <c r="AR2" s="138"/>
-      <c r="AS2" s="138"/>
-      <c r="AT2" s="138"/>
-      <c r="AU2" s="138"/>
-      <c r="AV2" s="138"/>
-      <c r="AW2" s="138"/>
-      <c r="AX2" s="138"/>
-      <c r="AY2" s="138"/>
-      <c r="AZ2" s="138"/>
-      <c r="BA2" s="138"/>
-      <c r="BB2" s="138"/>
-      <c r="BC2" s="138"/>
-      <c r="BD2" s="138"/>
-      <c r="BE2" s="138"/>
-      <c r="BF2" s="138"/>
-      <c r="BG2" s="141" t="s">
+      <c r="L2" s="173"/>
+      <c r="M2" s="173"/>
+      <c r="N2" s="173"/>
+      <c r="O2" s="173"/>
+      <c r="P2" s="173"/>
+      <c r="Q2" s="173"/>
+      <c r="R2" s="173"/>
+      <c r="S2" s="173"/>
+      <c r="T2" s="173"/>
+      <c r="U2" s="173"/>
+      <c r="V2" s="173"/>
+      <c r="W2" s="173"/>
+      <c r="X2" s="173"/>
+      <c r="Y2" s="173"/>
+      <c r="Z2" s="173"/>
+      <c r="AA2" s="173"/>
+      <c r="AB2" s="173"/>
+      <c r="AC2" s="173"/>
+      <c r="AD2" s="173"/>
+      <c r="AE2" s="173"/>
+      <c r="AF2" s="173"/>
+      <c r="AG2" s="173"/>
+      <c r="AH2" s="173"/>
+      <c r="AI2" s="173"/>
+      <c r="AJ2" s="173"/>
+      <c r="AK2" s="173"/>
+      <c r="AL2" s="173"/>
+      <c r="AM2" s="173"/>
+      <c r="AN2" s="173"/>
+      <c r="AO2" s="173"/>
+      <c r="AP2" s="173"/>
+      <c r="AQ2" s="173"/>
+      <c r="AR2" s="173"/>
+      <c r="AS2" s="173"/>
+      <c r="AT2" s="173"/>
+      <c r="AU2" s="173"/>
+      <c r="AV2" s="173"/>
+      <c r="AW2" s="173"/>
+      <c r="AX2" s="173"/>
+      <c r="AY2" s="173"/>
+      <c r="AZ2" s="173"/>
+      <c r="BA2" s="173"/>
+      <c r="BB2" s="173"/>
+      <c r="BC2" s="173"/>
+      <c r="BD2" s="173"/>
+      <c r="BE2" s="173"/>
+      <c r="BF2" s="173"/>
+      <c r="BG2" s="176" t="s">
         <v>3</v>
       </c>
-      <c r="BH2" s="138"/>
-      <c r="BI2" s="138"/>
-      <c r="BJ2" s="142"/>
-      <c r="BK2" s="138"/>
-      <c r="BL2" s="138"/>
-      <c r="BM2" s="138"/>
-      <c r="BN2" s="138"/>
-      <c r="BO2" s="138"/>
-      <c r="BP2" s="141" t="s">
+      <c r="BH2" s="173"/>
+      <c r="BI2" s="173"/>
+      <c r="BJ2" s="177"/>
+      <c r="BK2" s="173"/>
+      <c r="BL2" s="173"/>
+      <c r="BM2" s="173"/>
+      <c r="BN2" s="173"/>
+      <c r="BO2" s="173"/>
+      <c r="BP2" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="BQ2" s="138"/>
-      <c r="BR2" s="138"/>
-      <c r="BS2" s="137"/>
-      <c r="BT2" s="138"/>
-      <c r="BU2" s="138"/>
-      <c r="BV2" s="138"/>
-      <c r="BW2" s="138"/>
-      <c r="BX2" s="138"/>
+      <c r="BQ2" s="173"/>
+      <c r="BR2" s="173"/>
+      <c r="BS2" s="172"/>
+      <c r="BT2" s="173"/>
+      <c r="BU2" s="173"/>
+      <c r="BV2" s="173"/>
+      <c r="BW2" s="173"/>
+      <c r="BX2" s="173"/>
     </row>
     <row r="3" spans="1:76">
-      <c r="A3" s="170"/>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170"/>
-      <c r="N3" s="170"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="170"/>
-      <c r="S3" s="170"/>
-      <c r="T3" s="170"/>
-      <c r="U3" s="170"/>
-      <c r="V3" s="170"/>
-      <c r="W3" s="170"/>
-      <c r="X3" s="170"/>
-      <c r="Y3" s="170"/>
-      <c r="Z3" s="170"/>
-      <c r="AA3" s="170"/>
-      <c r="AB3" s="170"/>
-      <c r="AC3" s="170"/>
-      <c r="AD3" s="170"/>
-      <c r="AE3" s="170"/>
-      <c r="AF3" s="170"/>
-      <c r="AG3" s="170"/>
-      <c r="AH3" s="170"/>
-      <c r="AI3" s="170"/>
-      <c r="AJ3" s="170"/>
-      <c r="AK3" s="170"/>
-      <c r="AL3" s="170"/>
-      <c r="AM3" s="170"/>
-      <c r="AN3" s="170"/>
-      <c r="AO3" s="170"/>
-      <c r="AP3" s="170"/>
-      <c r="AQ3" s="170"/>
-      <c r="AR3" s="170"/>
-      <c r="AS3" s="170"/>
-      <c r="AT3" s="170"/>
-      <c r="AU3" s="170"/>
-      <c r="AV3" s="170"/>
-      <c r="AW3" s="170"/>
-      <c r="AX3" s="170"/>
-      <c r="AY3" s="170"/>
-      <c r="AZ3" s="170"/>
-      <c r="BA3" s="170"/>
-      <c r="BB3" s="170"/>
-      <c r="BC3" s="170"/>
-      <c r="BD3" s="170"/>
-      <c r="BE3" s="170"/>
-      <c r="BF3" s="170"/>
-      <c r="BG3" s="170"/>
-      <c r="BH3" s="170"/>
-      <c r="BI3" s="170"/>
-      <c r="BJ3" s="170"/>
-      <c r="BK3" s="170"/>
-      <c r="BL3" s="170"/>
-      <c r="BM3" s="170"/>
-      <c r="BN3" s="170"/>
-      <c r="BO3" s="170"/>
-      <c r="BP3" s="170"/>
-      <c r="BQ3" s="170"/>
-      <c r="BR3" s="170"/>
-      <c r="BS3" s="170"/>
-      <c r="BT3" s="170"/>
-      <c r="BU3" s="170"/>
-      <c r="BV3" s="170"/>
-      <c r="BW3" s="170"/>
-      <c r="BX3" s="170"/>
+      <c r="A3" s="137"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="137"/>
+      <c r="P3" s="137"/>
+      <c r="Q3" s="137"/>
+      <c r="R3" s="137"/>
+      <c r="S3" s="137"/>
+      <c r="T3" s="137"/>
+      <c r="U3" s="137"/>
+      <c r="V3" s="137"/>
+      <c r="W3" s="137"/>
+      <c r="X3" s="137"/>
+      <c r="Y3" s="137"/>
+      <c r="Z3" s="137"/>
+      <c r="AA3" s="137"/>
+      <c r="AB3" s="137"/>
+      <c r="AC3" s="137"/>
+      <c r="AD3" s="137"/>
+      <c r="AE3" s="137"/>
+      <c r="AF3" s="137"/>
+      <c r="AG3" s="137"/>
+      <c r="AH3" s="137"/>
+      <c r="AI3" s="137"/>
+      <c r="AJ3" s="137"/>
+      <c r="AK3" s="137"/>
+      <c r="AL3" s="137"/>
+      <c r="AM3" s="137"/>
+      <c r="AN3" s="137"/>
+      <c r="AO3" s="137"/>
+      <c r="AP3" s="137"/>
+      <c r="AQ3" s="137"/>
+      <c r="AR3" s="137"/>
+      <c r="AS3" s="137"/>
+      <c r="AT3" s="137"/>
+      <c r="AU3" s="137"/>
+      <c r="AV3" s="137"/>
+      <c r="AW3" s="137"/>
+      <c r="AX3" s="137"/>
+      <c r="AY3" s="137"/>
+      <c r="AZ3" s="137"/>
+      <c r="BA3" s="137"/>
+      <c r="BB3" s="137"/>
+      <c r="BC3" s="137"/>
+      <c r="BD3" s="137"/>
+      <c r="BE3" s="137"/>
+      <c r="BF3" s="137"/>
+      <c r="BG3" s="137"/>
+      <c r="BH3" s="137"/>
+      <c r="BI3" s="137"/>
+      <c r="BJ3" s="137"/>
+      <c r="BK3" s="137"/>
+      <c r="BL3" s="137"/>
+      <c r="BM3" s="137"/>
+      <c r="BN3" s="137"/>
+      <c r="BO3" s="137"/>
+      <c r="BP3" s="137"/>
+      <c r="BQ3" s="137"/>
+      <c r="BR3" s="137"/>
+      <c r="BS3" s="137"/>
+      <c r="BT3" s="137"/>
+      <c r="BU3" s="137"/>
+      <c r="BV3" s="137"/>
+      <c r="BW3" s="137"/>
+      <c r="BX3" s="137"/>
     </row>
     <row r="4" spans="1:76">
-      <c r="A4" s="171"/>
-      <c r="B4" s="172"/>
-      <c r="C4" s="172"/>
-      <c r="D4" s="172"/>
-      <c r="E4" s="172"/>
-      <c r="F4" s="172"/>
-      <c r="G4" s="172"/>
-      <c r="H4" s="172"/>
-      <c r="I4" s="172"/>
-      <c r="J4" s="172"/>
-      <c r="K4" s="172"/>
-      <c r="L4" s="172"/>
-      <c r="M4" s="172"/>
-      <c r="N4" s="172"/>
-      <c r="O4" s="172"/>
-      <c r="P4" s="172"/>
-      <c r="Q4" s="172"/>
-      <c r="R4" s="172"/>
-      <c r="S4" s="172"/>
-      <c r="T4" s="172"/>
-      <c r="U4" s="172"/>
-      <c r="V4" s="172"/>
-      <c r="W4" s="172"/>
-      <c r="X4" s="172"/>
-      <c r="Y4" s="172"/>
-      <c r="Z4" s="172"/>
-      <c r="AA4" s="172"/>
-      <c r="AB4" s="172"/>
-      <c r="AC4" s="172"/>
-      <c r="AD4" s="172"/>
-      <c r="AE4" s="172"/>
-      <c r="AF4" s="172"/>
-      <c r="AG4" s="172"/>
-      <c r="AH4" s="172"/>
-      <c r="AI4" s="172"/>
-      <c r="AJ4" s="172"/>
-      <c r="AK4" s="172"/>
-      <c r="AL4" s="172"/>
-      <c r="AM4" s="172"/>
-      <c r="AN4" s="172"/>
-      <c r="AO4" s="172"/>
-      <c r="AP4" s="172"/>
-      <c r="AQ4" s="172"/>
-      <c r="AR4" s="172"/>
-      <c r="AS4" s="172"/>
-      <c r="AT4" s="172"/>
-      <c r="AU4" s="172"/>
-      <c r="AV4" s="172"/>
-      <c r="AW4" s="172"/>
-      <c r="AX4" s="172"/>
-      <c r="AY4" s="172"/>
-      <c r="AZ4" s="172"/>
-      <c r="BA4" s="172"/>
-      <c r="BB4" s="172"/>
-      <c r="BC4" s="172"/>
-      <c r="BD4" s="172"/>
-      <c r="BE4" s="172"/>
-      <c r="BF4" s="172"/>
-      <c r="BG4" s="172"/>
-      <c r="BH4" s="172"/>
-      <c r="BI4" s="172"/>
-      <c r="BJ4" s="172"/>
-      <c r="BK4" s="172"/>
-      <c r="BL4" s="172"/>
-      <c r="BM4" s="172"/>
-      <c r="BN4" s="172"/>
-      <c r="BO4" s="172"/>
-      <c r="BP4" s="172"/>
-      <c r="BQ4" s="172"/>
-      <c r="BR4" s="172"/>
-      <c r="BS4" s="172"/>
-      <c r="BT4" s="172"/>
-      <c r="BU4" s="172"/>
-      <c r="BV4" s="172"/>
-      <c r="BW4" s="172"/>
-      <c r="BX4" s="173"/>
+      <c r="A4" s="138"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="139"/>
+      <c r="N4" s="139"/>
+      <c r="O4" s="139"/>
+      <c r="P4" s="139"/>
+      <c r="Q4" s="139"/>
+      <c r="R4" s="139"/>
+      <c r="S4" s="139"/>
+      <c r="T4" s="139"/>
+      <c r="U4" s="139"/>
+      <c r="V4" s="139"/>
+      <c r="W4" s="139"/>
+      <c r="X4" s="139"/>
+      <c r="Y4" s="139"/>
+      <c r="Z4" s="139"/>
+      <c r="AA4" s="139"/>
+      <c r="AB4" s="139"/>
+      <c r="AC4" s="139"/>
+      <c r="AD4" s="139"/>
+      <c r="AE4" s="139"/>
+      <c r="AF4" s="139"/>
+      <c r="AG4" s="139"/>
+      <c r="AH4" s="139"/>
+      <c r="AI4" s="139"/>
+      <c r="AJ4" s="139"/>
+      <c r="AK4" s="139"/>
+      <c r="AL4" s="139"/>
+      <c r="AM4" s="139"/>
+      <c r="AN4" s="139"/>
+      <c r="AO4" s="139"/>
+      <c r="AP4" s="139"/>
+      <c r="AQ4" s="139"/>
+      <c r="AR4" s="139"/>
+      <c r="AS4" s="139"/>
+      <c r="AT4" s="139"/>
+      <c r="AU4" s="139"/>
+      <c r="AV4" s="139"/>
+      <c r="AW4" s="139"/>
+      <c r="AX4" s="139"/>
+      <c r="AY4" s="139"/>
+      <c r="AZ4" s="139"/>
+      <c r="BA4" s="139"/>
+      <c r="BB4" s="139"/>
+      <c r="BC4" s="139"/>
+      <c r="BD4" s="139"/>
+      <c r="BE4" s="139"/>
+      <c r="BF4" s="139"/>
+      <c r="BG4" s="139"/>
+      <c r="BH4" s="139"/>
+      <c r="BI4" s="139"/>
+      <c r="BJ4" s="139"/>
+      <c r="BK4" s="139"/>
+      <c r="BL4" s="139"/>
+      <c r="BM4" s="139"/>
+      <c r="BN4" s="139"/>
+      <c r="BO4" s="139"/>
+      <c r="BP4" s="139"/>
+      <c r="BQ4" s="139"/>
+      <c r="BR4" s="139"/>
+      <c r="BS4" s="139"/>
+      <c r="BT4" s="139"/>
+      <c r="BU4" s="139"/>
+      <c r="BV4" s="139"/>
+      <c r="BW4" s="139"/>
+      <c r="BX4" s="140"/>
     </row>
     <row r="5" spans="1:76">
       <c r="A5" s="2"/>
@@ -3804,103 +3825,103 @@
     </row>
     <row r="6" spans="1:76">
       <c r="A6" s="2"/>
-      <c r="B6" s="174" t="s">
+      <c r="B6" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="175"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
-      <c r="I6" s="168"/>
-      <c r="J6" s="169"/>
-      <c r="K6" s="164" t="s">
-        <v>86</v>
-      </c>
-      <c r="L6" s="165"/>
-      <c r="M6" s="165"/>
-      <c r="N6" s="165"/>
-      <c r="O6" s="176" t="s">
-        <v>88</v>
-      </c>
-      <c r="P6" s="165"/>
-      <c r="Q6" s="165"/>
-      <c r="R6" s="177"/>
-      <c r="S6" s="164"/>
-      <c r="T6" s="165"/>
-      <c r="U6" s="165"/>
-      <c r="V6" s="165"/>
-      <c r="W6" s="164"/>
-      <c r="X6" s="165"/>
-      <c r="Y6" s="165"/>
-      <c r="Z6" s="165"/>
-      <c r="AA6" s="164"/>
-      <c r="AB6" s="165"/>
-      <c r="AC6" s="165"/>
-      <c r="AD6" s="165"/>
-      <c r="AE6" s="164"/>
-      <c r="AF6" s="165"/>
-      <c r="AG6" s="165"/>
-      <c r="AH6" s="165"/>
-      <c r="AI6" s="164"/>
-      <c r="AJ6" s="165"/>
-      <c r="AK6" s="165"/>
-      <c r="AL6" s="165"/>
-      <c r="AM6" s="164"/>
-      <c r="AN6" s="165"/>
-      <c r="AO6" s="165"/>
-      <c r="AP6" s="165"/>
-      <c r="AQ6" s="164"/>
-      <c r="AR6" s="165"/>
-      <c r="AS6" s="165"/>
-      <c r="AT6" s="165"/>
-      <c r="AU6" s="164"/>
-      <c r="AV6" s="165"/>
-      <c r="AW6" s="165"/>
-      <c r="AX6" s="165"/>
-      <c r="AY6" s="164"/>
-      <c r="AZ6" s="165"/>
-      <c r="BA6" s="165"/>
-      <c r="BB6" s="165"/>
-      <c r="BC6" s="164"/>
-      <c r="BD6" s="165"/>
-      <c r="BE6" s="165"/>
-      <c r="BF6" s="165"/>
-      <c r="BG6" s="164"/>
-      <c r="BH6" s="165"/>
-      <c r="BI6" s="165"/>
-      <c r="BJ6" s="165"/>
-      <c r="BK6" s="164"/>
-      <c r="BL6" s="165"/>
-      <c r="BM6" s="165"/>
-      <c r="BN6" s="165"/>
-      <c r="BO6" s="164"/>
-      <c r="BP6" s="165"/>
-      <c r="BQ6" s="165"/>
-      <c r="BR6" s="165"/>
-      <c r="BS6" s="164"/>
-      <c r="BT6" s="165"/>
-      <c r="BU6" s="165"/>
-      <c r="BV6" s="165"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="145" t="s">
+        <v>99</v>
+      </c>
+      <c r="L6" s="146"/>
+      <c r="M6" s="146"/>
+      <c r="N6" s="146"/>
+      <c r="O6" s="147" t="s">
+        <v>98</v>
+      </c>
+      <c r="P6" s="146"/>
+      <c r="Q6" s="146"/>
+      <c r="R6" s="148"/>
+      <c r="S6" s="145"/>
+      <c r="T6" s="146"/>
+      <c r="U6" s="146"/>
+      <c r="V6" s="146"/>
+      <c r="W6" s="145"/>
+      <c r="X6" s="146"/>
+      <c r="Y6" s="146"/>
+      <c r="Z6" s="146"/>
+      <c r="AA6" s="145"/>
+      <c r="AB6" s="146"/>
+      <c r="AC6" s="146"/>
+      <c r="AD6" s="146"/>
+      <c r="AE6" s="145"/>
+      <c r="AF6" s="146"/>
+      <c r="AG6" s="146"/>
+      <c r="AH6" s="146"/>
+      <c r="AI6" s="145"/>
+      <c r="AJ6" s="146"/>
+      <c r="AK6" s="146"/>
+      <c r="AL6" s="146"/>
+      <c r="AM6" s="145"/>
+      <c r="AN6" s="146"/>
+      <c r="AO6" s="146"/>
+      <c r="AP6" s="146"/>
+      <c r="AQ6" s="145"/>
+      <c r="AR6" s="146"/>
+      <c r="AS6" s="146"/>
+      <c r="AT6" s="146"/>
+      <c r="AU6" s="145"/>
+      <c r="AV6" s="146"/>
+      <c r="AW6" s="146"/>
+      <c r="AX6" s="146"/>
+      <c r="AY6" s="145"/>
+      <c r="AZ6" s="146"/>
+      <c r="BA6" s="146"/>
+      <c r="BB6" s="146"/>
+      <c r="BC6" s="145"/>
+      <c r="BD6" s="146"/>
+      <c r="BE6" s="146"/>
+      <c r="BF6" s="146"/>
+      <c r="BG6" s="145"/>
+      <c r="BH6" s="146"/>
+      <c r="BI6" s="146"/>
+      <c r="BJ6" s="146"/>
+      <c r="BK6" s="145"/>
+      <c r="BL6" s="146"/>
+      <c r="BM6" s="146"/>
+      <c r="BN6" s="146"/>
+      <c r="BO6" s="145"/>
+      <c r="BP6" s="146"/>
+      <c r="BQ6" s="146"/>
+      <c r="BR6" s="146"/>
+      <c r="BS6" s="145"/>
+      <c r="BT6" s="146"/>
+      <c r="BU6" s="146"/>
+      <c r="BV6" s="146"/>
       <c r="BW6" s="3"/>
       <c r="BX6" s="4"/>
     </row>
     <row r="7" spans="1:76">
       <c r="A7" s="2"/>
-      <c r="B7" s="166" t="s">
+      <c r="B7" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="167"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="166" t="s">
+      <c r="C7" s="150"/>
+      <c r="D7" s="143"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="149" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="168"/>
-      <c r="H7" s="168"/>
-      <c r="I7" s="168"/>
-      <c r="J7" s="169"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="144"/>
       <c r="K7" s="20" t="s">
         <v>37</v>
       </c>
@@ -4098,19 +4119,19 @@
     </row>
     <row r="8" spans="1:76">
       <c r="A8" s="2"/>
-      <c r="B8" s="143" t="s">
+      <c r="B8" s="151" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="144"/>
-      <c r="D8" s="144"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="154" t="s">
+      <c r="C8" s="152"/>
+      <c r="D8" s="152"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="162" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="154"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="154"/>
+      <c r="G8" s="162"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="162"/>
       <c r="K8" s="11" t="s">
         <v>93</v>
       </c>
@@ -4184,17 +4205,17 @@
     </row>
     <row r="9" spans="1:76">
       <c r="A9" s="2"/>
-      <c r="B9" s="146"/>
-      <c r="C9" s="147"/>
-      <c r="D9" s="147"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="154" t="s">
+      <c r="B9" s="154"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="162" t="s">
         <v>90</v>
       </c>
-      <c r="G9" s="154"/>
-      <c r="H9" s="154"/>
-      <c r="I9" s="154"/>
-      <c r="J9" s="154"/>
+      <c r="G9" s="162"/>
+      <c r="H9" s="162"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="162"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11" t="s">
         <v>93</v>
@@ -4268,17 +4289,17 @@
     </row>
     <row r="10" spans="1:76">
       <c r="A10" s="2"/>
-      <c r="B10" s="146"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="148"/>
-      <c r="F10" s="154" t="s">
+      <c r="B10" s="154"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="156"/>
+      <c r="F10" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="154"/>
-      <c r="H10" s="154"/>
-      <c r="I10" s="154"/>
-      <c r="J10" s="154"/>
+      <c r="G10" s="162"/>
+      <c r="H10" s="162"/>
+      <c r="I10" s="162"/>
+      <c r="J10" s="162"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11" t="s">
         <v>93</v>
@@ -4352,15 +4373,15 @@
     </row>
     <row r="11" spans="1:76">
       <c r="A11" s="2"/>
-      <c r="B11" s="146"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="154"/>
-      <c r="I11" s="154"/>
-      <c r="J11" s="154"/>
+      <c r="B11" s="154"/>
+      <c r="C11" s="155"/>
+      <c r="D11" s="155"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="162"/>
+      <c r="J11" s="162"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
@@ -4430,15 +4451,15 @@
     </row>
     <row r="12" spans="1:76">
       <c r="A12" s="2"/>
-      <c r="B12" s="146"/>
-      <c r="C12" s="147"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="148"/>
-      <c r="F12" s="154"/>
-      <c r="G12" s="154"/>
-      <c r="H12" s="154"/>
-      <c r="I12" s="154"/>
-      <c r="J12" s="154"/>
+      <c r="B12" s="154"/>
+      <c r="C12" s="155"/>
+      <c r="D12" s="155"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="162"/>
+      <c r="G12" s="162"/>
+      <c r="H12" s="162"/>
+      <c r="I12" s="162"/>
+      <c r="J12" s="162"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
@@ -4508,15 +4529,15 @@
     </row>
     <row r="13" spans="1:76">
       <c r="A13" s="2"/>
-      <c r="B13" s="149"/>
-      <c r="C13" s="150"/>
-      <c r="D13" s="150"/>
-      <c r="E13" s="148"/>
-      <c r="F13" s="155"/>
-      <c r="G13" s="156"/>
-      <c r="H13" s="156"/>
-      <c r="I13" s="156"/>
-      <c r="J13" s="157"/>
+      <c r="B13" s="157"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="158"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="163"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="164"/>
+      <c r="I13" s="164"/>
+      <c r="J13" s="165"/>
       <c r="K13" s="24"/>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
@@ -4586,15 +4607,15 @@
     </row>
     <row r="14" spans="1:76">
       <c r="A14" s="2"/>
-      <c r="B14" s="149"/>
-      <c r="C14" s="150"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="148"/>
-      <c r="F14" s="158"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="160"/>
+      <c r="B14" s="157"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="166"/>
+      <c r="G14" s="167"/>
+      <c r="H14" s="167"/>
+      <c r="I14" s="167"/>
+      <c r="J14" s="168"/>
       <c r="K14" s="25"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -4664,15 +4685,15 @@
     </row>
     <row r="15" spans="1:76">
       <c r="A15" s="2"/>
-      <c r="B15" s="151"/>
-      <c r="C15" s="152"/>
-      <c r="D15" s="152"/>
-      <c r="E15" s="153"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="162"/>
-      <c r="H15" s="162"/>
-      <c r="I15" s="162"/>
-      <c r="J15" s="163"/>
+      <c r="B15" s="159"/>
+      <c r="C15" s="160"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="169"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="170"/>
+      <c r="I15" s="170"/>
+      <c r="J15" s="171"/>
       <c r="K15" s="17"/>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
@@ -4742,19 +4763,19 @@
     </row>
     <row r="16" spans="1:76">
       <c r="A16" s="2"/>
-      <c r="B16" s="143" t="s">
+      <c r="B16" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="145"/>
-      <c r="F16" s="154" t="s">
+      <c r="C16" s="152"/>
+      <c r="D16" s="152"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="162" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
+      <c r="G16" s="162"/>
+      <c r="H16" s="162"/>
+      <c r="I16" s="162"/>
+      <c r="J16" s="162"/>
       <c r="K16" s="12"/>
       <c r="L16" s="11" t="s">
         <v>93</v>
@@ -4828,15 +4849,15 @@
     </row>
     <row r="17" spans="1:76">
       <c r="A17" s="2"/>
-      <c r="B17" s="146"/>
-      <c r="C17" s="147"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="148"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="154"/>
+      <c r="B17" s="154"/>
+      <c r="C17" s="155"/>
+      <c r="D17" s="155"/>
+      <c r="E17" s="156"/>
+      <c r="F17" s="162"/>
+      <c r="G17" s="162"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="162"/>
+      <c r="J17" s="162"/>
       <c r="K17" s="11"/>
       <c r="L17" s="12"/>
       <c r="M17" s="11"/>
@@ -4906,15 +4927,15 @@
     </row>
     <row r="18" spans="1:76">
       <c r="A18" s="2"/>
-      <c r="B18" s="146"/>
-      <c r="C18" s="147"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="154"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="154"/>
-      <c r="I18" s="154"/>
-      <c r="J18" s="154"/>
+      <c r="B18" s="154"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="156"/>
+      <c r="F18" s="162"/>
+      <c r="G18" s="162"/>
+      <c r="H18" s="162"/>
+      <c r="I18" s="162"/>
+      <c r="J18" s="162"/>
       <c r="K18" s="11"/>
       <c r="L18" s="12"/>
       <c r="M18" s="11"/>
@@ -4984,15 +5005,15 @@
     </row>
     <row r="19" spans="1:76">
       <c r="A19" s="2"/>
-      <c r="B19" s="146"/>
-      <c r="C19" s="147"/>
-      <c r="D19" s="147"/>
-      <c r="E19" s="148"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="154"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="154"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="162"/>
+      <c r="J19" s="162"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="12"/>
@@ -5062,15 +5083,15 @@
     </row>
     <row r="20" spans="1:76">
       <c r="A20" s="2"/>
-      <c r="B20" s="146"/>
-      <c r="C20" s="147"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="148"/>
-      <c r="F20" s="154"/>
-      <c r="G20" s="154"/>
-      <c r="H20" s="154"/>
-      <c r="I20" s="154"/>
-      <c r="J20" s="154"/>
+      <c r="B20" s="154"/>
+      <c r="C20" s="155"/>
+      <c r="D20" s="155"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="162"/>
+      <c r="G20" s="162"/>
+      <c r="H20" s="162"/>
+      <c r="I20" s="162"/>
+      <c r="J20" s="162"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="12"/>
@@ -5140,15 +5161,15 @@
     </row>
     <row r="21" spans="1:76">
       <c r="A21" s="2"/>
-      <c r="B21" s="149"/>
-      <c r="C21" s="150"/>
-      <c r="D21" s="150"/>
-      <c r="E21" s="148"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="156"/>
-      <c r="I21" s="156"/>
-      <c r="J21" s="157"/>
+      <c r="B21" s="157"/>
+      <c r="C21" s="158"/>
+      <c r="D21" s="158"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="164"/>
+      <c r="H21" s="164"/>
+      <c r="I21" s="164"/>
+      <c r="J21" s="165"/>
       <c r="K21" s="24"/>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
@@ -5218,15 +5239,15 @@
     </row>
     <row r="22" spans="1:76">
       <c r="A22" s="2"/>
-      <c r="B22" s="149"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="148"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="159"/>
-      <c r="H22" s="159"/>
-      <c r="I22" s="159"/>
-      <c r="J22" s="160"/>
+      <c r="B22" s="157"/>
+      <c r="C22" s="158"/>
+      <c r="D22" s="158"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="166"/>
+      <c r="G22" s="167"/>
+      <c r="H22" s="167"/>
+      <c r="I22" s="167"/>
+      <c r="J22" s="168"/>
       <c r="K22" s="25"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
@@ -5296,15 +5317,15 @@
     </row>
     <row r="23" spans="1:76">
       <c r="A23" s="2"/>
-      <c r="B23" s="151"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="152"/>
-      <c r="E23" s="153"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="162"/>
-      <c r="H23" s="162"/>
-      <c r="I23" s="162"/>
-      <c r="J23" s="163"/>
+      <c r="B23" s="159"/>
+      <c r="C23" s="160"/>
+      <c r="D23" s="160"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="169"/>
+      <c r="G23" s="170"/>
+      <c r="H23" s="170"/>
+      <c r="I23" s="170"/>
+      <c r="J23" s="171"/>
       <c r="K23" s="17"/>
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
@@ -5374,22 +5395,20 @@
     </row>
     <row r="24" spans="1:76">
       <c r="A24" s="2"/>
-      <c r="B24" s="143" t="s">
+      <c r="B24" s="151" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="144"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="145"/>
-      <c r="F24" s="154" t="s">
+      <c r="C24" s="152"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="153"/>
+      <c r="F24" s="162" t="s">
         <v>91</v>
       </c>
-      <c r="G24" s="154"/>
-      <c r="H24" s="154"/>
-      <c r="I24" s="154"/>
-      <c r="J24" s="154"/>
-      <c r="K24" s="11" t="s">
-        <v>93</v>
-      </c>
+      <c r="G24" s="162"/>
+      <c r="H24" s="162"/>
+      <c r="I24" s="162"/>
+      <c r="J24" s="162"/>
+      <c r="K24" s="11"/>
       <c r="L24" s="11" t="s">
         <v>93</v>
       </c>
@@ -5464,24 +5483,22 @@
     </row>
     <row r="25" spans="1:76">
       <c r="A25" s="2"/>
-      <c r="B25" s="146"/>
-      <c r="C25" s="147"/>
-      <c r="D25" s="147"/>
-      <c r="E25" s="148"/>
-      <c r="F25" s="154" t="s">
+      <c r="B25" s="154"/>
+      <c r="C25" s="155"/>
+      <c r="D25" s="155"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="162" t="s">
         <v>90</v>
       </c>
-      <c r="G25" s="154"/>
-      <c r="H25" s="154"/>
-      <c r="I25" s="154"/>
-      <c r="J25" s="154"/>
+      <c r="G25" s="162"/>
+      <c r="H25" s="162"/>
+      <c r="I25" s="162"/>
+      <c r="J25" s="162"/>
       <c r="K25" s="11"/>
       <c r="L25" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="M25" s="11" t="s">
-        <v>93</v>
-      </c>
+      <c r="M25" s="11"/>
       <c r="N25" s="11"/>
       <c r="O25" s="13"/>
       <c r="P25" s="12" t="s">
@@ -5552,24 +5569,22 @@
     </row>
     <row r="26" spans="1:76">
       <c r="A26" s="2"/>
-      <c r="B26" s="146"/>
-      <c r="C26" s="147"/>
-      <c r="D26" s="147"/>
-      <c r="E26" s="148"/>
-      <c r="F26" s="154" t="s">
+      <c r="B26" s="154"/>
+      <c r="C26" s="155"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="G26" s="154"/>
-      <c r="H26" s="154"/>
-      <c r="I26" s="154"/>
-      <c r="J26" s="154"/>
+      <c r="G26" s="162"/>
+      <c r="H26" s="162"/>
+      <c r="I26" s="162"/>
+      <c r="J26" s="162"/>
       <c r="K26" s="11"/>
       <c r="L26" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="M26" s="11" t="s">
-        <v>93</v>
-      </c>
+      <c r="M26" s="11"/>
       <c r="N26" s="12"/>
       <c r="O26" s="13"/>
       <c r="P26" s="12" t="s">
@@ -5640,21 +5655,25 @@
     </row>
     <row r="27" spans="1:76">
       <c r="A27" s="2"/>
-      <c r="B27" s="146"/>
-      <c r="C27" s="147"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="148"/>
-      <c r="F27" s="154"/>
-      <c r="G27" s="154"/>
-      <c r="H27" s="154"/>
-      <c r="I27" s="154"/>
-      <c r="J27" s="154"/>
+      <c r="B27" s="154"/>
+      <c r="C27" s="155"/>
+      <c r="D27" s="155"/>
+      <c r="E27" s="156"/>
+      <c r="F27" s="162" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="162"/>
+      <c r="H27" s="162"/>
+      <c r="I27" s="162"/>
+      <c r="J27" s="162"/>
       <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
+      <c r="L27" s="12"/>
       <c r="M27" s="12"/>
       <c r="N27" s="11"/>
       <c r="O27" s="27"/>
-      <c r="P27" s="11"/>
+      <c r="P27" s="12" t="s">
+        <v>93</v>
+      </c>
       <c r="Q27" s="12"/>
       <c r="R27" s="23"/>
       <c r="S27" s="11"/>
@@ -5718,15 +5737,15 @@
     </row>
     <row r="28" spans="1:76">
       <c r="A28" s="2"/>
-      <c r="B28" s="146"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="154"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="154"/>
-      <c r="I28" s="154"/>
-      <c r="J28" s="154"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="155"/>
+      <c r="D28" s="155"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
+      <c r="H28" s="162"/>
+      <c r="I28" s="162"/>
+      <c r="J28" s="162"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
       <c r="M28" s="12"/>
@@ -5796,17 +5815,17 @@
     </row>
     <row r="29" spans="1:76">
       <c r="A29" s="2"/>
-      <c r="B29" s="149"/>
-      <c r="C29" s="150"/>
-      <c r="D29" s="150"/>
-      <c r="E29" s="148"/>
-      <c r="F29" s="155" t="s">
+      <c r="B29" s="157"/>
+      <c r="C29" s="158"/>
+      <c r="D29" s="158"/>
+      <c r="E29" s="156"/>
+      <c r="F29" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="G29" s="156"/>
-      <c r="H29" s="156"/>
-      <c r="I29" s="156"/>
-      <c r="J29" s="157"/>
+      <c r="G29" s="164"/>
+      <c r="H29" s="164"/>
+      <c r="I29" s="164"/>
+      <c r="J29" s="165"/>
       <c r="K29" s="24"/>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
@@ -5876,17 +5895,17 @@
     </row>
     <row r="30" spans="1:76">
       <c r="A30" s="2"/>
-      <c r="B30" s="149"/>
-      <c r="C30" s="150"/>
-      <c r="D30" s="150"/>
-      <c r="E30" s="148"/>
-      <c r="F30" s="158" t="s">
+      <c r="B30" s="157"/>
+      <c r="C30" s="158"/>
+      <c r="D30" s="158"/>
+      <c r="E30" s="156"/>
+      <c r="F30" s="166" t="s">
         <v>54</v>
       </c>
-      <c r="G30" s="159"/>
-      <c r="H30" s="159"/>
-      <c r="I30" s="159"/>
-      <c r="J30" s="160"/>
+      <c r="G30" s="167"/>
+      <c r="H30" s="167"/>
+      <c r="I30" s="167"/>
+      <c r="J30" s="168"/>
       <c r="K30" s="25"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -5956,17 +5975,17 @@
     </row>
     <row r="31" spans="1:76">
       <c r="A31" s="2"/>
-      <c r="B31" s="151"/>
-      <c r="C31" s="152"/>
-      <c r="D31" s="152"/>
-      <c r="E31" s="153"/>
-      <c r="F31" s="161" t="s">
+      <c r="B31" s="159"/>
+      <c r="C31" s="160"/>
+      <c r="D31" s="160"/>
+      <c r="E31" s="161"/>
+      <c r="F31" s="169" t="s">
         <v>54</v>
       </c>
-      <c r="G31" s="162"/>
-      <c r="H31" s="162"/>
-      <c r="I31" s="162"/>
-      <c r="J31" s="163"/>
+      <c r="G31" s="170"/>
+      <c r="H31" s="170"/>
+      <c r="I31" s="170"/>
+      <c r="J31" s="171"/>
       <c r="K31" s="17"/>
       <c r="L31" s="18"/>
       <c r="M31" s="18"/>
@@ -6036,19 +6055,19 @@
     </row>
     <row r="32" spans="1:76">
       <c r="A32" s="2"/>
-      <c r="B32" s="143" t="s">
+      <c r="B32" s="151" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="144"/>
-      <c r="D32" s="144"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="154" t="s">
+      <c r="C32" s="152"/>
+      <c r="D32" s="152"/>
+      <c r="E32" s="153"/>
+      <c r="F32" s="162" t="s">
         <v>89</v>
       </c>
-      <c r="G32" s="154"/>
-      <c r="H32" s="154"/>
-      <c r="I32" s="154"/>
-      <c r="J32" s="154"/>
+      <c r="G32" s="162"/>
+      <c r="H32" s="162"/>
+      <c r="I32" s="162"/>
+      <c r="J32" s="162"/>
       <c r="K32" s="12"/>
       <c r="L32" s="11" t="s">
         <v>94</v>
@@ -6120,15 +6139,15 @@
     </row>
     <row r="33" spans="1:76">
       <c r="A33" s="2"/>
-      <c r="B33" s="146"/>
-      <c r="C33" s="147"/>
-      <c r="D33" s="147"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="154"/>
-      <c r="H33" s="154"/>
-      <c r="I33" s="154"/>
-      <c r="J33" s="154"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="156"/>
+      <c r="F33" s="162"/>
+      <c r="G33" s="162"/>
+      <c r="H33" s="162"/>
+      <c r="I33" s="162"/>
+      <c r="J33" s="162"/>
       <c r="K33" s="11"/>
       <c r="L33" s="12"/>
       <c r="M33" s="11"/>
@@ -6198,15 +6217,15 @@
     </row>
     <row r="34" spans="1:76">
       <c r="A34" s="2"/>
-      <c r="B34" s="146"/>
-      <c r="C34" s="147"/>
-      <c r="D34" s="147"/>
-      <c r="E34" s="148"/>
-      <c r="F34" s="154"/>
-      <c r="G34" s="154"/>
-      <c r="H34" s="154"/>
-      <c r="I34" s="154"/>
-      <c r="J34" s="154"/>
+      <c r="B34" s="154"/>
+      <c r="C34" s="155"/>
+      <c r="D34" s="155"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="162"/>
+      <c r="G34" s="162"/>
+      <c r="H34" s="162"/>
+      <c r="I34" s="162"/>
+      <c r="J34" s="162"/>
       <c r="K34" s="11"/>
       <c r="L34" s="12"/>
       <c r="M34" s="11"/>
@@ -6276,15 +6295,15 @@
     </row>
     <row r="35" spans="1:76">
       <c r="A35" s="2"/>
-      <c r="B35" s="146"/>
-      <c r="C35" s="147"/>
-      <c r="D35" s="147"/>
-      <c r="E35" s="148"/>
-      <c r="F35" s="154"/>
-      <c r="G35" s="154"/>
-      <c r="H35" s="154"/>
-      <c r="I35" s="154"/>
-      <c r="J35" s="154"/>
+      <c r="B35" s="154"/>
+      <c r="C35" s="155"/>
+      <c r="D35" s="155"/>
+      <c r="E35" s="156"/>
+      <c r="F35" s="162"/>
+      <c r="G35" s="162"/>
+      <c r="H35" s="162"/>
+      <c r="I35" s="162"/>
+      <c r="J35" s="162"/>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
       <c r="M35" s="12"/>
@@ -6354,15 +6373,15 @@
     </row>
     <row r="36" spans="1:76">
       <c r="A36" s="2"/>
-      <c r="B36" s="146"/>
-      <c r="C36" s="147"/>
-      <c r="D36" s="147"/>
-      <c r="E36" s="148"/>
-      <c r="F36" s="154"/>
-      <c r="G36" s="154"/>
-      <c r="H36" s="154"/>
-      <c r="I36" s="154"/>
-      <c r="J36" s="154"/>
+      <c r="B36" s="154"/>
+      <c r="C36" s="155"/>
+      <c r="D36" s="155"/>
+      <c r="E36" s="156"/>
+      <c r="F36" s="162"/>
+      <c r="G36" s="162"/>
+      <c r="H36" s="162"/>
+      <c r="I36" s="162"/>
+      <c r="J36" s="162"/>
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
       <c r="M36" s="12"/>
@@ -6432,17 +6451,17 @@
     </row>
     <row r="37" spans="1:76">
       <c r="A37" s="2"/>
-      <c r="B37" s="149"/>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="148"/>
-      <c r="F37" s="155" t="s">
+      <c r="B37" s="157"/>
+      <c r="C37" s="158"/>
+      <c r="D37" s="158"/>
+      <c r="E37" s="156"/>
+      <c r="F37" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="G37" s="156"/>
-      <c r="H37" s="156"/>
-      <c r="I37" s="156"/>
-      <c r="J37" s="157"/>
+      <c r="G37" s="164"/>
+      <c r="H37" s="164"/>
+      <c r="I37" s="164"/>
+      <c r="J37" s="165"/>
       <c r="K37" s="24"/>
       <c r="L37" s="14"/>
       <c r="M37" s="14"/>
@@ -6512,17 +6531,17 @@
     </row>
     <row r="38" spans="1:76">
       <c r="A38" s="2"/>
-      <c r="B38" s="149"/>
-      <c r="C38" s="150"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="148"/>
-      <c r="F38" s="158" t="s">
+      <c r="B38" s="157"/>
+      <c r="C38" s="158"/>
+      <c r="D38" s="158"/>
+      <c r="E38" s="156"/>
+      <c r="F38" s="166" t="s">
         <v>54</v>
       </c>
-      <c r="G38" s="159"/>
-      <c r="H38" s="159"/>
-      <c r="I38" s="159"/>
-      <c r="J38" s="160"/>
+      <c r="G38" s="167"/>
+      <c r="H38" s="167"/>
+      <c r="I38" s="167"/>
+      <c r="J38" s="168"/>
       <c r="K38" s="25"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
@@ -6592,17 +6611,17 @@
     </row>
     <row r="39" spans="1:76">
       <c r="A39" s="2"/>
-      <c r="B39" s="151"/>
-      <c r="C39" s="152"/>
-      <c r="D39" s="152"/>
-      <c r="E39" s="153"/>
-      <c r="F39" s="161" t="s">
+      <c r="B39" s="159"/>
+      <c r="C39" s="160"/>
+      <c r="D39" s="160"/>
+      <c r="E39" s="161"/>
+      <c r="F39" s="169" t="s">
         <v>54</v>
       </c>
-      <c r="G39" s="162"/>
-      <c r="H39" s="162"/>
-      <c r="I39" s="162"/>
-      <c r="J39" s="163"/>
+      <c r="G39" s="170"/>
+      <c r="H39" s="170"/>
+      <c r="I39" s="170"/>
+      <c r="J39" s="171"/>
       <c r="K39" s="17"/>
       <c r="L39" s="18"/>
       <c r="M39" s="18"/>
@@ -6672,15 +6691,15 @@
     </row>
     <row r="40" spans="1:76">
       <c r="A40" s="2"/>
-      <c r="B40" s="143"/>
-      <c r="C40" s="144"/>
-      <c r="D40" s="144"/>
-      <c r="E40" s="145"/>
-      <c r="F40" s="154"/>
-      <c r="G40" s="154"/>
-      <c r="H40" s="154"/>
-      <c r="I40" s="154"/>
-      <c r="J40" s="154"/>
+      <c r="B40" s="151"/>
+      <c r="C40" s="152"/>
+      <c r="D40" s="152"/>
+      <c r="E40" s="153"/>
+      <c r="F40" s="162"/>
+      <c r="G40" s="162"/>
+      <c r="H40" s="162"/>
+      <c r="I40" s="162"/>
+      <c r="J40" s="162"/>
       <c r="K40" s="12"/>
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
@@ -6750,15 +6769,15 @@
     </row>
     <row r="41" spans="1:76">
       <c r="A41" s="2"/>
-      <c r="B41" s="146"/>
-      <c r="C41" s="147"/>
-      <c r="D41" s="147"/>
-      <c r="E41" s="148"/>
-      <c r="F41" s="154"/>
-      <c r="G41" s="154"/>
-      <c r="H41" s="154"/>
-      <c r="I41" s="154"/>
-      <c r="J41" s="154"/>
+      <c r="B41" s="154"/>
+      <c r="C41" s="155"/>
+      <c r="D41" s="155"/>
+      <c r="E41" s="156"/>
+      <c r="F41" s="162"/>
+      <c r="G41" s="162"/>
+      <c r="H41" s="162"/>
+      <c r="I41" s="162"/>
+      <c r="J41" s="162"/>
       <c r="K41" s="11"/>
       <c r="L41" s="12"/>
       <c r="M41" s="11"/>
@@ -6828,15 +6847,15 @@
     </row>
     <row r="42" spans="1:76">
       <c r="A42" s="2"/>
-      <c r="B42" s="146"/>
-      <c r="C42" s="147"/>
-      <c r="D42" s="147"/>
-      <c r="E42" s="148"/>
-      <c r="F42" s="154"/>
-      <c r="G42" s="154"/>
-      <c r="H42" s="154"/>
-      <c r="I42" s="154"/>
-      <c r="J42" s="154"/>
+      <c r="B42" s="154"/>
+      <c r="C42" s="155"/>
+      <c r="D42" s="155"/>
+      <c r="E42" s="156"/>
+      <c r="F42" s="162"/>
+      <c r="G42" s="162"/>
+      <c r="H42" s="162"/>
+      <c r="I42" s="162"/>
+      <c r="J42" s="162"/>
       <c r="K42" s="11"/>
       <c r="L42" s="12"/>
       <c r="M42" s="11"/>
@@ -6906,15 +6925,15 @@
     </row>
     <row r="43" spans="1:76">
       <c r="A43" s="2"/>
-      <c r="B43" s="146"/>
-      <c r="C43" s="147"/>
-      <c r="D43" s="147"/>
-      <c r="E43" s="148"/>
-      <c r="F43" s="154"/>
-      <c r="G43" s="154"/>
-      <c r="H43" s="154"/>
-      <c r="I43" s="154"/>
-      <c r="J43" s="154"/>
+      <c r="B43" s="154"/>
+      <c r="C43" s="155"/>
+      <c r="D43" s="155"/>
+      <c r="E43" s="156"/>
+      <c r="F43" s="162"/>
+      <c r="G43" s="162"/>
+      <c r="H43" s="162"/>
+      <c r="I43" s="162"/>
+      <c r="J43" s="162"/>
       <c r="K43" s="11"/>
       <c r="L43" s="11"/>
       <c r="M43" s="12"/>
@@ -6984,15 +7003,15 @@
     </row>
     <row r="44" spans="1:76">
       <c r="A44" s="2"/>
-      <c r="B44" s="146"/>
-      <c r="C44" s="147"/>
-      <c r="D44" s="147"/>
-      <c r="E44" s="148"/>
-      <c r="F44" s="154"/>
-      <c r="G44" s="154"/>
-      <c r="H44" s="154"/>
-      <c r="I44" s="154"/>
-      <c r="J44" s="154"/>
+      <c r="B44" s="154"/>
+      <c r="C44" s="155"/>
+      <c r="D44" s="155"/>
+      <c r="E44" s="156"/>
+      <c r="F44" s="162"/>
+      <c r="G44" s="162"/>
+      <c r="H44" s="162"/>
+      <c r="I44" s="162"/>
+      <c r="J44" s="162"/>
       <c r="K44" s="11"/>
       <c r="L44" s="11"/>
       <c r="M44" s="12"/>
@@ -7062,17 +7081,17 @@
     </row>
     <row r="45" spans="1:76">
       <c r="A45" s="2"/>
-      <c r="B45" s="149"/>
-      <c r="C45" s="150"/>
-      <c r="D45" s="150"/>
-      <c r="E45" s="148"/>
-      <c r="F45" s="155" t="s">
+      <c r="B45" s="157"/>
+      <c r="C45" s="158"/>
+      <c r="D45" s="158"/>
+      <c r="E45" s="156"/>
+      <c r="F45" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="G45" s="156"/>
-      <c r="H45" s="156"/>
-      <c r="I45" s="156"/>
-      <c r="J45" s="157"/>
+      <c r="G45" s="164"/>
+      <c r="H45" s="164"/>
+      <c r="I45" s="164"/>
+      <c r="J45" s="165"/>
       <c r="K45" s="24"/>
       <c r="L45" s="14"/>
       <c r="M45" s="14"/>
@@ -7142,17 +7161,17 @@
     </row>
     <row r="46" spans="1:76">
       <c r="A46" s="2"/>
-      <c r="B46" s="149"/>
-      <c r="C46" s="150"/>
-      <c r="D46" s="150"/>
-      <c r="E46" s="148"/>
-      <c r="F46" s="158" t="s">
+      <c r="B46" s="157"/>
+      <c r="C46" s="158"/>
+      <c r="D46" s="158"/>
+      <c r="E46" s="156"/>
+      <c r="F46" s="166" t="s">
         <v>54</v>
       </c>
-      <c r="G46" s="159"/>
-      <c r="H46" s="159"/>
-      <c r="I46" s="159"/>
-      <c r="J46" s="160"/>
+      <c r="G46" s="167"/>
+      <c r="H46" s="167"/>
+      <c r="I46" s="167"/>
+      <c r="J46" s="168"/>
       <c r="K46" s="25"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
@@ -7222,17 +7241,17 @@
     </row>
     <row r="47" spans="1:76">
       <c r="A47" s="2"/>
-      <c r="B47" s="151"/>
-      <c r="C47" s="152"/>
-      <c r="D47" s="152"/>
-      <c r="E47" s="153"/>
-      <c r="F47" s="161" t="s">
+      <c r="B47" s="159"/>
+      <c r="C47" s="160"/>
+      <c r="D47" s="160"/>
+      <c r="E47" s="161"/>
+      <c r="F47" s="169" t="s">
         <v>54</v>
       </c>
-      <c r="G47" s="162"/>
-      <c r="H47" s="162"/>
-      <c r="I47" s="162"/>
-      <c r="J47" s="163"/>
+      <c r="G47" s="170"/>
+      <c r="H47" s="170"/>
+      <c r="I47" s="170"/>
+      <c r="J47" s="171"/>
       <c r="K47" s="17"/>
       <c r="L47" s="18"/>
       <c r="M47" s="18"/>
@@ -7302,15 +7321,15 @@
     </row>
     <row r="48" spans="1:76">
       <c r="A48" s="2"/>
-      <c r="B48" s="143"/>
-      <c r="C48" s="144"/>
-      <c r="D48" s="144"/>
-      <c r="E48" s="145"/>
-      <c r="F48" s="154"/>
-      <c r="G48" s="154"/>
-      <c r="H48" s="154"/>
-      <c r="I48" s="154"/>
-      <c r="J48" s="154"/>
+      <c r="B48" s="151"/>
+      <c r="C48" s="152"/>
+      <c r="D48" s="152"/>
+      <c r="E48" s="153"/>
+      <c r="F48" s="162"/>
+      <c r="G48" s="162"/>
+      <c r="H48" s="162"/>
+      <c r="I48" s="162"/>
+      <c r="J48" s="162"/>
       <c r="K48" s="12"/>
       <c r="L48" s="11"/>
       <c r="M48" s="11"/>
@@ -7380,15 +7399,15 @@
     </row>
     <row r="49" spans="1:76">
       <c r="A49" s="2"/>
-      <c r="B49" s="146"/>
-      <c r="C49" s="147"/>
-      <c r="D49" s="147"/>
-      <c r="E49" s="148"/>
-      <c r="F49" s="154"/>
-      <c r="G49" s="154"/>
-      <c r="H49" s="154"/>
-      <c r="I49" s="154"/>
-      <c r="J49" s="154"/>
+      <c r="B49" s="154"/>
+      <c r="C49" s="155"/>
+      <c r="D49" s="155"/>
+      <c r="E49" s="156"/>
+      <c r="F49" s="162"/>
+      <c r="G49" s="162"/>
+      <c r="H49" s="162"/>
+      <c r="I49" s="162"/>
+      <c r="J49" s="162"/>
       <c r="K49" s="11"/>
       <c r="L49" s="12"/>
       <c r="M49" s="11"/>
@@ -7458,15 +7477,15 @@
     </row>
     <row r="50" spans="1:76">
       <c r="A50" s="2"/>
-      <c r="B50" s="146"/>
-      <c r="C50" s="147"/>
-      <c r="D50" s="147"/>
-      <c r="E50" s="148"/>
-      <c r="F50" s="154"/>
-      <c r="G50" s="154"/>
-      <c r="H50" s="154"/>
-      <c r="I50" s="154"/>
-      <c r="J50" s="154"/>
+      <c r="B50" s="154"/>
+      <c r="C50" s="155"/>
+      <c r="D50" s="155"/>
+      <c r="E50" s="156"/>
+      <c r="F50" s="162"/>
+      <c r="G50" s="162"/>
+      <c r="H50" s="162"/>
+      <c r="I50" s="162"/>
+      <c r="J50" s="162"/>
       <c r="K50" s="11"/>
       <c r="L50" s="12"/>
       <c r="M50" s="11"/>
@@ -7536,15 +7555,15 @@
     </row>
     <row r="51" spans="1:76">
       <c r="A51" s="2"/>
-      <c r="B51" s="146"/>
-      <c r="C51" s="147"/>
-      <c r="D51" s="147"/>
-      <c r="E51" s="148"/>
-      <c r="F51" s="154"/>
-      <c r="G51" s="154"/>
-      <c r="H51" s="154"/>
-      <c r="I51" s="154"/>
-      <c r="J51" s="154"/>
+      <c r="B51" s="154"/>
+      <c r="C51" s="155"/>
+      <c r="D51" s="155"/>
+      <c r="E51" s="156"/>
+      <c r="F51" s="162"/>
+      <c r="G51" s="162"/>
+      <c r="H51" s="162"/>
+      <c r="I51" s="162"/>
+      <c r="J51" s="162"/>
       <c r="K51" s="11"/>
       <c r="L51" s="11"/>
       <c r="M51" s="12"/>
@@ -7614,15 +7633,15 @@
     </row>
     <row r="52" spans="1:76">
       <c r="A52" s="2"/>
-      <c r="B52" s="146"/>
-      <c r="C52" s="147"/>
-      <c r="D52" s="147"/>
-      <c r="E52" s="148"/>
-      <c r="F52" s="154"/>
-      <c r="G52" s="154"/>
-      <c r="H52" s="154"/>
-      <c r="I52" s="154"/>
-      <c r="J52" s="154"/>
+      <c r="B52" s="154"/>
+      <c r="C52" s="155"/>
+      <c r="D52" s="155"/>
+      <c r="E52" s="156"/>
+      <c r="F52" s="162"/>
+      <c r="G52" s="162"/>
+      <c r="H52" s="162"/>
+      <c r="I52" s="162"/>
+      <c r="J52" s="162"/>
       <c r="K52" s="11"/>
       <c r="L52" s="11"/>
       <c r="M52" s="12"/>
@@ -7692,17 +7711,17 @@
     </row>
     <row r="53" spans="1:76">
       <c r="A53" s="2"/>
-      <c r="B53" s="149"/>
-      <c r="C53" s="150"/>
-      <c r="D53" s="150"/>
-      <c r="E53" s="148"/>
-      <c r="F53" s="155" t="s">
+      <c r="B53" s="157"/>
+      <c r="C53" s="158"/>
+      <c r="D53" s="158"/>
+      <c r="E53" s="156"/>
+      <c r="F53" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="G53" s="156"/>
-      <c r="H53" s="156"/>
-      <c r="I53" s="156"/>
-      <c r="J53" s="157"/>
+      <c r="G53" s="164"/>
+      <c r="H53" s="164"/>
+      <c r="I53" s="164"/>
+      <c r="J53" s="165"/>
       <c r="K53" s="24"/>
       <c r="L53" s="14"/>
       <c r="M53" s="14"/>
@@ -7772,17 +7791,17 @@
     </row>
     <row r="54" spans="1:76">
       <c r="A54" s="2"/>
-      <c r="B54" s="149"/>
-      <c r="C54" s="150"/>
-      <c r="D54" s="150"/>
-      <c r="E54" s="148"/>
-      <c r="F54" s="158" t="s">
+      <c r="B54" s="157"/>
+      <c r="C54" s="158"/>
+      <c r="D54" s="158"/>
+      <c r="E54" s="156"/>
+      <c r="F54" s="166" t="s">
         <v>54</v>
       </c>
-      <c r="G54" s="159"/>
-      <c r="H54" s="159"/>
-      <c r="I54" s="159"/>
-      <c r="J54" s="160"/>
+      <c r="G54" s="167"/>
+      <c r="H54" s="167"/>
+      <c r="I54" s="167"/>
+      <c r="J54" s="168"/>
       <c r="K54" s="25"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
@@ -7852,17 +7871,17 @@
     </row>
     <row r="55" spans="1:76">
       <c r="A55" s="2"/>
-      <c r="B55" s="151"/>
-      <c r="C55" s="152"/>
-      <c r="D55" s="152"/>
-      <c r="E55" s="153"/>
-      <c r="F55" s="161" t="s">
+      <c r="B55" s="159"/>
+      <c r="C55" s="160"/>
+      <c r="D55" s="160"/>
+      <c r="E55" s="161"/>
+      <c r="F55" s="169" t="s">
         <v>54</v>
       </c>
-      <c r="G55" s="162"/>
-      <c r="H55" s="162"/>
-      <c r="I55" s="162"/>
-      <c r="J55" s="163"/>
+      <c r="G55" s="170"/>
+      <c r="H55" s="170"/>
+      <c r="I55" s="170"/>
+      <c r="J55" s="171"/>
       <c r="K55" s="17"/>
       <c r="L55" s="18"/>
       <c r="M55" s="18"/>
@@ -8166,6 +8185,77 @@
     </row>
   </sheetData>
   <mergeCells count="87">
+    <mergeCell ref="BS1:BX1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="K2:BF2"/>
+    <mergeCell ref="BG2:BI2"/>
+    <mergeCell ref="BJ2:BO2"/>
+    <mergeCell ref="BP2:BR2"/>
+    <mergeCell ref="BS2:BX2"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K1:BF1"/>
+    <mergeCell ref="BG1:BI1"/>
+    <mergeCell ref="BJ1:BO1"/>
+    <mergeCell ref="BP1:BR1"/>
+    <mergeCell ref="B48:E55"/>
+    <mergeCell ref="F48:J48"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="F51:J51"/>
+    <mergeCell ref="F52:J52"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="B40:E47"/>
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="F41:J41"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="F43:J43"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="F46:J46"/>
+    <mergeCell ref="F47:J47"/>
+    <mergeCell ref="B32:E39"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="F33:J33"/>
+    <mergeCell ref="F34:J34"/>
+    <mergeCell ref="F35:J35"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="F38:J38"/>
+    <mergeCell ref="F39:J39"/>
+    <mergeCell ref="B24:E31"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="B16:E23"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="BG6:BJ6"/>
+    <mergeCell ref="BK6:BN6"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="BC6:BF6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="B8:E15"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="F12:J12"/>
     <mergeCell ref="A3:BX3"/>
     <mergeCell ref="A4:BX4"/>
     <mergeCell ref="B6:J6"/>
@@ -8182,77 +8272,6 @@
     <mergeCell ref="AQ6:AT6"/>
     <mergeCell ref="AU6:AX6"/>
     <mergeCell ref="AY6:BB6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="B8:E15"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="BG6:BJ6"/>
-    <mergeCell ref="BK6:BN6"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="BC6:BF6"/>
-    <mergeCell ref="B16:E23"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="B24:E31"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="B32:E39"/>
-    <mergeCell ref="F32:J32"/>
-    <mergeCell ref="F33:J33"/>
-    <mergeCell ref="F34:J34"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="F38:J38"/>
-    <mergeCell ref="F39:J39"/>
-    <mergeCell ref="B40:E47"/>
-    <mergeCell ref="F40:J40"/>
-    <mergeCell ref="F41:J41"/>
-    <mergeCell ref="F42:J42"/>
-    <mergeCell ref="F43:J43"/>
-    <mergeCell ref="F44:J44"/>
-    <mergeCell ref="F45:J45"/>
-    <mergeCell ref="F46:J46"/>
-    <mergeCell ref="F47:J47"/>
-    <mergeCell ref="B48:E55"/>
-    <mergeCell ref="F48:J48"/>
-    <mergeCell ref="F49:J49"/>
-    <mergeCell ref="F50:J50"/>
-    <mergeCell ref="F51:J51"/>
-    <mergeCell ref="F52:J52"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="BS1:BX1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="K2:BF2"/>
-    <mergeCell ref="BG2:BI2"/>
-    <mergeCell ref="BJ2:BO2"/>
-    <mergeCell ref="BP2:BR2"/>
-    <mergeCell ref="BS2:BX2"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="K1:BF1"/>
-    <mergeCell ref="BG1:BI1"/>
-    <mergeCell ref="BJ1:BO1"/>
-    <mergeCell ref="BP1:BR1"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <printOptions horizontalCentered="1"/>
@@ -8284,259 +8303,259 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:76" s="111" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="174" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="140" t="s">
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="173"/>
+      <c r="K1" s="175" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="138"/>
-      <c r="O1" s="138"/>
-      <c r="P1" s="138"/>
-      <c r="Q1" s="138"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="138"/>
-      <c r="T1" s="138"/>
-      <c r="U1" s="138"/>
-      <c r="V1" s="138"/>
-      <c r="W1" s="138"/>
-      <c r="X1" s="138"/>
-      <c r="Y1" s="138"/>
-      <c r="Z1" s="138"/>
-      <c r="AA1" s="138"/>
-      <c r="AB1" s="138"/>
-      <c r="AC1" s="138"/>
-      <c r="AD1" s="138"/>
-      <c r="AE1" s="138"/>
-      <c r="AF1" s="138"/>
-      <c r="AG1" s="138"/>
-      <c r="AH1" s="138"/>
-      <c r="AI1" s="138"/>
-      <c r="AJ1" s="138"/>
-      <c r="AK1" s="138"/>
-      <c r="AL1" s="138"/>
-      <c r="AM1" s="138"/>
-      <c r="AN1" s="138"/>
-      <c r="AO1" s="138"/>
-      <c r="AP1" s="138"/>
-      <c r="AQ1" s="138"/>
-      <c r="AR1" s="138"/>
-      <c r="AS1" s="138"/>
-      <c r="AT1" s="138"/>
-      <c r="AU1" s="138"/>
-      <c r="AV1" s="138"/>
-      <c r="AW1" s="138"/>
-      <c r="AX1" s="138"/>
-      <c r="AY1" s="138"/>
-      <c r="AZ1" s="138"/>
-      <c r="BA1" s="138"/>
-      <c r="BB1" s="138"/>
-      <c r="BC1" s="138"/>
-      <c r="BD1" s="138"/>
-      <c r="BE1" s="138"/>
-      <c r="BF1" s="138"/>
-      <c r="BG1" s="141" t="s">
+      <c r="L1" s="173"/>
+      <c r="M1" s="173"/>
+      <c r="N1" s="173"/>
+      <c r="O1" s="173"/>
+      <c r="P1" s="173"/>
+      <c r="Q1" s="173"/>
+      <c r="R1" s="173"/>
+      <c r="S1" s="173"/>
+      <c r="T1" s="173"/>
+      <c r="U1" s="173"/>
+      <c r="V1" s="173"/>
+      <c r="W1" s="173"/>
+      <c r="X1" s="173"/>
+      <c r="Y1" s="173"/>
+      <c r="Z1" s="173"/>
+      <c r="AA1" s="173"/>
+      <c r="AB1" s="173"/>
+      <c r="AC1" s="173"/>
+      <c r="AD1" s="173"/>
+      <c r="AE1" s="173"/>
+      <c r="AF1" s="173"/>
+      <c r="AG1" s="173"/>
+      <c r="AH1" s="173"/>
+      <c r="AI1" s="173"/>
+      <c r="AJ1" s="173"/>
+      <c r="AK1" s="173"/>
+      <c r="AL1" s="173"/>
+      <c r="AM1" s="173"/>
+      <c r="AN1" s="173"/>
+      <c r="AO1" s="173"/>
+      <c r="AP1" s="173"/>
+      <c r="AQ1" s="173"/>
+      <c r="AR1" s="173"/>
+      <c r="AS1" s="173"/>
+      <c r="AT1" s="173"/>
+      <c r="AU1" s="173"/>
+      <c r="AV1" s="173"/>
+      <c r="AW1" s="173"/>
+      <c r="AX1" s="173"/>
+      <c r="AY1" s="173"/>
+      <c r="AZ1" s="173"/>
+      <c r="BA1" s="173"/>
+      <c r="BB1" s="173"/>
+      <c r="BC1" s="173"/>
+      <c r="BD1" s="173"/>
+      <c r="BE1" s="173"/>
+      <c r="BF1" s="173"/>
+      <c r="BG1" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="BH1" s="138"/>
-      <c r="BI1" s="138"/>
-      <c r="BJ1" s="142">
+      <c r="BH1" s="173"/>
+      <c r="BI1" s="173"/>
+      <c r="BJ1" s="177">
         <v>43465</v>
       </c>
-      <c r="BK1" s="138"/>
-      <c r="BL1" s="138"/>
-      <c r="BM1" s="138"/>
-      <c r="BN1" s="138"/>
-      <c r="BO1" s="138"/>
-      <c r="BP1" s="141" t="s">
+      <c r="BK1" s="173"/>
+      <c r="BL1" s="173"/>
+      <c r="BM1" s="173"/>
+      <c r="BN1" s="173"/>
+      <c r="BO1" s="173"/>
+      <c r="BP1" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="BQ1" s="138"/>
-      <c r="BR1" s="138"/>
-      <c r="BS1" s="137" t="s">
+      <c r="BQ1" s="173"/>
+      <c r="BR1" s="173"/>
+      <c r="BS1" s="172" t="s">
         <v>69</v>
       </c>
-      <c r="BT1" s="138"/>
-      <c r="BU1" s="138"/>
-      <c r="BV1" s="138"/>
-      <c r="BW1" s="138"/>
-      <c r="BX1" s="138"/>
+      <c r="BT1" s="173"/>
+      <c r="BU1" s="173"/>
+      <c r="BV1" s="173"/>
+      <c r="BW1" s="173"/>
+      <c r="BX1" s="173"/>
     </row>
     <row r="2" spans="1:76" s="118" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="174" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="140" t="str">
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="175" t="str">
         <f ca="1">表紙!J10 &amp; "： " &amp; RIGHT(CELL("filename",K1),LEN(CELL("filename",K1))-FIND("]",CELL("filename",K1)))</f>
         <v>CRUD表： サンプル</v>
       </c>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="138"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="138"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="138"/>
-      <c r="T2" s="138"/>
-      <c r="U2" s="138"/>
-      <c r="V2" s="138"/>
-      <c r="W2" s="138"/>
-      <c r="X2" s="138"/>
-      <c r="Y2" s="138"/>
-      <c r="Z2" s="138"/>
-      <c r="AA2" s="138"/>
-      <c r="AB2" s="138"/>
-      <c r="AC2" s="138"/>
-      <c r="AD2" s="138"/>
-      <c r="AE2" s="138"/>
-      <c r="AF2" s="138"/>
-      <c r="AG2" s="138"/>
-      <c r="AH2" s="138"/>
-      <c r="AI2" s="138"/>
-      <c r="AJ2" s="138"/>
-      <c r="AK2" s="138"/>
-      <c r="AL2" s="138"/>
-      <c r="AM2" s="138"/>
-      <c r="AN2" s="138"/>
-      <c r="AO2" s="138"/>
-      <c r="AP2" s="138"/>
-      <c r="AQ2" s="138"/>
-      <c r="AR2" s="138"/>
-      <c r="AS2" s="138"/>
-      <c r="AT2" s="138"/>
-      <c r="AU2" s="138"/>
-      <c r="AV2" s="138"/>
-      <c r="AW2" s="138"/>
-      <c r="AX2" s="138"/>
-      <c r="AY2" s="138"/>
-      <c r="AZ2" s="138"/>
-      <c r="BA2" s="138"/>
-      <c r="BB2" s="138"/>
-      <c r="BC2" s="138"/>
-      <c r="BD2" s="138"/>
-      <c r="BE2" s="138"/>
-      <c r="BF2" s="138"/>
-      <c r="BG2" s="141" t="s">
+      <c r="L2" s="173"/>
+      <c r="M2" s="173"/>
+      <c r="N2" s="173"/>
+      <c r="O2" s="173"/>
+      <c r="P2" s="173"/>
+      <c r="Q2" s="173"/>
+      <c r="R2" s="173"/>
+      <c r="S2" s="173"/>
+      <c r="T2" s="173"/>
+      <c r="U2" s="173"/>
+      <c r="V2" s="173"/>
+      <c r="W2" s="173"/>
+      <c r="X2" s="173"/>
+      <c r="Y2" s="173"/>
+      <c r="Z2" s="173"/>
+      <c r="AA2" s="173"/>
+      <c r="AB2" s="173"/>
+      <c r="AC2" s="173"/>
+      <c r="AD2" s="173"/>
+      <c r="AE2" s="173"/>
+      <c r="AF2" s="173"/>
+      <c r="AG2" s="173"/>
+      <c r="AH2" s="173"/>
+      <c r="AI2" s="173"/>
+      <c r="AJ2" s="173"/>
+      <c r="AK2" s="173"/>
+      <c r="AL2" s="173"/>
+      <c r="AM2" s="173"/>
+      <c r="AN2" s="173"/>
+      <c r="AO2" s="173"/>
+      <c r="AP2" s="173"/>
+      <c r="AQ2" s="173"/>
+      <c r="AR2" s="173"/>
+      <c r="AS2" s="173"/>
+      <c r="AT2" s="173"/>
+      <c r="AU2" s="173"/>
+      <c r="AV2" s="173"/>
+      <c r="AW2" s="173"/>
+      <c r="AX2" s="173"/>
+      <c r="AY2" s="173"/>
+      <c r="AZ2" s="173"/>
+      <c r="BA2" s="173"/>
+      <c r="BB2" s="173"/>
+      <c r="BC2" s="173"/>
+      <c r="BD2" s="173"/>
+      <c r="BE2" s="173"/>
+      <c r="BF2" s="173"/>
+      <c r="BG2" s="176" t="s">
         <v>3</v>
       </c>
-      <c r="BH2" s="138"/>
-      <c r="BI2" s="138"/>
-      <c r="BJ2" s="142"/>
-      <c r="BK2" s="138"/>
-      <c r="BL2" s="138"/>
-      <c r="BM2" s="138"/>
-      <c r="BN2" s="138"/>
-      <c r="BO2" s="138"/>
-      <c r="BP2" s="141" t="s">
+      <c r="BH2" s="173"/>
+      <c r="BI2" s="173"/>
+      <c r="BJ2" s="177"/>
+      <c r="BK2" s="173"/>
+      <c r="BL2" s="173"/>
+      <c r="BM2" s="173"/>
+      <c r="BN2" s="173"/>
+      <c r="BO2" s="173"/>
+      <c r="BP2" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="BQ2" s="138"/>
-      <c r="BR2" s="138"/>
-      <c r="BS2" s="137"/>
-      <c r="BT2" s="138"/>
-      <c r="BU2" s="138"/>
-      <c r="BV2" s="138"/>
-      <c r="BW2" s="138"/>
-      <c r="BX2" s="138"/>
+      <c r="BQ2" s="173"/>
+      <c r="BR2" s="173"/>
+      <c r="BS2" s="172"/>
+      <c r="BT2" s="173"/>
+      <c r="BU2" s="173"/>
+      <c r="BV2" s="173"/>
+      <c r="BW2" s="173"/>
+      <c r="BX2" s="173"/>
     </row>
     <row r="3" spans="1:76">
-      <c r="A3" s="171"/>
-      <c r="B3" s="172"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="172"/>
-      <c r="L3" s="172"/>
-      <c r="M3" s="172"/>
-      <c r="N3" s="172"/>
-      <c r="O3" s="172"/>
-      <c r="P3" s="172"/>
-      <c r="Q3" s="172"/>
-      <c r="R3" s="172"/>
-      <c r="S3" s="172"/>
-      <c r="T3" s="172"/>
-      <c r="U3" s="172"/>
-      <c r="V3" s="172"/>
-      <c r="W3" s="172"/>
-      <c r="X3" s="172"/>
-      <c r="Y3" s="172"/>
-      <c r="Z3" s="172"/>
-      <c r="AA3" s="172"/>
-      <c r="AB3" s="172"/>
-      <c r="AC3" s="172"/>
-      <c r="AD3" s="172"/>
-      <c r="AE3" s="172"/>
-      <c r="AF3" s="172"/>
-      <c r="AG3" s="172"/>
-      <c r="AH3" s="172"/>
-      <c r="AI3" s="172"/>
-      <c r="AJ3" s="172"/>
-      <c r="AK3" s="172"/>
-      <c r="AL3" s="172"/>
-      <c r="AM3" s="172"/>
-      <c r="AN3" s="172"/>
-      <c r="AO3" s="172"/>
-      <c r="AP3" s="172"/>
-      <c r="AQ3" s="172"/>
-      <c r="AR3" s="172"/>
-      <c r="AS3" s="172"/>
-      <c r="AT3" s="172"/>
-      <c r="AU3" s="172"/>
-      <c r="AV3" s="172"/>
-      <c r="AW3" s="172"/>
-      <c r="AX3" s="172"/>
-      <c r="AY3" s="172"/>
-      <c r="AZ3" s="172"/>
-      <c r="BA3" s="172"/>
-      <c r="BB3" s="172"/>
-      <c r="BC3" s="172"/>
-      <c r="BD3" s="172"/>
-      <c r="BE3" s="172"/>
-      <c r="BF3" s="172"/>
-      <c r="BG3" s="172"/>
-      <c r="BH3" s="172"/>
-      <c r="BI3" s="172"/>
-      <c r="BJ3" s="172"/>
-      <c r="BK3" s="172"/>
-      <c r="BL3" s="172"/>
-      <c r="BM3" s="172"/>
-      <c r="BN3" s="172"/>
-      <c r="BO3" s="172"/>
-      <c r="BP3" s="172"/>
-      <c r="BQ3" s="172"/>
-      <c r="BR3" s="172"/>
-      <c r="BS3" s="172"/>
-      <c r="BT3" s="172"/>
-      <c r="BU3" s="172"/>
-      <c r="BV3" s="172"/>
-      <c r="BW3" s="172"/>
-      <c r="BX3" s="173"/>
+      <c r="A3" s="138"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="139"/>
+      <c r="N3" s="139"/>
+      <c r="O3" s="139"/>
+      <c r="P3" s="139"/>
+      <c r="Q3" s="139"/>
+      <c r="R3" s="139"/>
+      <c r="S3" s="139"/>
+      <c r="T3" s="139"/>
+      <c r="U3" s="139"/>
+      <c r="V3" s="139"/>
+      <c r="W3" s="139"/>
+      <c r="X3" s="139"/>
+      <c r="Y3" s="139"/>
+      <c r="Z3" s="139"/>
+      <c r="AA3" s="139"/>
+      <c r="AB3" s="139"/>
+      <c r="AC3" s="139"/>
+      <c r="AD3" s="139"/>
+      <c r="AE3" s="139"/>
+      <c r="AF3" s="139"/>
+      <c r="AG3" s="139"/>
+      <c r="AH3" s="139"/>
+      <c r="AI3" s="139"/>
+      <c r="AJ3" s="139"/>
+      <c r="AK3" s="139"/>
+      <c r="AL3" s="139"/>
+      <c r="AM3" s="139"/>
+      <c r="AN3" s="139"/>
+      <c r="AO3" s="139"/>
+      <c r="AP3" s="139"/>
+      <c r="AQ3" s="139"/>
+      <c r="AR3" s="139"/>
+      <c r="AS3" s="139"/>
+      <c r="AT3" s="139"/>
+      <c r="AU3" s="139"/>
+      <c r="AV3" s="139"/>
+      <c r="AW3" s="139"/>
+      <c r="AX3" s="139"/>
+      <c r="AY3" s="139"/>
+      <c r="AZ3" s="139"/>
+      <c r="BA3" s="139"/>
+      <c r="BB3" s="139"/>
+      <c r="BC3" s="139"/>
+      <c r="BD3" s="139"/>
+      <c r="BE3" s="139"/>
+      <c r="BF3" s="139"/>
+      <c r="BG3" s="139"/>
+      <c r="BH3" s="139"/>
+      <c r="BI3" s="139"/>
+      <c r="BJ3" s="139"/>
+      <c r="BK3" s="139"/>
+      <c r="BL3" s="139"/>
+      <c r="BM3" s="139"/>
+      <c r="BN3" s="139"/>
+      <c r="BO3" s="139"/>
+      <c r="BP3" s="139"/>
+      <c r="BQ3" s="139"/>
+      <c r="BR3" s="139"/>
+      <c r="BS3" s="139"/>
+      <c r="BT3" s="139"/>
+      <c r="BU3" s="139"/>
+      <c r="BV3" s="139"/>
+      <c r="BW3" s="139"/>
+      <c r="BX3" s="140"/>
     </row>
     <row r="4" spans="1:76">
       <c r="A4" s="2"/>
@@ -8618,105 +8637,105 @@
     </row>
     <row r="5" spans="1:76">
       <c r="A5" s="2"/>
-      <c r="B5" s="174" t="s">
+      <c r="B5" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="175"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
-      <c r="G5" s="168"/>
-      <c r="H5" s="168"/>
-      <c r="I5" s="168"/>
-      <c r="J5" s="169"/>
-      <c r="K5" s="164" t="s">
+      <c r="C5" s="142"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
+      <c r="K5" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="165"/>
-      <c r="M5" s="165"/>
-      <c r="N5" s="165"/>
-      <c r="O5" s="176" t="s">
+      <c r="L5" s="146"/>
+      <c r="M5" s="146"/>
+      <c r="N5" s="146"/>
+      <c r="O5" s="147" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="165"/>
-      <c r="Q5" s="165"/>
-      <c r="R5" s="177"/>
-      <c r="S5" s="164" t="s">
+      <c r="P5" s="146"/>
+      <c r="Q5" s="146"/>
+      <c r="R5" s="148"/>
+      <c r="S5" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="T5" s="165"/>
-      <c r="U5" s="165"/>
-      <c r="V5" s="165"/>
-      <c r="W5" s="164"/>
-      <c r="X5" s="165"/>
-      <c r="Y5" s="165"/>
-      <c r="Z5" s="165"/>
-      <c r="AA5" s="164"/>
-      <c r="AB5" s="165"/>
-      <c r="AC5" s="165"/>
-      <c r="AD5" s="165"/>
-      <c r="AE5" s="164"/>
-      <c r="AF5" s="165"/>
-      <c r="AG5" s="165"/>
-      <c r="AH5" s="165"/>
-      <c r="AI5" s="164"/>
-      <c r="AJ5" s="165"/>
-      <c r="AK5" s="165"/>
-      <c r="AL5" s="165"/>
-      <c r="AM5" s="164"/>
-      <c r="AN5" s="165"/>
-      <c r="AO5" s="165"/>
-      <c r="AP5" s="165"/>
-      <c r="AQ5" s="164"/>
-      <c r="AR5" s="165"/>
-      <c r="AS5" s="165"/>
-      <c r="AT5" s="165"/>
-      <c r="AU5" s="164"/>
-      <c r="AV5" s="165"/>
-      <c r="AW5" s="165"/>
-      <c r="AX5" s="165"/>
-      <c r="AY5" s="164"/>
-      <c r="AZ5" s="165"/>
-      <c r="BA5" s="165"/>
-      <c r="BB5" s="165"/>
-      <c r="BC5" s="164"/>
-      <c r="BD5" s="165"/>
-      <c r="BE5" s="165"/>
-      <c r="BF5" s="165"/>
-      <c r="BG5" s="164"/>
-      <c r="BH5" s="165"/>
-      <c r="BI5" s="165"/>
-      <c r="BJ5" s="165"/>
-      <c r="BK5" s="164"/>
-      <c r="BL5" s="165"/>
-      <c r="BM5" s="165"/>
-      <c r="BN5" s="165"/>
-      <c r="BO5" s="164"/>
-      <c r="BP5" s="165"/>
-      <c r="BQ5" s="165"/>
-      <c r="BR5" s="165"/>
-      <c r="BS5" s="164"/>
-      <c r="BT5" s="165"/>
-      <c r="BU5" s="165"/>
-      <c r="BV5" s="165"/>
+      <c r="T5" s="146"/>
+      <c r="U5" s="146"/>
+      <c r="V5" s="146"/>
+      <c r="W5" s="145"/>
+      <c r="X5" s="146"/>
+      <c r="Y5" s="146"/>
+      <c r="Z5" s="146"/>
+      <c r="AA5" s="145"/>
+      <c r="AB5" s="146"/>
+      <c r="AC5" s="146"/>
+      <c r="AD5" s="146"/>
+      <c r="AE5" s="145"/>
+      <c r="AF5" s="146"/>
+      <c r="AG5" s="146"/>
+      <c r="AH5" s="146"/>
+      <c r="AI5" s="145"/>
+      <c r="AJ5" s="146"/>
+      <c r="AK5" s="146"/>
+      <c r="AL5" s="146"/>
+      <c r="AM5" s="145"/>
+      <c r="AN5" s="146"/>
+      <c r="AO5" s="146"/>
+      <c r="AP5" s="146"/>
+      <c r="AQ5" s="145"/>
+      <c r="AR5" s="146"/>
+      <c r="AS5" s="146"/>
+      <c r="AT5" s="146"/>
+      <c r="AU5" s="145"/>
+      <c r="AV5" s="146"/>
+      <c r="AW5" s="146"/>
+      <c r="AX5" s="146"/>
+      <c r="AY5" s="145"/>
+      <c r="AZ5" s="146"/>
+      <c r="BA5" s="146"/>
+      <c r="BB5" s="146"/>
+      <c r="BC5" s="145"/>
+      <c r="BD5" s="146"/>
+      <c r="BE5" s="146"/>
+      <c r="BF5" s="146"/>
+      <c r="BG5" s="145"/>
+      <c r="BH5" s="146"/>
+      <c r="BI5" s="146"/>
+      <c r="BJ5" s="146"/>
+      <c r="BK5" s="145"/>
+      <c r="BL5" s="146"/>
+      <c r="BM5" s="146"/>
+      <c r="BN5" s="146"/>
+      <c r="BO5" s="145"/>
+      <c r="BP5" s="146"/>
+      <c r="BQ5" s="146"/>
+      <c r="BR5" s="146"/>
+      <c r="BS5" s="145"/>
+      <c r="BT5" s="146"/>
+      <c r="BU5" s="146"/>
+      <c r="BV5" s="146"/>
       <c r="BW5" s="3"/>
       <c r="BX5" s="4"/>
     </row>
     <row r="6" spans="1:76">
       <c r="A6" s="2"/>
-      <c r="B6" s="166" t="s">
+      <c r="B6" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="167"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="166" t="s">
+      <c r="C6" s="150"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="149" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
-      <c r="I6" s="168"/>
-      <c r="J6" s="169"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="144"/>
       <c r="K6" s="20" t="s">
         <v>37</v>
       </c>
@@ -8914,19 +8933,19 @@
     </row>
     <row r="7" spans="1:76">
       <c r="A7" s="2"/>
-      <c r="B7" s="143" t="s">
+      <c r="B7" s="151" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="154" t="s">
+      <c r="C7" s="152"/>
+      <c r="D7" s="152"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="162" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="154"/>
-      <c r="H7" s="154"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="154"/>
+      <c r="G7" s="162"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="162"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
@@ -8998,17 +9017,17 @@
     </row>
     <row r="8" spans="1:76">
       <c r="A8" s="2"/>
-      <c r="B8" s="146"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="154" t="s">
+      <c r="B8" s="154"/>
+      <c r="C8" s="155"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="156"/>
+      <c r="F8" s="162" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="154"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="154"/>
+      <c r="G8" s="162"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="162"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
@@ -9080,17 +9099,17 @@
     </row>
     <row r="9" spans="1:76">
       <c r="A9" s="2"/>
-      <c r="B9" s="146"/>
-      <c r="C9" s="147"/>
-      <c r="D9" s="147"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="154" t="s">
+      <c r="B9" s="154"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="154"/>
-      <c r="H9" s="154"/>
-      <c r="I9" s="154"/>
-      <c r="J9" s="154"/>
+      <c r="G9" s="162"/>
+      <c r="H9" s="162"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="162"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
@@ -9162,17 +9181,17 @@
     </row>
     <row r="10" spans="1:76">
       <c r="A10" s="2"/>
-      <c r="B10" s="146"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="148"/>
-      <c r="F10" s="154" t="s">
+      <c r="B10" s="154"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="156"/>
+      <c r="F10" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="154"/>
-      <c r="H10" s="154"/>
-      <c r="I10" s="154"/>
-      <c r="J10" s="154"/>
+      <c r="G10" s="162"/>
+      <c r="H10" s="162"/>
+      <c r="I10" s="162"/>
+      <c r="J10" s="162"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
@@ -9244,17 +9263,17 @@
     </row>
     <row r="11" spans="1:76">
       <c r="A11" s="2"/>
-      <c r="B11" s="146"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="154" t="s">
+      <c r="B11" s="154"/>
+      <c r="C11" s="155"/>
+      <c r="D11" s="155"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="162" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="154"/>
-      <c r="H11" s="154"/>
-      <c r="I11" s="154"/>
-      <c r="J11" s="154"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="162"/>
+      <c r="J11" s="162"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
@@ -9326,17 +9345,17 @@
     </row>
     <row r="12" spans="1:76">
       <c r="A12" s="2"/>
-      <c r="B12" s="149"/>
-      <c r="C12" s="150"/>
-      <c r="D12" s="150"/>
-      <c r="E12" s="148"/>
-      <c r="F12" s="155" t="s">
+      <c r="B12" s="157"/>
+      <c r="C12" s="158"/>
+      <c r="D12" s="158"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="156"/>
-      <c r="H12" s="156"/>
-      <c r="I12" s="156"/>
-      <c r="J12" s="157"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="165"/>
       <c r="K12" s="24"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
@@ -9406,17 +9425,17 @@
     </row>
     <row r="13" spans="1:76">
       <c r="A13" s="2"/>
-      <c r="B13" s="149"/>
-      <c r="C13" s="150"/>
-      <c r="D13" s="150"/>
-      <c r="E13" s="148"/>
-      <c r="F13" s="158" t="s">
+      <c r="B13" s="157"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="158"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="166" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="159"/>
-      <c r="H13" s="159"/>
-      <c r="I13" s="159"/>
-      <c r="J13" s="160"/>
+      <c r="G13" s="167"/>
+      <c r="H13" s="167"/>
+      <c r="I13" s="167"/>
+      <c r="J13" s="168"/>
       <c r="K13" s="25"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -9486,17 +9505,17 @@
     </row>
     <row r="14" spans="1:76">
       <c r="A14" s="2"/>
-      <c r="B14" s="151"/>
-      <c r="C14" s="152"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="161" t="s">
+      <c r="B14" s="159"/>
+      <c r="C14" s="160"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="169" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="162"/>
-      <c r="H14" s="162"/>
-      <c r="I14" s="162"/>
-      <c r="J14" s="163"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="170"/>
+      <c r="I14" s="170"/>
+      <c r="J14" s="171"/>
       <c r="K14" s="17"/>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
@@ -9566,19 +9585,19 @@
     </row>
     <row r="15" spans="1:76">
       <c r="A15" s="2"/>
-      <c r="B15" s="143" t="s">
+      <c r="B15" s="151" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="144"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="154" t="s">
+      <c r="C15" s="152"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="153"/>
+      <c r="F15" s="162" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="154"/>
-      <c r="H15" s="154"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="154"/>
+      <c r="G15" s="162"/>
+      <c r="H15" s="162"/>
+      <c r="I15" s="162"/>
+      <c r="J15" s="162"/>
       <c r="K15" s="12" t="s">
         <v>43</v>
       </c>
@@ -9654,17 +9673,17 @@
     </row>
     <row r="16" spans="1:76">
       <c r="A16" s="2"/>
-      <c r="B16" s="146"/>
-      <c r="C16" s="147"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="148"/>
-      <c r="F16" s="154" t="s">
+      <c r="B16" s="154"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="156"/>
+      <c r="F16" s="162" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
+      <c r="G16" s="162"/>
+      <c r="H16" s="162"/>
+      <c r="I16" s="162"/>
+      <c r="J16" s="162"/>
       <c r="K16" s="11"/>
       <c r="L16" s="12" t="s">
         <v>43</v>
@@ -9740,17 +9759,17 @@
     </row>
     <row r="17" spans="1:76">
       <c r="A17" s="2"/>
-      <c r="B17" s="146"/>
-      <c r="C17" s="147"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="148"/>
-      <c r="F17" s="154" t="s">
+      <c r="B17" s="154"/>
+      <c r="C17" s="155"/>
+      <c r="D17" s="155"/>
+      <c r="E17" s="156"/>
+      <c r="F17" s="162" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="154"/>
+      <c r="G17" s="162"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="162"/>
+      <c r="J17" s="162"/>
       <c r="K17" s="11"/>
       <c r="L17" s="12" t="s">
         <v>43</v>
@@ -9826,17 +9845,17 @@
     </row>
     <row r="18" spans="1:76">
       <c r="A18" s="2"/>
-      <c r="B18" s="146"/>
-      <c r="C18" s="147"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="154" t="s">
+      <c r="B18" s="154"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="156"/>
+      <c r="F18" s="162" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="154"/>
-      <c r="H18" s="154"/>
-      <c r="I18" s="154"/>
-      <c r="J18" s="154"/>
+      <c r="G18" s="162"/>
+      <c r="H18" s="162"/>
+      <c r="I18" s="162"/>
+      <c r="J18" s="162"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="12" t="s">
@@ -9916,17 +9935,17 @@
     </row>
     <row r="19" spans="1:76">
       <c r="A19" s="2"/>
-      <c r="B19" s="146"/>
-      <c r="C19" s="147"/>
-      <c r="D19" s="147"/>
-      <c r="E19" s="148"/>
-      <c r="F19" s="154" t="s">
+      <c r="B19" s="154"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="162" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="154"/>
-      <c r="H19" s="154"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="154"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="162"/>
+      <c r="J19" s="162"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="12"/>
@@ -10000,17 +10019,17 @@
     </row>
     <row r="20" spans="1:76">
       <c r="A20" s="2"/>
-      <c r="B20" s="149"/>
-      <c r="C20" s="150"/>
-      <c r="D20" s="150"/>
-      <c r="E20" s="148"/>
-      <c r="F20" s="155" t="s">
+      <c r="B20" s="157"/>
+      <c r="C20" s="158"/>
+      <c r="D20" s="158"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="156"/>
-      <c r="H20" s="156"/>
-      <c r="I20" s="156"/>
-      <c r="J20" s="157"/>
+      <c r="G20" s="164"/>
+      <c r="H20" s="164"/>
+      <c r="I20" s="164"/>
+      <c r="J20" s="165"/>
       <c r="K20" s="24"/>
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
@@ -10080,17 +10099,17 @@
     </row>
     <row r="21" spans="1:76">
       <c r="A21" s="2"/>
-      <c r="B21" s="149"/>
-      <c r="C21" s="150"/>
-      <c r="D21" s="150"/>
-      <c r="E21" s="148"/>
-      <c r="F21" s="158" t="s">
+      <c r="B21" s="157"/>
+      <c r="C21" s="158"/>
+      <c r="D21" s="158"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="166" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="159"/>
-      <c r="H21" s="159"/>
-      <c r="I21" s="159"/>
-      <c r="J21" s="160"/>
+      <c r="G21" s="167"/>
+      <c r="H21" s="167"/>
+      <c r="I21" s="167"/>
+      <c r="J21" s="168"/>
       <c r="K21" s="25"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -10160,17 +10179,17 @@
     </row>
     <row r="22" spans="1:76">
       <c r="A22" s="2"/>
-      <c r="B22" s="151"/>
-      <c r="C22" s="152"/>
-      <c r="D22" s="152"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="161" t="s">
+      <c r="B22" s="159"/>
+      <c r="C22" s="160"/>
+      <c r="D22" s="160"/>
+      <c r="E22" s="161"/>
+      <c r="F22" s="169" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="162"/>
-      <c r="H22" s="162"/>
-      <c r="I22" s="162"/>
-      <c r="J22" s="163"/>
+      <c r="G22" s="170"/>
+      <c r="H22" s="170"/>
+      <c r="I22" s="170"/>
+      <c r="J22" s="171"/>
       <c r="K22" s="17"/>
       <c r="L22" s="18"/>
       <c r="M22" s="18"/>
@@ -10240,15 +10259,15 @@
     </row>
     <row r="23" spans="1:76">
       <c r="A23" s="2"/>
-      <c r="B23" s="143"/>
-      <c r="C23" s="144"/>
-      <c r="D23" s="144"/>
-      <c r="E23" s="145"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="154"/>
-      <c r="I23" s="154"/>
-      <c r="J23" s="154"/>
+      <c r="B23" s="151"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="153"/>
+      <c r="F23" s="162"/>
+      <c r="G23" s="162"/>
+      <c r="H23" s="162"/>
+      <c r="I23" s="162"/>
+      <c r="J23" s="162"/>
       <c r="K23" s="12"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
@@ -10318,15 +10337,15 @@
     </row>
     <row r="24" spans="1:76">
       <c r="A24" s="2"/>
-      <c r="B24" s="146"/>
-      <c r="C24" s="147"/>
-      <c r="D24" s="147"/>
-      <c r="E24" s="148"/>
-      <c r="F24" s="154"/>
-      <c r="G24" s="154"/>
-      <c r="H24" s="154"/>
-      <c r="I24" s="154"/>
-      <c r="J24" s="154"/>
+      <c r="B24" s="154"/>
+      <c r="C24" s="155"/>
+      <c r="D24" s="155"/>
+      <c r="E24" s="156"/>
+      <c r="F24" s="162"/>
+      <c r="G24" s="162"/>
+      <c r="H24" s="162"/>
+      <c r="I24" s="162"/>
+      <c r="J24" s="162"/>
       <c r="K24" s="11"/>
       <c r="L24" s="12"/>
       <c r="M24" s="11"/>
@@ -10396,15 +10415,15 @@
     </row>
     <row r="25" spans="1:76">
       <c r="A25" s="2"/>
-      <c r="B25" s="146"/>
-      <c r="C25" s="147"/>
-      <c r="D25" s="147"/>
-      <c r="E25" s="148"/>
-      <c r="F25" s="154"/>
-      <c r="G25" s="154"/>
-      <c r="H25" s="154"/>
-      <c r="I25" s="154"/>
-      <c r="J25" s="154"/>
+      <c r="B25" s="154"/>
+      <c r="C25" s="155"/>
+      <c r="D25" s="155"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="162"/>
+      <c r="H25" s="162"/>
+      <c r="I25" s="162"/>
+      <c r="J25" s="162"/>
       <c r="K25" s="11"/>
       <c r="L25" s="12"/>
       <c r="M25" s="11"/>
@@ -10474,15 +10493,15 @@
     </row>
     <row r="26" spans="1:76">
       <c r="A26" s="2"/>
-      <c r="B26" s="146"/>
-      <c r="C26" s="147"/>
-      <c r="D26" s="147"/>
-      <c r="E26" s="148"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="154"/>
-      <c r="I26" s="154"/>
-      <c r="J26" s="154"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="155"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="162"/>
+      <c r="G26" s="162"/>
+      <c r="H26" s="162"/>
+      <c r="I26" s="162"/>
+      <c r="J26" s="162"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="12"/>
@@ -10552,15 +10571,15 @@
     </row>
     <row r="27" spans="1:76">
       <c r="A27" s="2"/>
-      <c r="B27" s="146"/>
-      <c r="C27" s="147"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="148"/>
-      <c r="F27" s="154"/>
-      <c r="G27" s="154"/>
-      <c r="H27" s="154"/>
-      <c r="I27" s="154"/>
-      <c r="J27" s="154"/>
+      <c r="B27" s="154"/>
+      <c r="C27" s="155"/>
+      <c r="D27" s="155"/>
+      <c r="E27" s="156"/>
+      <c r="F27" s="162"/>
+      <c r="G27" s="162"/>
+      <c r="H27" s="162"/>
+      <c r="I27" s="162"/>
+      <c r="J27" s="162"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="M27" s="12"/>
@@ -10630,17 +10649,17 @@
     </row>
     <row r="28" spans="1:76">
       <c r="A28" s="2"/>
-      <c r="B28" s="149"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="155" t="s">
+      <c r="B28" s="157"/>
+      <c r="C28" s="158"/>
+      <c r="D28" s="158"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="156"/>
-      <c r="H28" s="156"/>
-      <c r="I28" s="156"/>
-      <c r="J28" s="157"/>
+      <c r="G28" s="164"/>
+      <c r="H28" s="164"/>
+      <c r="I28" s="164"/>
+      <c r="J28" s="165"/>
       <c r="K28" s="24"/>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
@@ -10710,17 +10729,17 @@
     </row>
     <row r="29" spans="1:76">
       <c r="A29" s="2"/>
-      <c r="B29" s="149"/>
-      <c r="C29" s="150"/>
-      <c r="D29" s="150"/>
-      <c r="E29" s="148"/>
-      <c r="F29" s="158" t="s">
+      <c r="B29" s="157"/>
+      <c r="C29" s="158"/>
+      <c r="D29" s="158"/>
+      <c r="E29" s="156"/>
+      <c r="F29" s="166" t="s">
         <v>54</v>
       </c>
-      <c r="G29" s="159"/>
-      <c r="H29" s="159"/>
-      <c r="I29" s="159"/>
-      <c r="J29" s="160"/>
+      <c r="G29" s="167"/>
+      <c r="H29" s="167"/>
+      <c r="I29" s="167"/>
+      <c r="J29" s="168"/>
       <c r="K29" s="25"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -10790,17 +10809,17 @@
     </row>
     <row r="30" spans="1:76">
       <c r="A30" s="2"/>
-      <c r="B30" s="151"/>
-      <c r="C30" s="152"/>
-      <c r="D30" s="152"/>
-      <c r="E30" s="153"/>
-      <c r="F30" s="161" t="s">
+      <c r="B30" s="159"/>
+      <c r="C30" s="160"/>
+      <c r="D30" s="160"/>
+      <c r="E30" s="161"/>
+      <c r="F30" s="169" t="s">
         <v>54</v>
       </c>
-      <c r="G30" s="162"/>
-      <c r="H30" s="162"/>
-      <c r="I30" s="162"/>
-      <c r="J30" s="163"/>
+      <c r="G30" s="170"/>
+      <c r="H30" s="170"/>
+      <c r="I30" s="170"/>
+      <c r="J30" s="171"/>
       <c r="K30" s="17"/>
       <c r="L30" s="18"/>
       <c r="M30" s="18"/>
@@ -10870,15 +10889,15 @@
     </row>
     <row r="31" spans="1:76">
       <c r="A31" s="2"/>
-      <c r="B31" s="143"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="145"/>
-      <c r="F31" s="154"/>
-      <c r="G31" s="154"/>
-      <c r="H31" s="154"/>
-      <c r="I31" s="154"/>
-      <c r="J31" s="154"/>
+      <c r="B31" s="151"/>
+      <c r="C31" s="152"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="153"/>
+      <c r="F31" s="162"/>
+      <c r="G31" s="162"/>
+      <c r="H31" s="162"/>
+      <c r="I31" s="162"/>
+      <c r="J31" s="162"/>
       <c r="K31" s="12"/>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
@@ -10948,15 +10967,15 @@
     </row>
     <row r="32" spans="1:76">
       <c r="A32" s="2"/>
-      <c r="B32" s="146"/>
-      <c r="C32" s="147"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="148"/>
-      <c r="F32" s="154"/>
-      <c r="G32" s="154"/>
-      <c r="H32" s="154"/>
-      <c r="I32" s="154"/>
-      <c r="J32" s="154"/>
+      <c r="B32" s="154"/>
+      <c r="C32" s="155"/>
+      <c r="D32" s="155"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="162"/>
+      <c r="G32" s="162"/>
+      <c r="H32" s="162"/>
+      <c r="I32" s="162"/>
+      <c r="J32" s="162"/>
       <c r="K32" s="11"/>
       <c r="L32" s="12"/>
       <c r="M32" s="11"/>
@@ -11026,15 +11045,15 @@
     </row>
     <row r="33" spans="1:76">
       <c r="A33" s="2"/>
-      <c r="B33" s="146"/>
-      <c r="C33" s="147"/>
-      <c r="D33" s="147"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="154"/>
-      <c r="H33" s="154"/>
-      <c r="I33" s="154"/>
-      <c r="J33" s="154"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="156"/>
+      <c r="F33" s="162"/>
+      <c r="G33" s="162"/>
+      <c r="H33" s="162"/>
+      <c r="I33" s="162"/>
+      <c r="J33" s="162"/>
       <c r="K33" s="11"/>
       <c r="L33" s="12"/>
       <c r="M33" s="11"/>
@@ -11104,15 +11123,15 @@
     </row>
     <row r="34" spans="1:76">
       <c r="A34" s="2"/>
-      <c r="B34" s="146"/>
-      <c r="C34" s="147"/>
-      <c r="D34" s="147"/>
-      <c r="E34" s="148"/>
-      <c r="F34" s="154"/>
-      <c r="G34" s="154"/>
-      <c r="H34" s="154"/>
-      <c r="I34" s="154"/>
-      <c r="J34" s="154"/>
+      <c r="B34" s="154"/>
+      <c r="C34" s="155"/>
+      <c r="D34" s="155"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="162"/>
+      <c r="G34" s="162"/>
+      <c r="H34" s="162"/>
+      <c r="I34" s="162"/>
+      <c r="J34" s="162"/>
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
       <c r="M34" s="12"/>
@@ -11182,15 +11201,15 @@
     </row>
     <row r="35" spans="1:76">
       <c r="A35" s="2"/>
-      <c r="B35" s="146"/>
-      <c r="C35" s="147"/>
-      <c r="D35" s="147"/>
-      <c r="E35" s="148"/>
-      <c r="F35" s="154"/>
-      <c r="G35" s="154"/>
-      <c r="H35" s="154"/>
-      <c r="I35" s="154"/>
-      <c r="J35" s="154"/>
+      <c r="B35" s="154"/>
+      <c r="C35" s="155"/>
+      <c r="D35" s="155"/>
+      <c r="E35" s="156"/>
+      <c r="F35" s="162"/>
+      <c r="G35" s="162"/>
+      <c r="H35" s="162"/>
+      <c r="I35" s="162"/>
+      <c r="J35" s="162"/>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
       <c r="M35" s="12"/>
@@ -11260,17 +11279,17 @@
     </row>
     <row r="36" spans="1:76">
       <c r="A36" s="2"/>
-      <c r="B36" s="149"/>
-      <c r="C36" s="150"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="148"/>
-      <c r="F36" s="155" t="s">
+      <c r="B36" s="157"/>
+      <c r="C36" s="158"/>
+      <c r="D36" s="158"/>
+      <c r="E36" s="156"/>
+      <c r="F36" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="G36" s="156"/>
-      <c r="H36" s="156"/>
-      <c r="I36" s="156"/>
-      <c r="J36" s="157"/>
+      <c r="G36" s="164"/>
+      <c r="H36" s="164"/>
+      <c r="I36" s="164"/>
+      <c r="J36" s="165"/>
       <c r="K36" s="24"/>
       <c r="L36" s="14"/>
       <c r="M36" s="14"/>
@@ -11340,17 +11359,17 @@
     </row>
     <row r="37" spans="1:76">
       <c r="A37" s="2"/>
-      <c r="B37" s="149"/>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="148"/>
-      <c r="F37" s="158" t="s">
+      <c r="B37" s="157"/>
+      <c r="C37" s="158"/>
+      <c r="D37" s="158"/>
+      <c r="E37" s="156"/>
+      <c r="F37" s="166" t="s">
         <v>54</v>
       </c>
-      <c r="G37" s="159"/>
-      <c r="H37" s="159"/>
-      <c r="I37" s="159"/>
-      <c r="J37" s="160"/>
+      <c r="G37" s="167"/>
+      <c r="H37" s="167"/>
+      <c r="I37" s="167"/>
+      <c r="J37" s="168"/>
       <c r="K37" s="25"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
@@ -11420,17 +11439,17 @@
     </row>
     <row r="38" spans="1:76">
       <c r="A38" s="2"/>
-      <c r="B38" s="151"/>
-      <c r="C38" s="152"/>
-      <c r="D38" s="152"/>
-      <c r="E38" s="153"/>
-      <c r="F38" s="161" t="s">
+      <c r="B38" s="159"/>
+      <c r="C38" s="160"/>
+      <c r="D38" s="160"/>
+      <c r="E38" s="161"/>
+      <c r="F38" s="169" t="s">
         <v>54</v>
       </c>
-      <c r="G38" s="162"/>
-      <c r="H38" s="162"/>
-      <c r="I38" s="162"/>
-      <c r="J38" s="163"/>
+      <c r="G38" s="170"/>
+      <c r="H38" s="170"/>
+      <c r="I38" s="170"/>
+      <c r="J38" s="171"/>
       <c r="K38" s="17"/>
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
@@ -11500,15 +11519,15 @@
     </row>
     <row r="39" spans="1:76">
       <c r="A39" s="2"/>
-      <c r="B39" s="143"/>
-      <c r="C39" s="144"/>
-      <c r="D39" s="144"/>
-      <c r="E39" s="145"/>
-      <c r="F39" s="154"/>
-      <c r="G39" s="154"/>
-      <c r="H39" s="154"/>
-      <c r="I39" s="154"/>
-      <c r="J39" s="154"/>
+      <c r="B39" s="151"/>
+      <c r="C39" s="152"/>
+      <c r="D39" s="152"/>
+      <c r="E39" s="153"/>
+      <c r="F39" s="162"/>
+      <c r="G39" s="162"/>
+      <c r="H39" s="162"/>
+      <c r="I39" s="162"/>
+      <c r="J39" s="162"/>
       <c r="K39" s="12"/>
       <c r="L39" s="11"/>
       <c r="M39" s="11"/>
@@ -11578,15 +11597,15 @@
     </row>
     <row r="40" spans="1:76">
       <c r="A40" s="2"/>
-      <c r="B40" s="146"/>
-      <c r="C40" s="147"/>
-      <c r="D40" s="147"/>
-      <c r="E40" s="148"/>
-      <c r="F40" s="154"/>
-      <c r="G40" s="154"/>
-      <c r="H40" s="154"/>
-      <c r="I40" s="154"/>
-      <c r="J40" s="154"/>
+      <c r="B40" s="154"/>
+      <c r="C40" s="155"/>
+      <c r="D40" s="155"/>
+      <c r="E40" s="156"/>
+      <c r="F40" s="162"/>
+      <c r="G40" s="162"/>
+      <c r="H40" s="162"/>
+      <c r="I40" s="162"/>
+      <c r="J40" s="162"/>
       <c r="K40" s="11"/>
       <c r="L40" s="12"/>
       <c r="M40" s="11"/>
@@ -11656,15 +11675,15 @@
     </row>
     <row r="41" spans="1:76">
       <c r="A41" s="2"/>
-      <c r="B41" s="146"/>
-      <c r="C41" s="147"/>
-      <c r="D41" s="147"/>
-      <c r="E41" s="148"/>
-      <c r="F41" s="154"/>
-      <c r="G41" s="154"/>
-      <c r="H41" s="154"/>
-      <c r="I41" s="154"/>
-      <c r="J41" s="154"/>
+      <c r="B41" s="154"/>
+      <c r="C41" s="155"/>
+      <c r="D41" s="155"/>
+      <c r="E41" s="156"/>
+      <c r="F41" s="162"/>
+      <c r="G41" s="162"/>
+      <c r="H41" s="162"/>
+      <c r="I41" s="162"/>
+      <c r="J41" s="162"/>
       <c r="K41" s="11"/>
       <c r="L41" s="12"/>
       <c r="M41" s="11"/>
@@ -11734,15 +11753,15 @@
     </row>
     <row r="42" spans="1:76">
       <c r="A42" s="2"/>
-      <c r="B42" s="146"/>
-      <c r="C42" s="147"/>
-      <c r="D42" s="147"/>
-      <c r="E42" s="148"/>
-      <c r="F42" s="154"/>
-      <c r="G42" s="154"/>
-      <c r="H42" s="154"/>
-      <c r="I42" s="154"/>
-      <c r="J42" s="154"/>
+      <c r="B42" s="154"/>
+      <c r="C42" s="155"/>
+      <c r="D42" s="155"/>
+      <c r="E42" s="156"/>
+      <c r="F42" s="162"/>
+      <c r="G42" s="162"/>
+      <c r="H42" s="162"/>
+      <c r="I42" s="162"/>
+      <c r="J42" s="162"/>
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
       <c r="M42" s="12"/>
@@ -11812,15 +11831,15 @@
     </row>
     <row r="43" spans="1:76">
       <c r="A43" s="2"/>
-      <c r="B43" s="146"/>
-      <c r="C43" s="147"/>
-      <c r="D43" s="147"/>
-      <c r="E43" s="148"/>
-      <c r="F43" s="154"/>
-      <c r="G43" s="154"/>
-      <c r="H43" s="154"/>
-      <c r="I43" s="154"/>
-      <c r="J43" s="154"/>
+      <c r="B43" s="154"/>
+      <c r="C43" s="155"/>
+      <c r="D43" s="155"/>
+      <c r="E43" s="156"/>
+      <c r="F43" s="162"/>
+      <c r="G43" s="162"/>
+      <c r="H43" s="162"/>
+      <c r="I43" s="162"/>
+      <c r="J43" s="162"/>
       <c r="K43" s="11"/>
       <c r="L43" s="11"/>
       <c r="M43" s="12"/>
@@ -11890,17 +11909,17 @@
     </row>
     <row r="44" spans="1:76">
       <c r="A44" s="2"/>
-      <c r="B44" s="149"/>
-      <c r="C44" s="150"/>
-      <c r="D44" s="150"/>
-      <c r="E44" s="148"/>
-      <c r="F44" s="155" t="s">
+      <c r="B44" s="157"/>
+      <c r="C44" s="158"/>
+      <c r="D44" s="158"/>
+      <c r="E44" s="156"/>
+      <c r="F44" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="G44" s="156"/>
-      <c r="H44" s="156"/>
-      <c r="I44" s="156"/>
-      <c r="J44" s="157"/>
+      <c r="G44" s="164"/>
+      <c r="H44" s="164"/>
+      <c r="I44" s="164"/>
+      <c r="J44" s="165"/>
       <c r="K44" s="24"/>
       <c r="L44" s="14"/>
       <c r="M44" s="14"/>
@@ -11970,17 +11989,17 @@
     </row>
     <row r="45" spans="1:76">
       <c r="A45" s="2"/>
-      <c r="B45" s="149"/>
-      <c r="C45" s="150"/>
-      <c r="D45" s="150"/>
-      <c r="E45" s="148"/>
-      <c r="F45" s="158" t="s">
+      <c r="B45" s="157"/>
+      <c r="C45" s="158"/>
+      <c r="D45" s="158"/>
+      <c r="E45" s="156"/>
+      <c r="F45" s="166" t="s">
         <v>54</v>
       </c>
-      <c r="G45" s="159"/>
-      <c r="H45" s="159"/>
-      <c r="I45" s="159"/>
-      <c r="J45" s="160"/>
+      <c r="G45" s="167"/>
+      <c r="H45" s="167"/>
+      <c r="I45" s="167"/>
+      <c r="J45" s="168"/>
       <c r="K45" s="25"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -12050,17 +12069,17 @@
     </row>
     <row r="46" spans="1:76">
       <c r="A46" s="2"/>
-      <c r="B46" s="151"/>
-      <c r="C46" s="152"/>
-      <c r="D46" s="152"/>
-      <c r="E46" s="153"/>
-      <c r="F46" s="161" t="s">
+      <c r="B46" s="159"/>
+      <c r="C46" s="160"/>
+      <c r="D46" s="160"/>
+      <c r="E46" s="161"/>
+      <c r="F46" s="169" t="s">
         <v>54</v>
       </c>
-      <c r="G46" s="162"/>
-      <c r="H46" s="162"/>
-      <c r="I46" s="162"/>
-      <c r="J46" s="163"/>
+      <c r="G46" s="170"/>
+      <c r="H46" s="170"/>
+      <c r="I46" s="170"/>
+      <c r="J46" s="171"/>
       <c r="K46" s="17"/>
       <c r="L46" s="18"/>
       <c r="M46" s="18"/>
@@ -12130,15 +12149,15 @@
     </row>
     <row r="47" spans="1:76">
       <c r="A47" s="2"/>
-      <c r="B47" s="143"/>
-      <c r="C47" s="144"/>
-      <c r="D47" s="144"/>
-      <c r="E47" s="145"/>
-      <c r="F47" s="154"/>
-      <c r="G47" s="154"/>
-      <c r="H47" s="154"/>
-      <c r="I47" s="154"/>
-      <c r="J47" s="154"/>
+      <c r="B47" s="151"/>
+      <c r="C47" s="152"/>
+      <c r="D47" s="152"/>
+      <c r="E47" s="153"/>
+      <c r="F47" s="162"/>
+      <c r="G47" s="162"/>
+      <c r="H47" s="162"/>
+      <c r="I47" s="162"/>
+      <c r="J47" s="162"/>
       <c r="K47" s="12"/>
       <c r="L47" s="11"/>
       <c r="M47" s="11"/>
@@ -12208,15 +12227,15 @@
     </row>
     <row r="48" spans="1:76">
       <c r="A48" s="2"/>
-      <c r="B48" s="146"/>
-      <c r="C48" s="147"/>
-      <c r="D48" s="147"/>
-      <c r="E48" s="148"/>
-      <c r="F48" s="154"/>
-      <c r="G48" s="154"/>
-      <c r="H48" s="154"/>
-      <c r="I48" s="154"/>
-      <c r="J48" s="154"/>
+      <c r="B48" s="154"/>
+      <c r="C48" s="155"/>
+      <c r="D48" s="155"/>
+      <c r="E48" s="156"/>
+      <c r="F48" s="162"/>
+      <c r="G48" s="162"/>
+      <c r="H48" s="162"/>
+      <c r="I48" s="162"/>
+      <c r="J48" s="162"/>
       <c r="K48" s="11"/>
       <c r="L48" s="12"/>
       <c r="M48" s="11"/>
@@ -12286,15 +12305,15 @@
     </row>
     <row r="49" spans="1:76">
       <c r="A49" s="2"/>
-      <c r="B49" s="146"/>
-      <c r="C49" s="147"/>
-      <c r="D49" s="147"/>
-      <c r="E49" s="148"/>
-      <c r="F49" s="154"/>
-      <c r="G49" s="154"/>
-      <c r="H49" s="154"/>
-      <c r="I49" s="154"/>
-      <c r="J49" s="154"/>
+      <c r="B49" s="154"/>
+      <c r="C49" s="155"/>
+      <c r="D49" s="155"/>
+      <c r="E49" s="156"/>
+      <c r="F49" s="162"/>
+      <c r="G49" s="162"/>
+      <c r="H49" s="162"/>
+      <c r="I49" s="162"/>
+      <c r="J49" s="162"/>
       <c r="K49" s="11"/>
       <c r="L49" s="12"/>
       <c r="M49" s="11"/>
@@ -12364,15 +12383,15 @@
     </row>
     <row r="50" spans="1:76">
       <c r="A50" s="2"/>
-      <c r="B50" s="146"/>
-      <c r="C50" s="147"/>
-      <c r="D50" s="147"/>
-      <c r="E50" s="148"/>
-      <c r="F50" s="154"/>
-      <c r="G50" s="154"/>
-      <c r="H50" s="154"/>
-      <c r="I50" s="154"/>
-      <c r="J50" s="154"/>
+      <c r="B50" s="154"/>
+      <c r="C50" s="155"/>
+      <c r="D50" s="155"/>
+      <c r="E50" s="156"/>
+      <c r="F50" s="162"/>
+      <c r="G50" s="162"/>
+      <c r="H50" s="162"/>
+      <c r="I50" s="162"/>
+      <c r="J50" s="162"/>
       <c r="K50" s="11"/>
       <c r="L50" s="11"/>
       <c r="M50" s="12"/>
@@ -12442,15 +12461,15 @@
     </row>
     <row r="51" spans="1:76">
       <c r="A51" s="2"/>
-      <c r="B51" s="146"/>
-      <c r="C51" s="147"/>
-      <c r="D51" s="147"/>
-      <c r="E51" s="148"/>
-      <c r="F51" s="154"/>
-      <c r="G51" s="154"/>
-      <c r="H51" s="154"/>
-      <c r="I51" s="154"/>
-      <c r="J51" s="154"/>
+      <c r="B51" s="154"/>
+      <c r="C51" s="155"/>
+      <c r="D51" s="155"/>
+      <c r="E51" s="156"/>
+      <c r="F51" s="162"/>
+      <c r="G51" s="162"/>
+      <c r="H51" s="162"/>
+      <c r="I51" s="162"/>
+      <c r="J51" s="162"/>
       <c r="K51" s="11"/>
       <c r="L51" s="11"/>
       <c r="M51" s="12"/>
@@ -12520,17 +12539,17 @@
     </row>
     <row r="52" spans="1:76">
       <c r="A52" s="2"/>
-      <c r="B52" s="149"/>
-      <c r="C52" s="150"/>
-      <c r="D52" s="150"/>
-      <c r="E52" s="148"/>
-      <c r="F52" s="155" t="s">
+      <c r="B52" s="157"/>
+      <c r="C52" s="158"/>
+      <c r="D52" s="158"/>
+      <c r="E52" s="156"/>
+      <c r="F52" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="G52" s="156"/>
-      <c r="H52" s="156"/>
-      <c r="I52" s="156"/>
-      <c r="J52" s="157"/>
+      <c r="G52" s="164"/>
+      <c r="H52" s="164"/>
+      <c r="I52" s="164"/>
+      <c r="J52" s="165"/>
       <c r="K52" s="24"/>
       <c r="L52" s="14"/>
       <c r="M52" s="14"/>
@@ -12600,17 +12619,17 @@
     </row>
     <row r="53" spans="1:76">
       <c r="A53" s="2"/>
-      <c r="B53" s="149"/>
-      <c r="C53" s="150"/>
-      <c r="D53" s="150"/>
-      <c r="E53" s="148"/>
-      <c r="F53" s="158" t="s">
+      <c r="B53" s="157"/>
+      <c r="C53" s="158"/>
+      <c r="D53" s="158"/>
+      <c r="E53" s="156"/>
+      <c r="F53" s="166" t="s">
         <v>54</v>
       </c>
-      <c r="G53" s="159"/>
-      <c r="H53" s="159"/>
-      <c r="I53" s="159"/>
-      <c r="J53" s="160"/>
+      <c r="G53" s="167"/>
+      <c r="H53" s="167"/>
+      <c r="I53" s="167"/>
+      <c r="J53" s="168"/>
       <c r="K53" s="25"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
@@ -12680,17 +12699,17 @@
     </row>
     <row r="54" spans="1:76">
       <c r="A54" s="2"/>
-      <c r="B54" s="151"/>
-      <c r="C54" s="152"/>
-      <c r="D54" s="152"/>
-      <c r="E54" s="153"/>
-      <c r="F54" s="161" t="s">
+      <c r="B54" s="159"/>
+      <c r="C54" s="160"/>
+      <c r="D54" s="160"/>
+      <c r="E54" s="161"/>
+      <c r="F54" s="169" t="s">
         <v>54</v>
       </c>
-      <c r="G54" s="162"/>
-      <c r="H54" s="162"/>
-      <c r="I54" s="162"/>
-      <c r="J54" s="163"/>
+      <c r="G54" s="170"/>
+      <c r="H54" s="170"/>
+      <c r="I54" s="170"/>
+      <c r="J54" s="171"/>
       <c r="K54" s="17"/>
       <c r="L54" s="18"/>
       <c r="M54" s="18"/>
@@ -12994,6 +13013,76 @@
     </row>
   </sheetData>
   <mergeCells count="86">
+    <mergeCell ref="BG1:BI1"/>
+    <mergeCell ref="BG2:BI2"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="K2:BF2"/>
+    <mergeCell ref="K1:BF1"/>
+    <mergeCell ref="BS1:BX1"/>
+    <mergeCell ref="BS2:BX2"/>
+    <mergeCell ref="BP1:BR1"/>
+    <mergeCell ref="BP2:BR2"/>
+    <mergeCell ref="BJ1:BO1"/>
+    <mergeCell ref="BJ2:BO2"/>
+    <mergeCell ref="B47:E54"/>
+    <mergeCell ref="F47:J47"/>
+    <mergeCell ref="F48:J48"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="F51:J51"/>
+    <mergeCell ref="F52:J52"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="BO5:BR5"/>
+    <mergeCell ref="F38:J38"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="BG5:BJ5"/>
+    <mergeCell ref="BK5:BN5"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="B39:E46"/>
+    <mergeCell ref="F39:J39"/>
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="F41:J41"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="F43:J43"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="F46:J46"/>
+    <mergeCell ref="B31:E38"/>
+    <mergeCell ref="F33:J33"/>
+    <mergeCell ref="F34:J34"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="F35:J35"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="BS5:BV5"/>
+    <mergeCell ref="B23:E30"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="AU5:AX5"/>
+    <mergeCell ref="AY5:BB5"/>
+    <mergeCell ref="BC5:BF5"/>
     <mergeCell ref="A3:BX3"/>
     <mergeCell ref="S5:V5"/>
     <mergeCell ref="F17:J17"/>
@@ -13010,76 +13099,6 @@
     <mergeCell ref="F13:J13"/>
     <mergeCell ref="F10:J10"/>
     <mergeCell ref="F11:J11"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="BS5:BV5"/>
-    <mergeCell ref="B23:E30"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="AU5:AX5"/>
-    <mergeCell ref="AY5:BB5"/>
-    <mergeCell ref="BC5:BF5"/>
-    <mergeCell ref="B31:E38"/>
-    <mergeCell ref="F33:J33"/>
-    <mergeCell ref="F34:J34"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="F32:J32"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="B39:E46"/>
-    <mergeCell ref="F39:J39"/>
-    <mergeCell ref="F40:J40"/>
-    <mergeCell ref="F41:J41"/>
-    <mergeCell ref="F42:J42"/>
-    <mergeCell ref="F43:J43"/>
-    <mergeCell ref="F44:J44"/>
-    <mergeCell ref="F45:J45"/>
-    <mergeCell ref="F46:J46"/>
-    <mergeCell ref="BO5:BR5"/>
-    <mergeCell ref="F38:J38"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="BG5:BJ5"/>
-    <mergeCell ref="BK5:BN5"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="B47:E54"/>
-    <mergeCell ref="F47:J47"/>
-    <mergeCell ref="F48:J48"/>
-    <mergeCell ref="F49:J49"/>
-    <mergeCell ref="F50:J50"/>
-    <mergeCell ref="F51:J51"/>
-    <mergeCell ref="F52:J52"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="BS1:BX1"/>
-    <mergeCell ref="BS2:BX2"/>
-    <mergeCell ref="BP1:BR1"/>
-    <mergeCell ref="BP2:BR2"/>
-    <mergeCell ref="BJ1:BO1"/>
-    <mergeCell ref="BJ2:BO2"/>
-    <mergeCell ref="BG1:BI1"/>
-    <mergeCell ref="BG2:BI2"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="K2:BF2"/>
-    <mergeCell ref="K1:BF1"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -13158,15 +13177,15 @@
       <c r="I2" s="117"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="170"/>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
+      <c r="A3" s="137"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="119"/>
@@ -13205,17 +13224,17 @@
       <c r="D6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="178" t="s">
+      <c r="E6" s="181" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="179"/>
+      <c r="F6" s="182"/>
       <c r="G6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="178" t="s">
+      <c r="H6" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="179"/>
+      <c r="I6" s="182"/>
     </row>
     <row r="7" spans="1:9" ht="60" customHeight="1">
       <c r="A7" s="30" t="s">
@@ -13226,11 +13245,11 @@
       <c r="D7" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="182"/>
-      <c r="F7" s="183"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="179"/>
       <c r="G7" s="124"/>
       <c r="H7" s="180"/>
-      <c r="I7" s="181"/>
+      <c r="I7" s="183"/>
     </row>
     <row r="8" spans="1:9" ht="80.099999999999994" customHeight="1">
       <c r="A8" s="36"/>
@@ -13241,13 +13260,13 @@
       <c r="D8" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="182" t="s">
+      <c r="E8" s="178" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="183"/>
+      <c r="F8" s="179"/>
       <c r="G8" s="124"/>
       <c r="H8" s="180"/>
-      <c r="I8" s="183"/>
+      <c r="I8" s="179"/>
     </row>
     <row r="9" spans="1:9" ht="60" customHeight="1">
       <c r="A9" s="36"/>
@@ -13258,15 +13277,15 @@
       <c r="D9" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="182" t="s">
+      <c r="E9" s="178" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="183"/>
+      <c r="F9" s="179"/>
       <c r="G9" s="124" t="s">
         <v>30</v>
       </c>
       <c r="H9" s="180"/>
-      <c r="I9" s="183"/>
+      <c r="I9" s="179"/>
     </row>
     <row r="10" spans="1:9" ht="60" customHeight="1">
       <c r="A10" s="36"/>
@@ -13277,15 +13296,15 @@
       <c r="D10" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="182" t="s">
+      <c r="E10" s="178" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="183"/>
+      <c r="F10" s="179"/>
       <c r="G10" s="124" t="s">
         <v>30</v>
       </c>
       <c r="H10" s="180"/>
-      <c r="I10" s="183"/>
+      <c r="I10" s="179"/>
     </row>
     <row r="11" spans="1:9" ht="60" customHeight="1">
       <c r="A11" s="36"/>
@@ -13296,15 +13315,15 @@
       <c r="D11" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="182" t="s">
+      <c r="E11" s="178" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="183"/>
+      <c r="F11" s="179"/>
       <c r="G11" s="124" t="s">
         <v>30</v>
       </c>
       <c r="H11" s="180"/>
-      <c r="I11" s="183"/>
+      <c r="I11" s="179"/>
     </row>
     <row r="12" spans="1:9" ht="60" customHeight="1">
       <c r="A12" s="37"/>
@@ -13315,15 +13334,15 @@
       <c r="D12" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="182" t="s">
+      <c r="E12" s="178" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="183"/>
+      <c r="F12" s="179"/>
       <c r="G12" s="124" t="s">
         <v>30</v>
       </c>
       <c r="H12" s="180"/>
-      <c r="I12" s="183"/>
+      <c r="I12" s="179"/>
     </row>
     <row r="13" spans="1:9" ht="60" customHeight="1">
       <c r="A13" s="30" t="s">
@@ -13334,11 +13353,11 @@
       <c r="D13" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="182"/>
-      <c r="F13" s="183"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="179"/>
       <c r="G13" s="124"/>
       <c r="H13" s="180"/>
-      <c r="I13" s="183"/>
+      <c r="I13" s="179"/>
     </row>
     <row r="14" spans="1:9" ht="60" customHeight="1">
       <c r="A14" s="36"/>
@@ -13349,11 +13368,11 @@
       <c r="D14" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="182"/>
-      <c r="F14" s="183"/>
+      <c r="E14" s="178"/>
+      <c r="F14" s="179"/>
       <c r="G14" s="124"/>
       <c r="H14" s="180"/>
-      <c r="I14" s="183"/>
+      <c r="I14" s="179"/>
     </row>
     <row r="15" spans="1:9" ht="60" customHeight="1">
       <c r="A15" s="36"/>
@@ -13364,15 +13383,15 @@
       <c r="D15" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="182" t="s">
+      <c r="E15" s="178" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="183"/>
+      <c r="F15" s="179"/>
       <c r="G15" s="124"/>
       <c r="H15" s="180" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="183"/>
+      <c r="I15" s="179"/>
     </row>
     <row r="16" spans="1:9" ht="60" customHeight="1">
       <c r="A16" s="36"/>
@@ -13383,13 +13402,13 @@
       <c r="D16" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="182" t="s">
+      <c r="E16" s="178" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="183"/>
+      <c r="F16" s="179"/>
       <c r="G16" s="124"/>
       <c r="H16" s="180"/>
-      <c r="I16" s="183"/>
+      <c r="I16" s="179"/>
     </row>
     <row r="17" spans="1:9" ht="60" customHeight="1">
       <c r="A17" s="37"/>
@@ -13400,13 +13419,13 @@
       <c r="D17" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="182" t="s">
+      <c r="E17" s="178" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="183"/>
+      <c r="F17" s="179"/>
       <c r="G17" s="124"/>
       <c r="H17" s="180"/>
-      <c r="I17" s="183"/>
+      <c r="I17" s="179"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="8"/>
@@ -13421,22 +13440,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E14:F14"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="H6:I6"/>
@@ -13446,6 +13449,22 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="E7:F7"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H12:I12"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <printOptions horizontalCentered="1"/>
